--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4D3CD4-B1A4-491E-986A-B6678CA772A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474A846-1FD3-4D2F-BCD9-A322582F6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistics" sheetId="1" r:id="rId1"/>
+    <sheet name="Evalua" sheetId="3" r:id="rId2"/>
+    <sheet name="Legend" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Version</t>
   </si>
@@ -63,13 +65,67 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics </t>
+  </si>
+  <si>
+    <t>Version of the corpus</t>
+  </si>
+  <si>
+    <t>calculated similarities of names</t>
+  </si>
+  <si>
+    <t>calculated similarities of authors</t>
+  </si>
+  <si>
+    <t>calculated similarities of keywordss</t>
+  </si>
+  <si>
+    <t>calculated similarities of paragraphs</t>
+  </si>
+  <si>
+    <t>averaged similarities per row</t>
+  </si>
+  <si>
+    <t>minimum similarity per row</t>
+  </si>
+  <si>
+    <t>maximum similarity per row</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>MRR@1</t>
+  </si>
+  <si>
+    <t>R-Precision</t>
+  </si>
+  <si>
+    <t>Full MRR</t>
+  </si>
+  <si>
+    <t>the proportion of cases where the correct item appears in the very first position</t>
+  </si>
+  <si>
+    <t>the fraction of all true items that are retrieved within the top R results, where R is the number of true items for that query</t>
+  </si>
+  <si>
+    <t>the average over all queries of 1 divided by the rank of the first correct item</t>
+  </si>
+  <si>
+    <t>3(with negatives)</t>
+  </si>
+  <si>
+    <t>3 (only positives)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +142,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -109,14 +174,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,15 +517,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254F3F3-2D58-4C1D-A87C-56C974B5A226}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,17 +541,17 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,17 +570,17 @@
       <c r="F2">
         <v>0.40820000000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.4456</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.11650000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.88970000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -528,17 +596,17 @@
       <c r="F3">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.19650000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-4.41E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.56620000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -554,17 +622,17 @@
       <c r="F4">
         <v>0.69679999999999997</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.63929999999999998</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.52669999999999995</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -583,17 +651,17 @@
       <c r="F5">
         <v>0.2293</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.42730000000000001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.88539999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -609,17 +677,17 @@
       <c r="F6">
         <v>-0.1201</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.18709999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.3725</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -635,13 +703,193 @@
       <c r="F7">
         <v>0.92090000000000005</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.85399999999999998</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.65110000000000001</v>
       </c>
-      <c r="I7">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.5292</v>
+      </c>
+      <c r="E8">
+        <v>0.1023</v>
+      </c>
+      <c r="F8">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="H8">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="I8">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.89649999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-0.17</v>
+      </c>
+      <c r="F9">
+        <v>-0.10879999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="I9">
+        <v>-0.17</v>
+      </c>
+      <c r="J9">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.99280000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-0.1245</v>
+      </c>
+      <c r="F12">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="I12">
+        <v>-0.1245</v>
+      </c>
+      <c r="J12">
+        <v>0.49909999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="I13">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
@@ -649,4 +897,153 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6425285-6100-4E98-A2FC-D250DCE75505}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{C639DC3B-F845-41B2-AEC2-F51A22041684}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5C29-B47A-450B-AA49-EF0EDDC02364}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{9FE4479A-6A4C-4B90-8396-FAAA5CD4A129}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474A846-1FD3-4D2F-BCD9-A322582F6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E224DC-1925-4924-A6E4-605C638E05AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Version</t>
   </si>
@@ -119,6 +119,78 @@
   </si>
   <si>
     <t>3 (only positives)</t>
+  </si>
+  <si>
+    <t>2 (min)</t>
+  </si>
+  <si>
+    <t>2 (max)</t>
+  </si>
+  <si>
+    <t>3 (min)</t>
+  </si>
+  <si>
+    <t>3 (max)</t>
+  </si>
+  <si>
+    <t>2 (avg)</t>
+  </si>
+  <si>
+    <t>0.3376</t>
+  </si>
+  <si>
+    <t>0.2753</t>
+  </si>
+  <si>
+    <t>0.4097</t>
+  </si>
+  <si>
+    <t>0.1880</t>
+  </si>
+  <si>
+    <t>0.1807</t>
+  </si>
+  <si>
+    <t>0.2934</t>
+  </si>
+  <si>
+    <t>0.3504</t>
+  </si>
+  <si>
+    <t>0.2907</t>
+  </si>
+  <si>
+    <t>0.4300</t>
+  </si>
+  <si>
+    <t>0.3783</t>
+  </si>
+  <si>
+    <t>0.3326</t>
+  </si>
+  <si>
+    <t>0.5963</t>
+  </si>
+  <si>
+    <t>0.1979</t>
+  </si>
+  <si>
+    <t>0.2104</t>
+  </si>
+  <si>
+    <t>0.4183</t>
+  </si>
+  <si>
+    <t>0.2493</t>
+  </si>
+  <si>
+    <t>0.2923</t>
+  </si>
+  <si>
+    <t>0.5052</t>
+  </si>
+  <si>
+    <t>3 (avg)</t>
   </si>
 </sst>
 </file>
@@ -519,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254F3F3-2D58-4C1D-A87C-56C974B5A226}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6425285-6100-4E98-A2FC-D250DCE75505}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,7 +998,92 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{C639DC3B-F845-41B2-AEC2-F51A22041684}"/>
   </hyperlinks>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E224DC-1925-4924-A6E4-605C638E05AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380AAE6E-5A64-454F-B1F7-C01B2266F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="Evalua" sheetId="3" r:id="rId2"/>
-    <sheet name="Legend" sheetId="2" r:id="rId3"/>
+    <sheet name="Eval (ranking)" sheetId="3" r:id="rId2"/>
+    <sheet name="Eval (binary)" sheetId="4" r:id="rId3"/>
+    <sheet name="Legend" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Version</t>
   </si>
@@ -94,9 +95,6 @@
     <t>maximum similarity per row</t>
   </si>
   <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
     <t>MRR@1</t>
   </si>
   <si>
@@ -191,6 +189,60 @@
   </si>
   <si>
     <t>3 (avg)</t>
+  </si>
+  <si>
+    <t>Evaluation (ranked)</t>
+  </si>
+  <si>
+    <t>Evaluation (binary)</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>3(avg)</t>
+  </si>
+  <si>
+    <t>3(min)</t>
+  </si>
+  <si>
+    <t>3(max)</t>
+  </si>
+  <si>
+    <t>1(avg)</t>
+  </si>
+  <si>
+    <t>1(min)</t>
+  </si>
+  <si>
+    <t>1(max)</t>
+  </si>
+  <si>
+    <t>2(avg)</t>
+  </si>
+  <si>
+    <t>2(min)</t>
+  </si>
+  <si>
+    <t>2(max)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 score </t>
+  </si>
+  <si>
+    <t>proportion of predicted positive cases that are actually positive</t>
+  </si>
+  <si>
+    <t>proportion of actual positive cases that predictions correctly identify</t>
+  </si>
+  <si>
+    <t>harmonic mean of precision and recall, balancing both into a single metric</t>
   </si>
 </sst>
 </file>
@@ -787,7 +839,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -877,7 +929,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -975,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6425285-6100-4E98-A2FC-D250DCE75505}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -989,97 +1041,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1092,15 +1144,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5C29-B47A-450B-AA49-EF0EDDC02364}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.45</v>
+      </c>
+      <c r="D2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>0.37</v>
+      </c>
+      <c r="C5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>0.62</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>0.44</v>
+      </c>
+      <c r="C8">
+        <v>0.82</v>
+      </c>
+      <c r="D8">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>0.23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5C29-B47A-450B-AA49-EF0EDDC02364}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
@@ -1172,29 +1382,56 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380AAE6E-5A64-454F-B1F7-C01B2266F3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB86932-9899-4E3B-B397-01953C6F4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="5760" yWindow="1752" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB86932-9899-4E3B-B397-01953C6F4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F99270-2E9F-4603-98BF-7286FEB35FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1752" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Version</t>
   </si>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>harmonic mean of precision and recall, balancing both into a single metric</t>
+  </si>
+  <si>
+    <t>3(Logistic regression)</t>
+  </si>
+  <si>
+    <t>Test precision</t>
+  </si>
+  <si>
+    <t>Test recall</t>
+  </si>
+  <si>
+    <t>Test F1 score</t>
+  </si>
+  <si>
+    <t>3(Random Forest)</t>
+  </si>
+  <si>
+    <t>3(XGBoost)</t>
+  </si>
+  <si>
+    <t>3(LightGBM)</t>
+  </si>
+  <si>
+    <t>3(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1145,15 +1169,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,8 +1193,17 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1181,7 +1217,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1195,7 +1231,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1209,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1223,7 +1259,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1237,7 +1273,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1251,7 +1287,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1265,7 +1301,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1279,7 +1315,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1291,6 +1327,121 @@
       </c>
       <c r="D10">
         <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>0.63</v>
+      </c>
+      <c r="C11">
+        <v>0.91</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <v>0.64</v>
+      </c>
+      <c r="F11">
+        <v>0.93</v>
+      </c>
+      <c r="G11">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>0.86</v>
+      </c>
+      <c r="C12">
+        <v>0.87</v>
+      </c>
+      <c r="D12">
+        <v>0.86</v>
+      </c>
+      <c r="E12">
+        <v>0.86</v>
+      </c>
+      <c r="F12">
+        <v>0.88</v>
+      </c>
+      <c r="G12">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>0.84</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>0.87</v>
+      </c>
+      <c r="E13">
+        <v>0.85</v>
+      </c>
+      <c r="F13">
+        <v>0.91</v>
+      </c>
+      <c r="G13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>0.84</v>
+      </c>
+      <c r="C14">
+        <v>0.92</v>
+      </c>
+      <c r="D14">
+        <v>0.88</v>
+      </c>
+      <c r="E14">
+        <v>0.83</v>
+      </c>
+      <c r="F14">
+        <v>0.95</v>
+      </c>
+      <c r="G14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>0.82</v>
+      </c>
+      <c r="C15">
+        <v>0.89</v>
+      </c>
+      <c r="D15">
+        <v>0.86</v>
+      </c>
+      <c r="E15">
+        <v>0.82</v>
+      </c>
+      <c r="F15">
+        <v>0.94</v>
+      </c>
+      <c r="G15">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F99270-2E9F-4603-98BF-7286FEB35FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14F707-7F9A-4E1C-86E1-FC7A8B42ECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1383,7 @@
         <v>0.84</v>
       </c>
       <c r="C13">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D13">
         <v>0.87</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C14F707-7F9A-4E1C-86E1-FC7A8B42ECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC1BD32-5679-4B28-80B2-BB3A027515FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1383,7 @@
         <v>0.84</v>
       </c>
       <c r="C13">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="D13">
         <v>0.87</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC1BD32-5679-4B28-80B2-BB3A027515FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7AF64-3E6C-49B3-8EFA-A57EAA7AE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>Version</t>
   </si>
@@ -267,6 +267,17 @@
   </si>
   <si>
     <t>3(Neural Net)</t>
+  </si>
+  <si>
+    <t>Univariate (name, keywords, paragraph)</t>
+  </si>
+  <si>
+    <t>Multivariate (all metrics,
+ without missing indicator)</t>
+  </si>
+  <si>
+    <t>With name, keywords, paragraph 
+and their missing indicator</t>
   </si>
 </sst>
 </file>
@@ -326,10 +337,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1169,15 +1183,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1426,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C15">
         <v>0.89</v>
@@ -1442,6 +1456,366 @@
       </c>
       <c r="G15">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C17">
+        <v>0.9</v>
+      </c>
+      <c r="D17">
+        <v>0.7</v>
+      </c>
+      <c r="E17">
+        <v>0.59</v>
+      </c>
+      <c r="F17">
+        <v>0.91</v>
+      </c>
+      <c r="G17">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>0.79</v>
+      </c>
+      <c r="C18">
+        <v>0.83</v>
+      </c>
+      <c r="D18">
+        <v>0.81</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
+      </c>
+      <c r="F18">
+        <v>0.82</v>
+      </c>
+      <c r="G18">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>0.77</v>
+      </c>
+      <c r="C19">
+        <v>0.91</v>
+      </c>
+      <c r="D19">
+        <v>0.83</v>
+      </c>
+      <c r="E19">
+        <v>0.77</v>
+      </c>
+      <c r="F19">
+        <v>0.89</v>
+      </c>
+      <c r="G19">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>0.77</v>
+      </c>
+      <c r="C20">
+        <v>0.93</v>
+      </c>
+      <c r="D20">
+        <v>0.84</v>
+      </c>
+      <c r="E20">
+        <v>0.76</v>
+      </c>
+      <c r="F20">
+        <v>0.94</v>
+      </c>
+      <c r="G20">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>0.79</v>
+      </c>
+      <c r="C21">
+        <v>0.84</v>
+      </c>
+      <c r="D21">
+        <v>0.81</v>
+      </c>
+      <c r="E21">
+        <v>0.76</v>
+      </c>
+      <c r="F21">
+        <v>0.88</v>
+      </c>
+      <c r="G21">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>0.6</v>
+      </c>
+      <c r="C23">
+        <v>0.9</v>
+      </c>
+      <c r="D23">
+        <v>0.72</v>
+      </c>
+      <c r="E23">
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <v>0.93</v>
+      </c>
+      <c r="G23">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>0.84</v>
+      </c>
+      <c r="C24">
+        <v>0.86</v>
+      </c>
+      <c r="D24">
+        <v>0.85</v>
+      </c>
+      <c r="E24">
+        <v>0.85</v>
+      </c>
+      <c r="F24">
+        <v>0.89</v>
+      </c>
+      <c r="G24">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>0.84</v>
+      </c>
+      <c r="C25">
+        <v>0.9</v>
+      </c>
+      <c r="D25">
+        <v>0.87</v>
+      </c>
+      <c r="E25">
+        <v>0.85</v>
+      </c>
+      <c r="F25">
+        <v>0.91</v>
+      </c>
+      <c r="G25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26">
+        <v>0.84</v>
+      </c>
+      <c r="C26">
+        <v>0.92</v>
+      </c>
+      <c r="D26">
+        <v>0.88</v>
+      </c>
+      <c r="E26">
+        <v>0.83</v>
+      </c>
+      <c r="F26">
+        <v>0.95</v>
+      </c>
+      <c r="G26">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>0.82</v>
+      </c>
+      <c r="C27">
+        <v>0.86</v>
+      </c>
+      <c r="D27">
+        <v>0.84</v>
+      </c>
+      <c r="E27">
+        <v>0.78</v>
+      </c>
+      <c r="F27">
+        <v>0.84</v>
+      </c>
+      <c r="G27">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>0.6</v>
+      </c>
+      <c r="C29">
+        <v>0.91</v>
+      </c>
+      <c r="D29">
+        <v>0.73</v>
+      </c>
+      <c r="E29">
+        <v>0.61</v>
+      </c>
+      <c r="F29">
+        <v>0.92</v>
+      </c>
+      <c r="G29">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>0.79</v>
+      </c>
+      <c r="C30">
+        <v>0.83</v>
+      </c>
+      <c r="D30">
+        <v>0.81</v>
+      </c>
+      <c r="E30">
+        <v>0.8</v>
+      </c>
+      <c r="F30">
+        <v>0.82</v>
+      </c>
+      <c r="G30">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31">
+        <v>0.77</v>
+      </c>
+      <c r="C31">
+        <v>0.91</v>
+      </c>
+      <c r="D31">
+        <v>0.83</v>
+      </c>
+      <c r="E31">
+        <v>0.77</v>
+      </c>
+      <c r="F31">
+        <v>0.89</v>
+      </c>
+      <c r="G31">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>0.77</v>
+      </c>
+      <c r="C32">
+        <v>0.93</v>
+      </c>
+      <c r="D32">
+        <v>0.84</v>
+      </c>
+      <c r="E32">
+        <v>0.76</v>
+      </c>
+      <c r="F32">
+        <v>0.94</v>
+      </c>
+      <c r="G32">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>0.79</v>
+      </c>
+      <c r="C33">
+        <v>0.88</v>
+      </c>
+      <c r="D33">
+        <v>0.83</v>
+      </c>
+      <c r="E33">
+        <v>0.77</v>
+      </c>
+      <c r="F33">
+        <v>0.89</v>
+      </c>
+      <c r="G33">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F7AF64-3E6C-49B3-8EFA-A57EAA7AE355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB5C528-E2DB-4ADB-B407-527259265BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>Version</t>
   </si>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t>With name, keywords, paragraph 
+and their missing indicator</t>
+  </si>
+  <si>
+    <t>With name, keywords, paragraph, language
 and their missing indicator</t>
   </si>
 </sst>
@@ -1183,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,6 +1820,126 @@
       </c>
       <c r="G33">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>0.61</v>
+      </c>
+      <c r="C35">
+        <v>0.9</v>
+      </c>
+      <c r="D35">
+        <v>0.72</v>
+      </c>
+      <c r="E35">
+        <v>0.63</v>
+      </c>
+      <c r="F35">
+        <v>0.92</v>
+      </c>
+      <c r="G35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>0.84</v>
+      </c>
+      <c r="C36">
+        <v>0.84</v>
+      </c>
+      <c r="D36">
+        <v>0.84</v>
+      </c>
+      <c r="E36">
+        <v>0.84</v>
+      </c>
+      <c r="F36">
+        <v>0.82</v>
+      </c>
+      <c r="G36">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>0.82</v>
+      </c>
+      <c r="C37">
+        <v>0.88</v>
+      </c>
+      <c r="D37">
+        <v>0.85</v>
+      </c>
+      <c r="E37">
+        <v>0.83</v>
+      </c>
+      <c r="F37">
+        <v>0.91</v>
+      </c>
+      <c r="G37">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>0.81</v>
+      </c>
+      <c r="C38">
+        <v>0.92</v>
+      </c>
+      <c r="D38">
+        <v>0.86</v>
+      </c>
+      <c r="E38">
+        <v>0.83</v>
+      </c>
+      <c r="F38">
+        <v>0.95</v>
+      </c>
+      <c r="G38">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>0.83</v>
+      </c>
+      <c r="C39">
+        <v>0.88</v>
+      </c>
+      <c r="D39">
+        <v>0.85</v>
+      </c>
+      <c r="E39">
+        <v>0.83</v>
+      </c>
+      <c r="F39">
+        <v>0.86</v>
+      </c>
+      <c r="G39">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB5C528-E2DB-4ADB-B407-527259265BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6764C0-B5CC-41F5-9D73-8CB661A2B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>Version</t>
   </si>
@@ -281,6 +281,28 @@
   </si>
   <si>
     <t>With name, keywords, paragraph, language
+and their missing indicator</t>
+  </si>
+  <si>
+    <t>All features</t>
+  </si>
+  <si>
+    <t>3.1(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.1(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.1(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.1(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.1(Neural Net)</t>
+  </si>
+  <si>
+    <t>With name, keywords, paragraph, language, synonym
 and their missing indicator</t>
   </si>
 </sst>
@@ -1187,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,91 +1371,73 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11">
-        <v>0.63</v>
-      </c>
-      <c r="C11">
-        <v>0.91</v>
-      </c>
-      <c r="D11">
-        <v>0.75</v>
-      </c>
-      <c r="E11">
-        <v>0.64</v>
-      </c>
-      <c r="F11">
-        <v>0.93</v>
-      </c>
-      <c r="G11">
-        <v>0.76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>0.86</v>
+        <v>0.63</v>
       </c>
       <c r="C12">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="D12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="E12">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="F12">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G12">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C13">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="D13">
+        <v>0.86</v>
+      </c>
+      <c r="E13">
+        <v>0.86</v>
+      </c>
+      <c r="F13">
+        <v>0.88</v>
+      </c>
+      <c r="G13">
         <v>0.87</v>
-      </c>
-      <c r="E13">
-        <v>0.85</v>
-      </c>
-      <c r="F13">
-        <v>0.91</v>
-      </c>
-      <c r="G13">
-        <v>0.88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>0.84</v>
       </c>
       <c r="C14">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E14">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F14">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G14">
         <v>0.88</v>
@@ -1441,239 +1445,239 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15">
+        <v>0.84</v>
+      </c>
+      <c r="C15">
+        <v>0.92</v>
+      </c>
+      <c r="D15">
+        <v>0.88</v>
+      </c>
+      <c r="E15">
         <v>0.83</v>
       </c>
-      <c r="C15">
-        <v>0.89</v>
-      </c>
-      <c r="D15">
-        <v>0.86</v>
-      </c>
-      <c r="E15">
-        <v>0.82</v>
-      </c>
       <c r="F15">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G15">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>0.83</v>
+      </c>
+      <c r="C16">
+        <v>0.89</v>
+      </c>
+      <c r="D16">
+        <v>0.86</v>
+      </c>
+      <c r="E16">
+        <v>0.82</v>
+      </c>
+      <c r="F16">
+        <v>0.94</v>
+      </c>
+      <c r="G16">
+        <v>0.87</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C17">
-        <v>0.9</v>
-      </c>
-      <c r="D17">
-        <v>0.7</v>
-      </c>
-      <c r="E17">
-        <v>0.59</v>
-      </c>
-      <c r="F17">
-        <v>0.91</v>
-      </c>
-      <c r="G17">
-        <v>0.71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>0.79</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C18">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="D18">
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="F18">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="G18">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="C19">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="D19">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="E19">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F19">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="G19">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0.77</v>
       </c>
       <c r="C20">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D20">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E20">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F20">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="G20">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="C21">
+        <v>0.93</v>
+      </c>
+      <c r="D21">
         <v>0.84</v>
-      </c>
-      <c r="D21">
-        <v>0.81</v>
       </c>
       <c r="E21">
         <v>0.76</v>
       </c>
       <c r="F21">
+        <v>0.94</v>
+      </c>
+      <c r="G21">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>0.79</v>
+      </c>
+      <c r="C22">
+        <v>0.84</v>
+      </c>
+      <c r="D22">
+        <v>0.81</v>
+      </c>
+      <c r="E22">
+        <v>0.76</v>
+      </c>
+      <c r="F22">
         <v>0.88</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23">
-        <v>0.6</v>
-      </c>
-      <c r="C23">
-        <v>0.9</v>
-      </c>
-      <c r="D23">
-        <v>0.72</v>
-      </c>
-      <c r="E23">
-        <v>0.6</v>
-      </c>
-      <c r="F23">
-        <v>0.93</v>
-      </c>
-      <c r="G23">
-        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D24">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="E24">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="F24">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="G24">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>0.84</v>
       </c>
       <c r="C25">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D25">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E25">
         <v>0.85</v>
       </c>
       <c r="F25">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G25">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>0.84</v>
       </c>
       <c r="C26">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="D26">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E26">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F26">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G26">
         <v>0.88</v>
@@ -1681,264 +1685,647 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>0.84</v>
+      </c>
+      <c r="C27">
+        <v>0.92</v>
+      </c>
+      <c r="D27">
+        <v>0.88</v>
+      </c>
+      <c r="E27">
+        <v>0.83</v>
+      </c>
+      <c r="F27">
+        <v>0.95</v>
+      </c>
+      <c r="G27">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0.82</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0.86</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>0.84</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>0.78</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.84</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>0.81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29">
-        <v>0.6</v>
-      </c>
-      <c r="C29">
-        <v>0.91</v>
-      </c>
-      <c r="D29">
-        <v>0.73</v>
-      </c>
-      <c r="E29">
-        <v>0.61</v>
-      </c>
-      <c r="F29">
-        <v>0.92</v>
-      </c>
-      <c r="G29">
-        <v>0.73</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="D30">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="F30">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="G30">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="C31">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="D31">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="E31">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="G31">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>0.77</v>
       </c>
       <c r="C32">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D32">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E32">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F32">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="G32">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>0.77</v>
+      </c>
+      <c r="C33">
+        <v>0.93</v>
+      </c>
+      <c r="D33">
+        <v>0.84</v>
+      </c>
+      <c r="E33">
+        <v>0.76</v>
+      </c>
+      <c r="F33">
+        <v>0.94</v>
+      </c>
+      <c r="G33">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.79</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.88</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>0.83</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>0.77</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0.89</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>0.83</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35">
-        <v>0.61</v>
-      </c>
-      <c r="C35">
-        <v>0.9</v>
-      </c>
-      <c r="D35">
-        <v>0.72</v>
-      </c>
-      <c r="E35">
-        <v>0.63</v>
-      </c>
-      <c r="F35">
-        <v>0.92</v>
-      </c>
-      <c r="G35">
-        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="C36">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="D36">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="E36">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="F36">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="G36">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37">
+        <v>0.84</v>
+      </c>
+      <c r="C37">
+        <v>0.84</v>
+      </c>
+      <c r="D37">
+        <v>0.84</v>
+      </c>
+      <c r="E37">
+        <v>0.84</v>
+      </c>
+      <c r="F37">
         <v>0.82</v>
       </c>
-      <c r="C37">
-        <v>0.88</v>
-      </c>
-      <c r="D37">
-        <v>0.85</v>
-      </c>
-      <c r="E37">
+      <c r="G37">
         <v>0.83</v>
-      </c>
-      <c r="F37">
-        <v>0.91</v>
-      </c>
-      <c r="G37">
-        <v>0.87</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="C38">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="D38">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E38">
         <v>0.83</v>
       </c>
       <c r="F38">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G38">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="C39">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="D39">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E39">
         <v>0.83</v>
       </c>
       <c r="F39">
+        <v>0.95</v>
+      </c>
+      <c r="G39">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>0.83</v>
+      </c>
+      <c r="C40">
+        <v>0.88</v>
+      </c>
+      <c r="D40">
+        <v>0.85</v>
+      </c>
+      <c r="E40">
+        <v>0.83</v>
+      </c>
+      <c r="F40">
         <v>0.86</v>
       </c>
-      <c r="G39">
+      <c r="G40">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>0.63</v>
+      </c>
+      <c r="C42">
+        <v>0.91</v>
+      </c>
+      <c r="D42">
+        <v>0.75</v>
+      </c>
+      <c r="E42">
+        <v>0.65</v>
+      </c>
+      <c r="F42">
+        <v>0.93</v>
+      </c>
+      <c r="G42">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>0.87</v>
+      </c>
+      <c r="C43">
+        <v>0.88</v>
+      </c>
+      <c r="D43">
+        <v>0.88</v>
+      </c>
+      <c r="E43">
+        <v>0.87</v>
+      </c>
+      <c r="F43">
+        <v>0.9</v>
+      </c>
+      <c r="G43">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44">
+        <v>0.87</v>
+      </c>
+      <c r="C44">
+        <v>0.91</v>
+      </c>
+      <c r="D44">
+        <v>0.89</v>
+      </c>
+      <c r="E44">
+        <v>0.85</v>
+      </c>
+      <c r="F44">
+        <v>0.95</v>
+      </c>
+      <c r="G44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45">
+        <v>0.86</v>
+      </c>
+      <c r="C45">
+        <v>0.93</v>
+      </c>
+      <c r="D45">
+        <v>0.9</v>
+      </c>
+      <c r="E45">
+        <v>0.84</v>
+      </c>
+      <c r="F45">
+        <v>0.94</v>
+      </c>
+      <c r="G45">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46">
+        <v>0.84</v>
+      </c>
+      <c r="C46">
+        <v>0.87</v>
+      </c>
+      <c r="D46">
+        <v>0.86</v>
+      </c>
+      <c r="E46">
+        <v>0.83</v>
+      </c>
+      <c r="F46">
+        <v>0.86</v>
+      </c>
+      <c r="G46">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48">
+        <v>0.59</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>0.72</v>
+      </c>
+      <c r="E48">
+        <v>0.6</v>
+      </c>
+      <c r="F48">
+        <v>0.93</v>
+      </c>
+      <c r="G48">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>0.86</v>
+      </c>
+      <c r="C49">
+        <v>0.88</v>
+      </c>
+      <c r="D49">
+        <v>0.87</v>
+      </c>
+      <c r="E49">
+        <v>0.85</v>
+      </c>
+      <c r="F49">
+        <v>0.9</v>
+      </c>
+      <c r="G49">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>0.86</v>
+      </c>
+      <c r="C50">
+        <v>0.91</v>
+      </c>
+      <c r="D50">
+        <v>0.89</v>
+      </c>
+      <c r="E50">
+        <v>0.85</v>
+      </c>
+      <c r="F50">
+        <v>0.95</v>
+      </c>
+      <c r="G50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51">
+        <v>0.86</v>
+      </c>
+      <c r="C51">
+        <v>0.93</v>
+      </c>
+      <c r="D51">
+        <v>0.9</v>
+      </c>
+      <c r="E51">
+        <v>0.84</v>
+      </c>
+      <c r="F51">
+        <v>0.94</v>
+      </c>
+      <c r="G51">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52">
+        <v>0.82</v>
+      </c>
+      <c r="C52">
+        <v>0.83</v>
+      </c>
+      <c r="D52">
+        <v>0.83</v>
+      </c>
+      <c r="E52">
+        <v>0.77</v>
+      </c>
+      <c r="F52">
+        <v>0.79</v>
+      </c>
+      <c r="G52">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54">
+        <v>0.61</v>
+      </c>
+      <c r="C54">
+        <v>0.9</v>
+      </c>
+      <c r="D54">
+        <v>0.73</v>
+      </c>
+      <c r="E54">
+        <v>0.62</v>
+      </c>
+      <c r="F54">
+        <v>0.92</v>
+      </c>
+      <c r="G54">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55">
+        <v>0.86</v>
+      </c>
+      <c r="C55">
+        <v>0.87</v>
+      </c>
+      <c r="D55">
+        <v>0.86</v>
+      </c>
+      <c r="E55">
+        <v>0.84</v>
+      </c>
+      <c r="F55">
+        <v>0.88</v>
+      </c>
+      <c r="G55">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56">
+        <v>0.86</v>
+      </c>
+      <c r="C56">
+        <v>0.92</v>
+      </c>
+      <c r="D56">
+        <v>0.89</v>
+      </c>
+      <c r="E56">
+        <v>0.83</v>
+      </c>
+      <c r="F56">
+        <v>0.92</v>
+      </c>
+      <c r="G56">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57">
+        <v>0.84</v>
+      </c>
+      <c r="C57">
+        <v>0.94</v>
+      </c>
+      <c r="D57">
+        <v>0.89</v>
+      </c>
+      <c r="E57">
+        <v>0.83</v>
+      </c>
+      <c r="F57">
+        <v>0.95</v>
+      </c>
+      <c r="G57">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58">
+        <v>0.83</v>
+      </c>
+      <c r="C58">
+        <v>0.88</v>
+      </c>
+      <c r="D58">
+        <v>0.86</v>
+      </c>
+      <c r="E58">
+        <v>0.81</v>
+      </c>
+      <c r="F58">
+        <v>0.88</v>
+      </c>
+      <c r="G58">
         <v>0.84</v>
       </c>
     </row>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6764C0-B5CC-41F5-9D73-8CB661A2B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38B087-8119-4694-8A6F-BD5FE6388320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,13 +1388,13 @@
         <v>0.75</v>
       </c>
       <c r="E12">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F12">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G12">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1405,10 +1405,10 @@
         <v>0.86</v>
       </c>
       <c r="C13">
+        <v>0.88</v>
+      </c>
+      <c r="D13">
         <v>0.87</v>
-      </c>
-      <c r="D13">
-        <v>0.86</v>
       </c>
       <c r="E13">
         <v>0.86</v>
@@ -1434,10 +1434,10 @@
         <v>0.87</v>
       </c>
       <c r="E14">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F14">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G14">
         <v>0.88</v>
@@ -1448,22 +1448,22 @@
         <v>74</v>
       </c>
       <c r="B15">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="C15">
         <v>0.92</v>
       </c>
       <c r="D15">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E15">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G15">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1471,22 +1471,22 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="C16">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="D16">
         <v>0.86</v>
       </c>
       <c r="E16">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F16">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="G16">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1508,13 +1508,13 @@
         <v>0.7</v>
       </c>
       <c r="E18">
-        <v>0.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F18">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G18">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1525,13 +1525,13 @@
         <v>0.79</v>
       </c>
       <c r="C19">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D19">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="E19">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F19">
         <v>0.82</v>
@@ -1557,10 +1557,10 @@
         <v>0.77</v>
       </c>
       <c r="F20">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G20">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1577,13 +1577,13 @@
         <v>0.84</v>
       </c>
       <c r="E21">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F21">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G21">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1600,13 +1600,13 @@
         <v>0.81</v>
       </c>
       <c r="E22">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="F22">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="G22">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1622,19 +1622,19 @@
         <v>0.6</v>
       </c>
       <c r="C24">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D24">
         <v>0.72</v>
       </c>
       <c r="E24">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F24">
         <v>0.93</v>
       </c>
       <c r="G24">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1651,13 +1651,13 @@
         <v>0.85</v>
       </c>
       <c r="E25">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F25">
         <v>0.89</v>
       </c>
       <c r="G25">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1668,16 +1668,16 @@
         <v>0.84</v>
       </c>
       <c r="C26">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D26">
         <v>0.87</v>
       </c>
       <c r="E26">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F26">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G26">
         <v>0.88</v>
@@ -1688,22 +1688,22 @@
         <v>74</v>
       </c>
       <c r="B27">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="C27">
         <v>0.92</v>
       </c>
       <c r="D27">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E27">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="F27">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G27">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,19 +1711,19 @@
         <v>75</v>
       </c>
       <c r="B28">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="C28">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="D28">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="E28">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="G28">
         <v>0.81</v>
@@ -1745,10 +1745,10 @@
         <v>0.91</v>
       </c>
       <c r="D30">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E30">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F30">
         <v>0.92</v>
@@ -1774,10 +1774,10 @@
         <v>0.8</v>
       </c>
       <c r="F31">
+        <v>0.83</v>
+      </c>
+      <c r="G31">
         <v>0.82</v>
-      </c>
-      <c r="G31">
-        <v>0.81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1797,10 +1797,10 @@
         <v>0.77</v>
       </c>
       <c r="F32">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G32">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1817,13 +1817,13 @@
         <v>0.84</v>
       </c>
       <c r="E33">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F33">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G33">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
         <v>75</v>
       </c>
       <c r="B34">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="C34">
         <v>0.88</v>
@@ -1843,7 +1843,7 @@
         <v>0.77</v>
       </c>
       <c r="F34">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G34">
         <v>0.83</v>
@@ -1859,22 +1859,22 @@
         <v>68</v>
       </c>
       <c r="B36">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="C36">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D36">
         <v>0.72</v>
       </c>
       <c r="E36">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F36">
         <v>0.92</v>
       </c>
       <c r="G36">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,22 +1882,22 @@
         <v>72</v>
       </c>
       <c r="B37">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="C37">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="D37">
         <v>0.84</v>
       </c>
       <c r="E37">
+        <v>0.83</v>
+      </c>
+      <c r="F37">
+        <v>0.85</v>
+      </c>
+      <c r="G37">
         <v>0.84</v>
-      </c>
-      <c r="F37">
-        <v>0.82</v>
-      </c>
-      <c r="G37">
-        <v>0.83</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1905,22 +1905,22 @@
         <v>73</v>
       </c>
       <c r="B38">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="C38">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D38">
         <v>0.85</v>
       </c>
       <c r="E38">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="F38">
         <v>0.91</v>
       </c>
       <c r="G38">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1937,13 +1937,13 @@
         <v>0.86</v>
       </c>
       <c r="E39">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F39">
         <v>0.95</v>
       </c>
       <c r="G39">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1954,19 +1954,19 @@
         <v>0.83</v>
       </c>
       <c r="C40">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D40">
+        <v>0.86</v>
+      </c>
+      <c r="E40">
+        <v>0.8</v>
+      </c>
+      <c r="F40">
+        <v>0.91</v>
+      </c>
+      <c r="G40">
         <v>0.85</v>
-      </c>
-      <c r="E40">
-        <v>0.83</v>
-      </c>
-      <c r="F40">
-        <v>0.86</v>
-      </c>
-      <c r="G40">
-        <v>0.84</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38B087-8119-4694-8A6F-BD5FE6388320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064AEED-F875-43E7-AE99-1968E9D68E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,13 +1988,13 @@
         <v>0.75</v>
       </c>
       <c r="E42">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F42">
         <v>0.93</v>
       </c>
       <c r="G42">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2005,19 +2005,19 @@
         <v>0.87</v>
       </c>
       <c r="C43">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D43">
         <v>0.88</v>
       </c>
       <c r="E43">
+        <v>0.85</v>
+      </c>
+      <c r="F43">
+        <v>0.89</v>
+      </c>
+      <c r="G43">
         <v>0.87</v>
-      </c>
-      <c r="F43">
-        <v>0.9</v>
-      </c>
-      <c r="G43">
-        <v>0.89</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2025,22 +2025,22 @@
         <v>83</v>
       </c>
       <c r="B44">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C44">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D44">
         <v>0.89</v>
       </c>
       <c r="E44">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F44">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G44">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>0.93</v>
       </c>
       <c r="D45">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E45">
         <v>0.84</v>
@@ -2071,19 +2071,19 @@
         <v>85</v>
       </c>
       <c r="B46">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C46">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="D46">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E46">
         <v>0.83</v>
       </c>
       <c r="F46">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G46">
         <v>0.85</v>
@@ -2099,22 +2099,22 @@
         <v>81</v>
       </c>
       <c r="B48">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C48">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D48">
         <v>0.72</v>
       </c>
       <c r="E48">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F48">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G48">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2134,10 +2134,10 @@
         <v>0.85</v>
       </c>
       <c r="F49">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G49">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2148,19 +2148,19 @@
         <v>0.86</v>
       </c>
       <c r="C50">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D50">
         <v>0.89</v>
       </c>
       <c r="E50">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F50">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G50">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>84</v>
       </c>
       <c r="B51">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C51">
         <v>0.93</v>
       </c>
       <c r="D51">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E51">
         <v>0.84</v>
@@ -2191,22 +2191,22 @@
         <v>85</v>
       </c>
       <c r="B52">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="C52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="D52">
         <v>0.83</v>
       </c>
       <c r="E52">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F52">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="G52">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2225,16 +2225,16 @@
         <v>0.9</v>
       </c>
       <c r="D54">
+        <v>0.72</v>
+      </c>
+      <c r="E54">
+        <v>0.61</v>
+      </c>
+      <c r="F54">
+        <v>0.91</v>
+      </c>
+      <c r="G54">
         <v>0.73</v>
-      </c>
-      <c r="E54">
-        <v>0.62</v>
-      </c>
-      <c r="F54">
-        <v>0.92</v>
-      </c>
-      <c r="G54">
-        <v>0.74</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,7 +2248,7 @@
         <v>0.87</v>
       </c>
       <c r="D55">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E55">
         <v>0.84</v>
@@ -2265,22 +2265,22 @@
         <v>83</v>
       </c>
       <c r="B56">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C56">
         <v>0.92</v>
       </c>
       <c r="D56">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E56">
         <v>0.83</v>
       </c>
       <c r="F56">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G56">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2314,16 +2314,16 @@
         <v>0.83</v>
       </c>
       <c r="C58">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="D58">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E58">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="F58">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="G58">
         <v>0.84</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E064AEED-F875-43E7-AE99-1968E9D68E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512786F6-642E-4906-B6D2-1ECE4D7349E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512786F6-642E-4906-B6D2-1ECE4D7349E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C293C90-99C8-462B-B3CC-9DBDC767C585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>Version</t>
   </si>
@@ -304,6 +304,21 @@
   <si>
     <t>With name, keywords, paragraph, language, synonym
 and their missing indicator</t>
+  </si>
+  <si>
+    <t>3.2(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.2(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.2(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.2(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.2(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,6 +2342,366 @@
       </c>
       <c r="G58">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60">
+        <v>0.63</v>
+      </c>
+      <c r="C60">
+        <v>0.92</v>
+      </c>
+      <c r="D60">
+        <v>0.75</v>
+      </c>
+      <c r="E60">
+        <v>0.63</v>
+      </c>
+      <c r="F60">
+        <v>0.93</v>
+      </c>
+      <c r="G60">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61">
+        <v>0.87</v>
+      </c>
+      <c r="C61">
+        <v>0.89</v>
+      </c>
+      <c r="D61">
+        <v>0.88</v>
+      </c>
+      <c r="E61">
+        <v>0.87</v>
+      </c>
+      <c r="F61">
+        <v>0.91</v>
+      </c>
+      <c r="G61">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62">
+        <v>0.85</v>
+      </c>
+      <c r="C62">
+        <v>0.92</v>
+      </c>
+      <c r="D62">
+        <v>0.89</v>
+      </c>
+      <c r="E62">
+        <v>0.84</v>
+      </c>
+      <c r="F62">
+        <v>0.93</v>
+      </c>
+      <c r="G62">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63">
+        <v>0.85</v>
+      </c>
+      <c r="C63">
+        <v>0.93</v>
+      </c>
+      <c r="D63">
+        <v>0.89</v>
+      </c>
+      <c r="E63">
+        <v>0.83</v>
+      </c>
+      <c r="F63">
+        <v>0.95</v>
+      </c>
+      <c r="G63">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64">
+        <v>0.84</v>
+      </c>
+      <c r="C64">
+        <v>0.85</v>
+      </c>
+      <c r="D64">
+        <v>0.84</v>
+      </c>
+      <c r="E64">
+        <v>0.83</v>
+      </c>
+      <c r="F64">
+        <v>0.91</v>
+      </c>
+      <c r="G64">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>0.6</v>
+      </c>
+      <c r="C66">
+        <v>0.91</v>
+      </c>
+      <c r="D66">
+        <v>0.72</v>
+      </c>
+      <c r="E66">
+        <v>0.59</v>
+      </c>
+      <c r="F66">
+        <v>0.92</v>
+      </c>
+      <c r="G66">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>0.85</v>
+      </c>
+      <c r="C67">
+        <v>0.88</v>
+      </c>
+      <c r="D67">
+        <v>0.86</v>
+      </c>
+      <c r="E67">
+        <v>0.84</v>
+      </c>
+      <c r="F67">
+        <v>0.91</v>
+      </c>
+      <c r="G67">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>0.85</v>
+      </c>
+      <c r="C68">
+        <v>0.91</v>
+      </c>
+      <c r="D68">
+        <v>0.88</v>
+      </c>
+      <c r="E68">
+        <v>0.85</v>
+      </c>
+      <c r="F68">
+        <v>0.93</v>
+      </c>
+      <c r="G68">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>0.85</v>
+      </c>
+      <c r="C69">
+        <v>0.93</v>
+      </c>
+      <c r="D69">
+        <v>0.89</v>
+      </c>
+      <c r="E69">
+        <v>0.83</v>
+      </c>
+      <c r="F69">
+        <v>0.95</v>
+      </c>
+      <c r="G69">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70">
+        <v>0.8</v>
+      </c>
+      <c r="C70">
+        <v>0.85</v>
+      </c>
+      <c r="D70">
+        <v>0.82</v>
+      </c>
+      <c r="E70">
+        <v>0.81</v>
+      </c>
+      <c r="F70">
+        <v>0.83</v>
+      </c>
+      <c r="G70">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72">
+        <v>0.61</v>
+      </c>
+      <c r="C72">
+        <v>0.91</v>
+      </c>
+      <c r="D72">
+        <v>0.73</v>
+      </c>
+      <c r="E72">
+        <v>0.6</v>
+      </c>
+      <c r="F72">
+        <v>0.92</v>
+      </c>
+      <c r="G72">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73">
+        <v>0.86</v>
+      </c>
+      <c r="C73">
+        <v>0.87</v>
+      </c>
+      <c r="D73">
+        <v>0.86</v>
+      </c>
+      <c r="E73">
+        <v>0.86</v>
+      </c>
+      <c r="F73">
+        <v>0.9</v>
+      </c>
+      <c r="G73">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74">
+        <v>0.84</v>
+      </c>
+      <c r="C74">
+        <v>0.92</v>
+      </c>
+      <c r="D74">
+        <v>0.88</v>
+      </c>
+      <c r="E74">
+        <v>0.83</v>
+      </c>
+      <c r="F74">
+        <v>0.93</v>
+      </c>
+      <c r="G74">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>0.83</v>
+      </c>
+      <c r="C75">
+        <v>0.94</v>
+      </c>
+      <c r="D75">
+        <v>0.88</v>
+      </c>
+      <c r="E75">
+        <v>0.83</v>
+      </c>
+      <c r="F75">
+        <v>0.95</v>
+      </c>
+      <c r="G75">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76">
+        <v>0.84</v>
+      </c>
+      <c r="C76">
+        <v>0.87</v>
+      </c>
+      <c r="D76">
+        <v>0.85</v>
+      </c>
+      <c r="E76">
+        <v>0.83</v>
+      </c>
+      <c r="F76">
+        <v>0.86</v>
+      </c>
+      <c r="G76">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C293C90-99C8-462B-B3CC-9DBDC767C585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4ADBC-DBF0-44DD-A80D-EAF682BA5B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,13 +2357,13 @@
         <v>0.63</v>
       </c>
       <c r="C60">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D60">
         <v>0.75</v>
       </c>
       <c r="E60">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F60">
         <v>0.93</v>
@@ -2386,13 +2386,13 @@
         <v>0.88</v>
       </c>
       <c r="E61">
+        <v>0.84</v>
+      </c>
+      <c r="F61">
+        <v>0.89</v>
+      </c>
+      <c r="G61">
         <v>0.87</v>
-      </c>
-      <c r="F61">
-        <v>0.91</v>
-      </c>
-      <c r="G61">
-        <v>0.89</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>89</v>
       </c>
       <c r="B62">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C62">
         <v>0.92</v>
@@ -2409,10 +2409,10 @@
         <v>0.89</v>
       </c>
       <c r="E62">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F62">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G62">
         <v>0.89</v>
@@ -2426,7 +2426,7 @@
         <v>0.85</v>
       </c>
       <c r="C63">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D63">
         <v>0.89</v>
@@ -2435,7 +2435,7 @@
         <v>0.83</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G63">
         <v>0.89</v>
@@ -2449,16 +2449,16 @@
         <v>0.84</v>
       </c>
       <c r="C64">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="D64">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E64">
         <v>0.83</v>
       </c>
       <c r="F64">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="G64">
         <v>0.87</v>
@@ -2474,19 +2474,19 @@
         <v>87</v>
       </c>
       <c r="B66">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="C66">
         <v>0.91</v>
       </c>
       <c r="D66">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E66">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G66">
         <v>0.72</v>
@@ -2506,10 +2506,10 @@
         <v>0.86</v>
       </c>
       <c r="E67">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F67">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G67">
         <v>0.87</v>
@@ -2523,16 +2523,16 @@
         <v>0.85</v>
       </c>
       <c r="C68">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D68">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E68">
         <v>0.85</v>
       </c>
       <c r="F68">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G68">
         <v>0.89</v>
@@ -2546,7 +2546,7 @@
         <v>0.85</v>
       </c>
       <c r="C69">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D69">
         <v>0.89</v>
@@ -2555,7 +2555,7 @@
         <v>0.83</v>
       </c>
       <c r="F69">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G69">
         <v>0.89</v>
@@ -2566,22 +2566,22 @@
         <v>91</v>
       </c>
       <c r="B70">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="C70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D70">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="E70">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="F70">
         <v>0.83</v>
       </c>
       <c r="G70">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2594,16 +2594,16 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="C72">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="D72">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E72">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F72">
         <v>0.92</v>
@@ -2620,19 +2620,19 @@
         <v>0.86</v>
       </c>
       <c r="C73">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D73">
         <v>0.86</v>
       </c>
       <c r="E73">
+        <v>0.84</v>
+      </c>
+      <c r="F73">
+        <v>0.89</v>
+      </c>
+      <c r="G73">
         <v>0.86</v>
-      </c>
-      <c r="F73">
-        <v>0.9</v>
-      </c>
-      <c r="G73">
-        <v>0.88</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2640,7 +2640,7 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C74">
         <v>0.92</v>
@@ -2649,10 +2649,10 @@
         <v>0.88</v>
       </c>
       <c r="E74">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F74">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G74">
         <v>0.88</v>
@@ -2675,10 +2675,10 @@
         <v>0.83</v>
       </c>
       <c r="F75">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G75">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2686,10 +2686,10 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C76">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="D76">
         <v>0.85</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4ADBC-DBF0-44DD-A80D-EAF682BA5B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2571D1A-3D1B-40BB-8FCC-BB5C7D8B3A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
   <si>
     <t>Version</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>3.2(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.3(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.3(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.3(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.3(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.3(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1224,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2354,22 +2369,22 @@
         <v>87</v>
       </c>
       <c r="B60">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="C60">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D60">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="E60">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="F60">
         <v>0.93</v>
       </c>
       <c r="G60">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,19 +2395,19 @@
         <v>0.87</v>
       </c>
       <c r="C61">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D61">
         <v>0.88</v>
       </c>
       <c r="E61">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F61">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G61">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2400,19 +2415,19 @@
         <v>89</v>
       </c>
       <c r="B62">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C62">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D62">
         <v>0.89</v>
       </c>
       <c r="E62">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F62">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G62">
         <v>0.89</v>
@@ -2432,10 +2447,10 @@
         <v>0.89</v>
       </c>
       <c r="E63">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F63">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G63">
         <v>0.89</v>
@@ -2449,19 +2464,19 @@
         <v>0.84</v>
       </c>
       <c r="C64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D64">
         <v>0.86</v>
       </c>
       <c r="E64">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F64">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G64">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2474,22 +2489,22 @@
         <v>87</v>
       </c>
       <c r="B66">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C66">
         <v>0.91</v>
       </c>
       <c r="D66">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="E66">
-        <v>0.57999999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="F66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G66">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2506,10 +2521,10 @@
         <v>0.86</v>
       </c>
       <c r="E67">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F67">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G67">
         <v>0.87</v>
@@ -2523,16 +2538,16 @@
         <v>0.85</v>
       </c>
       <c r="C68">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D68">
         <v>0.89</v>
       </c>
       <c r="E68">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F68">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G68">
         <v>0.89</v>
@@ -2552,10 +2567,10 @@
         <v>0.89</v>
       </c>
       <c r="E69">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F69">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G69">
         <v>0.89</v>
@@ -2566,22 +2581,22 @@
         <v>91</v>
       </c>
       <c r="B70">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="C70">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="D70">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E70">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="F70">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="G70">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -2594,22 +2609,22 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="C72">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D72">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E72">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="F72">
         <v>0.92</v>
       </c>
       <c r="G72">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2617,22 +2632,22 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C73">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="D73">
         <v>0.86</v>
       </c>
       <c r="E73">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F73">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="G73">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2640,10 +2655,10 @@
         <v>89</v>
       </c>
       <c r="B74">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="C74">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D74">
         <v>0.88</v>
@@ -2663,22 +2678,22 @@
         <v>90</v>
       </c>
       <c r="B75">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C75">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D75">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E75">
         <v>0.83</v>
       </c>
       <c r="F75">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="G75">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2686,22 +2701,112 @@
         <v>91</v>
       </c>
       <c r="B76">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C76">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D76">
         <v>0.85</v>
       </c>
       <c r="E76">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="F76">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="G76">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2571D1A-3D1B-40BB-8FCC-BB5C7D8B3A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AEC65-4DB1-416F-8361-5E106E69D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
   <si>
     <t>Version</t>
   </si>
@@ -1239,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,94 +2719,484 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>80</v>
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B78">
+        <v>0.61</v>
+      </c>
+      <c r="C78">
+        <v>0.91</v>
+      </c>
+      <c r="D78">
+        <v>0.73</v>
+      </c>
+      <c r="E78">
+        <v>0.63</v>
+      </c>
+      <c r="F78">
+        <v>0.92</v>
+      </c>
+      <c r="G78">
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>0.85</v>
+      </c>
+      <c r="C79">
+        <v>0.85</v>
+      </c>
+      <c r="D79">
+        <v>0.85</v>
+      </c>
+      <c r="E79">
+        <v>0.82</v>
+      </c>
+      <c r="F79">
+        <v>0.84</v>
+      </c>
+      <c r="G79">
+        <v>0.83</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="B80">
+        <v>0.8</v>
+      </c>
+      <c r="C80">
+        <v>0.92</v>
+      </c>
+      <c r="D80">
+        <v>0.86</v>
+      </c>
+      <c r="E80">
+        <v>0.8</v>
+      </c>
+      <c r="F80">
+        <v>0.93</v>
+      </c>
+      <c r="G80">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <v>0.94</v>
+      </c>
+      <c r="D81">
+        <v>0.86</v>
+      </c>
+      <c r="E81">
+        <v>0.81</v>
+      </c>
+      <c r="F81">
+        <v>0.96</v>
+      </c>
+      <c r="G81">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="B82">
+        <v>0.85</v>
+      </c>
+      <c r="C82">
+        <v>0.87</v>
+      </c>
+      <c r="D82">
+        <v>0.86</v>
+      </c>
+      <c r="E82">
+        <v>0.82</v>
+      </c>
+      <c r="F82">
+        <v>0.9</v>
+      </c>
+      <c r="G82">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0.64</v>
+      </c>
+      <c r="C84">
+        <v>0.92</v>
+      </c>
+      <c r="D84">
+        <v>0.76</v>
+      </c>
+      <c r="E84">
+        <v>0.64</v>
+      </c>
+      <c r="F84">
+        <v>0.92</v>
+      </c>
+      <c r="G84">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0.88</v>
+      </c>
+      <c r="C85">
+        <v>0.9</v>
+      </c>
+      <c r="D85">
+        <v>0.89</v>
+      </c>
+      <c r="E85">
+        <v>0.87</v>
+      </c>
+      <c r="F85">
+        <v>0.92</v>
+      </c>
+      <c r="G85">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0.88</v>
+      </c>
+      <c r="C86">
+        <v>0.93</v>
+      </c>
+      <c r="D86">
+        <v>0.9</v>
+      </c>
+      <c r="E86">
+        <v>0.86</v>
+      </c>
+      <c r="F86">
+        <v>0.94</v>
+      </c>
+      <c r="G86">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0.87</v>
+      </c>
+      <c r="C87">
+        <v>0.94</v>
+      </c>
+      <c r="D87">
+        <v>0.9</v>
+      </c>
+      <c r="E87">
+        <v>0.87</v>
+      </c>
+      <c r="F87">
+        <v>0.96</v>
+      </c>
+      <c r="G87">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0.84</v>
+      </c>
+      <c r="C88">
+        <v>0.89</v>
+      </c>
+      <c r="D88">
+        <v>0.86</v>
+      </c>
+      <c r="E88">
+        <v>0.82</v>
+      </c>
+      <c r="F88">
+        <v>0.92</v>
+      </c>
+      <c r="G88">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>0.6</v>
+      </c>
+      <c r="C90">
+        <v>0.91</v>
+      </c>
+      <c r="D90">
+        <v>0.72</v>
+      </c>
+      <c r="E90">
+        <v>0.61</v>
+      </c>
+      <c r="F90">
+        <v>0.93</v>
+      </c>
+      <c r="G90">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0.87</v>
+      </c>
+      <c r="C91">
+        <v>0.89</v>
+      </c>
+      <c r="D91">
+        <v>0.88</v>
+      </c>
+      <c r="E91">
+        <v>0.87</v>
+      </c>
+      <c r="F91">
+        <v>0.91</v>
+      </c>
+      <c r="G91">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0.88</v>
+      </c>
+      <c r="C92">
+        <v>0.94</v>
+      </c>
+      <c r="D92">
+        <v>0.91</v>
+      </c>
+      <c r="E92">
+        <v>0.87</v>
+      </c>
+      <c r="F92">
+        <v>0.95</v>
+      </c>
+      <c r="G92">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0.87</v>
+      </c>
+      <c r="C93">
+        <v>0.94</v>
+      </c>
+      <c r="D93">
+        <v>0.9</v>
+      </c>
+      <c r="E93">
+        <v>0.87</v>
+      </c>
+      <c r="F93">
+        <v>0.96</v>
+      </c>
+      <c r="G93">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
+      </c>
+      <c r="B94">
+        <v>0.82</v>
+      </c>
+      <c r="C94">
+        <v>0.86</v>
+      </c>
+      <c r="D94">
+        <v>0.84</v>
+      </c>
+      <c r="E94">
+        <v>0.79</v>
+      </c>
+      <c r="F94">
+        <v>0.85</v>
+      </c>
+      <c r="G94">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96">
+        <v>0.61</v>
+      </c>
+      <c r="C96">
+        <v>0.91</v>
+      </c>
+      <c r="D96">
+        <v>0.73</v>
+      </c>
+      <c r="E96">
+        <v>0.62</v>
+      </c>
+      <c r="F96">
+        <v>0.92</v>
+      </c>
+      <c r="G96">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>0.88</v>
+      </c>
+      <c r="C97">
+        <v>0.89</v>
+      </c>
+      <c r="D97">
+        <v>0.89</v>
+      </c>
+      <c r="E97">
+        <v>0.87</v>
+      </c>
+      <c r="F97">
+        <v>0.93</v>
+      </c>
+      <c r="G97">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>0.88</v>
+      </c>
+      <c r="C98">
+        <v>0.93</v>
+      </c>
+      <c r="D98">
+        <v>0.9</v>
+      </c>
+      <c r="E98">
+        <v>0.86</v>
+      </c>
+      <c r="F98">
+        <v>0.93</v>
+      </c>
+      <c r="G98">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>0.86</v>
+      </c>
+      <c r="C99">
+        <v>0.94</v>
+      </c>
+      <c r="D99">
+        <v>0.9</v>
+      </c>
+      <c r="E99">
+        <v>0.85</v>
+      </c>
+      <c r="F99">
+        <v>0.94</v>
+      </c>
+      <c r="G99">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <v>0.84</v>
+      </c>
+      <c r="C100">
+        <v>0.88</v>
+      </c>
+      <c r="D100">
+        <v>0.86</v>
+      </c>
+      <c r="E100">
+        <v>0.82</v>
+      </c>
+      <c r="F100">
+        <v>0.86</v>
+      </c>
+      <c r="G100">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AEC65-4DB1-416F-8361-5E106E69D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF9336-4AE9-4300-8D72-2EED20501B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
   <si>
     <t>Version</t>
   </si>
@@ -334,6 +334,21 @@
   </si>
   <si>
     <t>3.3(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.4(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.4(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.4(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.4(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.4(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3197,6 +3212,366 @@
       </c>
       <c r="G100">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B102">
+        <v>0.65</v>
+      </c>
+      <c r="C102">
+        <v>0.92</v>
+      </c>
+      <c r="D102">
+        <v>0.76</v>
+      </c>
+      <c r="E102">
+        <v>0.67</v>
+      </c>
+      <c r="F102">
+        <v>0.93</v>
+      </c>
+      <c r="G102">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103">
+        <v>0.89</v>
+      </c>
+      <c r="C103">
+        <v>0.9</v>
+      </c>
+      <c r="D103">
+        <v>0.89</v>
+      </c>
+      <c r="E103">
+        <v>0.87</v>
+      </c>
+      <c r="F103">
+        <v>0.92</v>
+      </c>
+      <c r="G103">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104">
+        <v>0.87</v>
+      </c>
+      <c r="C104">
+        <v>0.93</v>
+      </c>
+      <c r="D104">
+        <v>0.9</v>
+      </c>
+      <c r="E104">
+        <v>0.89</v>
+      </c>
+      <c r="F104">
+        <v>0.95</v>
+      </c>
+      <c r="G104">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>0.87</v>
+      </c>
+      <c r="C105">
+        <v>0.94</v>
+      </c>
+      <c r="D105">
+        <v>0.91</v>
+      </c>
+      <c r="E105">
+        <v>0.87</v>
+      </c>
+      <c r="F105">
+        <v>0.95</v>
+      </c>
+      <c r="G105">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106">
+        <v>0.86</v>
+      </c>
+      <c r="C106">
+        <v>0.88</v>
+      </c>
+      <c r="D106">
+        <v>0.87</v>
+      </c>
+      <c r="E106">
+        <v>0.81</v>
+      </c>
+      <c r="F106">
+        <v>0.94</v>
+      </c>
+      <c r="G106">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108">
+        <v>0.6</v>
+      </c>
+      <c r="C108">
+        <v>0.91</v>
+      </c>
+      <c r="D108">
+        <v>0.72</v>
+      </c>
+      <c r="E108">
+        <v>0.61</v>
+      </c>
+      <c r="F108">
+        <v>0.93</v>
+      </c>
+      <c r="G108">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109">
+        <v>0.88</v>
+      </c>
+      <c r="C109">
+        <v>0.89</v>
+      </c>
+      <c r="D109">
+        <v>0.88</v>
+      </c>
+      <c r="E109">
+        <v>0.87</v>
+      </c>
+      <c r="F109">
+        <v>0.91</v>
+      </c>
+      <c r="G109">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110">
+        <v>0.87</v>
+      </c>
+      <c r="C110">
+        <v>0.93</v>
+      </c>
+      <c r="D110">
+        <v>0.9</v>
+      </c>
+      <c r="E110">
+        <v>0.89</v>
+      </c>
+      <c r="F110">
+        <v>0.95</v>
+      </c>
+      <c r="G110">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111">
+        <v>0.87</v>
+      </c>
+      <c r="C111">
+        <v>0.94</v>
+      </c>
+      <c r="D111">
+        <v>0.91</v>
+      </c>
+      <c r="E111">
+        <v>0.87</v>
+      </c>
+      <c r="F111">
+        <v>0.95</v>
+      </c>
+      <c r="G111">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112">
+        <v>0.82</v>
+      </c>
+      <c r="C112">
+        <v>0.87</v>
+      </c>
+      <c r="D112">
+        <v>0.84</v>
+      </c>
+      <c r="E112">
+        <v>0.8</v>
+      </c>
+      <c r="F112">
+        <v>0.86</v>
+      </c>
+      <c r="G112">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114">
+        <v>0.62</v>
+      </c>
+      <c r="C114">
+        <v>0.91</v>
+      </c>
+      <c r="D114">
+        <v>0.74</v>
+      </c>
+      <c r="E114">
+        <v>0.64</v>
+      </c>
+      <c r="F114">
+        <v>0.92</v>
+      </c>
+      <c r="G114">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115">
+        <v>0.88</v>
+      </c>
+      <c r="C115">
+        <v>0.9</v>
+      </c>
+      <c r="D115">
+        <v>0.89</v>
+      </c>
+      <c r="E115">
+        <v>0.87</v>
+      </c>
+      <c r="F115">
+        <v>0.9</v>
+      </c>
+      <c r="G115">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116">
+        <v>0.86</v>
+      </c>
+      <c r="C116">
+        <v>0.93</v>
+      </c>
+      <c r="D116">
+        <v>0.89</v>
+      </c>
+      <c r="E116">
+        <v>0.87</v>
+      </c>
+      <c r="F116">
+        <v>0.93</v>
+      </c>
+      <c r="G116">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117">
+        <v>0.86</v>
+      </c>
+      <c r="C117">
+        <v>0.94</v>
+      </c>
+      <c r="D117">
+        <v>0.9</v>
+      </c>
+      <c r="E117">
+        <v>0.87</v>
+      </c>
+      <c r="F117">
+        <v>0.96</v>
+      </c>
+      <c r="G117">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118">
+        <v>0.84</v>
+      </c>
+      <c r="C118">
+        <v>0.88</v>
+      </c>
+      <c r="D118">
+        <v>0.87</v>
+      </c>
+      <c r="E118">
+        <v>0.82</v>
+      </c>
+      <c r="F118">
+        <v>0.89</v>
+      </c>
+      <c r="G118">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF9336-4AE9-4300-8D72-2EED20501B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C9509-3870-47BC-BCFB-0831AE557391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3224,7 +3224,7 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C102">
         <v>0.92</v>
@@ -3233,13 +3233,13 @@
         <v>0.76</v>
       </c>
       <c r="E102">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="F102">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G102">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3247,7 +3247,7 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C103">
         <v>0.9</v>
@@ -3256,7 +3256,7 @@
         <v>0.89</v>
       </c>
       <c r="E103">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F103">
         <v>0.92</v>
@@ -3273,19 +3273,19 @@
         <v>0.87</v>
       </c>
       <c r="C104">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D104">
         <v>0.9</v>
       </c>
       <c r="E104">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F104">
         <v>0.95</v>
       </c>
       <c r="G104">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3299,13 +3299,13 @@
         <v>0.94</v>
       </c>
       <c r="D105">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E105">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F105">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G105">
         <v>0.91</v>
@@ -3316,22 +3316,22 @@
         <v>101</v>
       </c>
       <c r="B106">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C106">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="D106">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E106">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="F106">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="G106">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3359,7 +3359,7 @@
         <v>0.93</v>
       </c>
       <c r="G108">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3367,22 +3367,22 @@
         <v>98</v>
       </c>
       <c r="B109">
+        <v>0.87</v>
+      </c>
+      <c r="C109">
         <v>0.88</v>
-      </c>
-      <c r="C109">
-        <v>0.89</v>
       </c>
       <c r="D109">
         <v>0.88</v>
       </c>
       <c r="E109">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F109">
         <v>0.91</v>
       </c>
       <c r="G109">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3390,7 +3390,7 @@
         <v>99</v>
       </c>
       <c r="B110">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C110">
         <v>0.93</v>
@@ -3399,13 +3399,13 @@
         <v>0.9</v>
       </c>
       <c r="E110">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F110">
         <v>0.95</v>
       </c>
       <c r="G110">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3419,13 +3419,13 @@
         <v>0.94</v>
       </c>
       <c r="D111">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E111">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F111">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G111">
         <v>0.91</v>
@@ -3436,7 +3436,7 @@
         <v>101</v>
       </c>
       <c r="B112">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="C112">
         <v>0.87</v>
@@ -3445,10 +3445,10 @@
         <v>0.84</v>
       </c>
       <c r="E112">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="F112">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G112">
         <v>0.83</v>
@@ -3464,22 +3464,22 @@
         <v>97</v>
       </c>
       <c r="B114">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C114">
         <v>0.91</v>
       </c>
       <c r="D114">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E114">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F114">
         <v>0.92</v>
       </c>
       <c r="G114">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
@@ -3487,7 +3487,7 @@
         <v>98</v>
       </c>
       <c r="B115">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C115">
         <v>0.9</v>
@@ -3499,7 +3499,7 @@
         <v>0.87</v>
       </c>
       <c r="F115">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G115">
         <v>0.89</v>
@@ -3510,19 +3510,19 @@
         <v>99</v>
       </c>
       <c r="B116">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C116">
         <v>0.93</v>
       </c>
       <c r="D116">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E116">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F116">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G116">
         <v>0.89</v>
@@ -3542,13 +3542,13 @@
         <v>0.9</v>
       </c>
       <c r="E117">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F117">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G117">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3556,16 +3556,16 @@
         <v>101</v>
       </c>
       <c r="B118">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C118">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="D118">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E118">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F118">
         <v>0.89</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C9509-3870-47BC-BCFB-0831AE557391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818F6CE-382A-48A0-8009-3C5BB214B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
   <si>
     <t>Version</t>
   </si>
@@ -349,6 +349,21 @@
   </si>
   <si>
     <t>3.4(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.5(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.5(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.5(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.5(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.5(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3572,6 +3587,366 @@
       </c>
       <c r="G118">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120">
+        <v>0.64</v>
+      </c>
+      <c r="C120">
+        <v>0.92</v>
+      </c>
+      <c r="D120">
+        <v>0.76</v>
+      </c>
+      <c r="E120">
+        <v>0.65</v>
+      </c>
+      <c r="F120">
+        <v>0.92</v>
+      </c>
+      <c r="G120">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121">
+        <v>0.88</v>
+      </c>
+      <c r="C121">
+        <v>0.9</v>
+      </c>
+      <c r="D121">
+        <v>0.89</v>
+      </c>
+      <c r="E121">
+        <v>0.89</v>
+      </c>
+      <c r="F121">
+        <v>0.91</v>
+      </c>
+      <c r="G121">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122">
+        <v>0.88</v>
+      </c>
+      <c r="C122">
+        <v>0.93</v>
+      </c>
+      <c r="D122">
+        <v>0.9</v>
+      </c>
+      <c r="E122">
+        <v>0.87</v>
+      </c>
+      <c r="F122">
+        <v>0.95</v>
+      </c>
+      <c r="G122">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123">
+        <v>0.87</v>
+      </c>
+      <c r="C123">
+        <v>0.94</v>
+      </c>
+      <c r="D123">
+        <v>0.9</v>
+      </c>
+      <c r="E123">
+        <v>0.86</v>
+      </c>
+      <c r="F123">
+        <v>0.96</v>
+      </c>
+      <c r="G123">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124">
+        <v>0.86</v>
+      </c>
+      <c r="C124">
+        <v>0.88</v>
+      </c>
+      <c r="D124">
+        <v>0.87</v>
+      </c>
+      <c r="E124">
+        <v>0.82</v>
+      </c>
+      <c r="F124">
+        <v>0.92</v>
+      </c>
+      <c r="G124">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126">
+        <v>0.6</v>
+      </c>
+      <c r="C126">
+        <v>0.91</v>
+      </c>
+      <c r="D126">
+        <v>0.72</v>
+      </c>
+      <c r="E126">
+        <v>0.61</v>
+      </c>
+      <c r="F126">
+        <v>0.93</v>
+      </c>
+      <c r="G126">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127">
+        <v>0.87</v>
+      </c>
+      <c r="C127">
+        <v>0.88</v>
+      </c>
+      <c r="D127">
+        <v>0.88</v>
+      </c>
+      <c r="E127">
+        <v>0.88</v>
+      </c>
+      <c r="F127">
+        <v>0.92</v>
+      </c>
+      <c r="G127">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128">
+        <v>0.88</v>
+      </c>
+      <c r="C128">
+        <v>0.93</v>
+      </c>
+      <c r="D128">
+        <v>0.9</v>
+      </c>
+      <c r="E128">
+        <v>0.87</v>
+      </c>
+      <c r="F128">
+        <v>0.95</v>
+      </c>
+      <c r="G128">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129">
+        <v>0.87</v>
+      </c>
+      <c r="C129">
+        <v>0.94</v>
+      </c>
+      <c r="D129">
+        <v>0.9</v>
+      </c>
+      <c r="E129">
+        <v>0.86</v>
+      </c>
+      <c r="F129">
+        <v>0.96</v>
+      </c>
+      <c r="G129">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>106</v>
+      </c>
+      <c r="B130">
+        <v>0.82</v>
+      </c>
+      <c r="C130">
+        <v>0.86</v>
+      </c>
+      <c r="D130">
+        <v>0.84</v>
+      </c>
+      <c r="E130">
+        <v>0.78</v>
+      </c>
+      <c r="F130">
+        <v>0.88</v>
+      </c>
+      <c r="G130">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132">
+        <v>0.61</v>
+      </c>
+      <c r="C132">
+        <v>0.91</v>
+      </c>
+      <c r="D132">
+        <v>0.73</v>
+      </c>
+      <c r="E132">
+        <v>0.63</v>
+      </c>
+      <c r="F132">
+        <v>0.92</v>
+      </c>
+      <c r="G132">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133">
+        <v>0.89</v>
+      </c>
+      <c r="C133">
+        <v>0.9</v>
+      </c>
+      <c r="D133">
+        <v>0.89</v>
+      </c>
+      <c r="E133">
+        <v>0.87</v>
+      </c>
+      <c r="F133">
+        <v>0.91</v>
+      </c>
+      <c r="G133">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>104</v>
+      </c>
+      <c r="B134">
+        <v>0.87</v>
+      </c>
+      <c r="C134">
+        <v>0.93</v>
+      </c>
+      <c r="D134">
+        <v>0.9</v>
+      </c>
+      <c r="E134">
+        <v>0.87</v>
+      </c>
+      <c r="F134">
+        <v>0.93</v>
+      </c>
+      <c r="G134">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135">
+        <v>0.86</v>
+      </c>
+      <c r="C135">
+        <v>0.94</v>
+      </c>
+      <c r="D135">
+        <v>0.9</v>
+      </c>
+      <c r="E135">
+        <v>0.85</v>
+      </c>
+      <c r="F135">
+        <v>0.95</v>
+      </c>
+      <c r="G135">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136">
+        <v>0.85</v>
+      </c>
+      <c r="C136">
+        <v>0.86</v>
+      </c>
+      <c r="D136">
+        <v>0.86</v>
+      </c>
+      <c r="E136">
+        <v>0.85</v>
+      </c>
+      <c r="F136">
+        <v>0.8</v>
+      </c>
+      <c r="G136">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818F6CE-382A-48A0-8009-3C5BB214B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65515E18-3EFC-42AC-8F06-CBD55AA697DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="112">
   <si>
     <t>Version</t>
   </si>
@@ -364,6 +364,21 @@
   </si>
   <si>
     <t>3.5(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.6(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.6(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.6(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.6(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.6(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3947,6 +3962,366 @@
       </c>
       <c r="G136">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>107</v>
+      </c>
+      <c r="B138">
+        <v>0.64</v>
+      </c>
+      <c r="C138">
+        <v>0.92</v>
+      </c>
+      <c r="D138">
+        <v>0.76</v>
+      </c>
+      <c r="E138">
+        <v>0.64</v>
+      </c>
+      <c r="F138">
+        <v>0.92</v>
+      </c>
+      <c r="G138">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>108</v>
+      </c>
+      <c r="B139">
+        <v>0.88</v>
+      </c>
+      <c r="C139">
+        <v>0.9</v>
+      </c>
+      <c r="D139">
+        <v>0.89</v>
+      </c>
+      <c r="E139">
+        <v>0.89</v>
+      </c>
+      <c r="F139">
+        <v>0.94</v>
+      </c>
+      <c r="G139">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140">
+        <v>0.88</v>
+      </c>
+      <c r="C140">
+        <v>0.93</v>
+      </c>
+      <c r="D140">
+        <v>0.9</v>
+      </c>
+      <c r="E140">
+        <v>0.89</v>
+      </c>
+      <c r="F140">
+        <v>0.95</v>
+      </c>
+      <c r="G140">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141">
+        <v>0.87</v>
+      </c>
+      <c r="C141">
+        <v>0.93</v>
+      </c>
+      <c r="D141">
+        <v>0.9</v>
+      </c>
+      <c r="E141">
+        <v>0.85</v>
+      </c>
+      <c r="F141">
+        <v>0.96</v>
+      </c>
+      <c r="G141">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142">
+        <v>0.85</v>
+      </c>
+      <c r="C142">
+        <v>0.87</v>
+      </c>
+      <c r="D142">
+        <v>0.86</v>
+      </c>
+      <c r="E142">
+        <v>0.84</v>
+      </c>
+      <c r="F142">
+        <v>0.9</v>
+      </c>
+      <c r="G142">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144">
+        <v>0.6</v>
+      </c>
+      <c r="C144">
+        <v>0.91</v>
+      </c>
+      <c r="D144">
+        <v>0.72</v>
+      </c>
+      <c r="E144">
+        <v>0.61</v>
+      </c>
+      <c r="F144">
+        <v>0.93</v>
+      </c>
+      <c r="G144">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>108</v>
+      </c>
+      <c r="B145">
+        <v>0.87</v>
+      </c>
+      <c r="C145">
+        <v>0.88</v>
+      </c>
+      <c r="D145">
+        <v>0.88</v>
+      </c>
+      <c r="E145">
+        <v>0.87</v>
+      </c>
+      <c r="F145">
+        <v>0.93</v>
+      </c>
+      <c r="G145">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146">
+        <v>0.88</v>
+      </c>
+      <c r="C146">
+        <v>0.92</v>
+      </c>
+      <c r="D146">
+        <v>0.9</v>
+      </c>
+      <c r="E146">
+        <v>0.88</v>
+      </c>
+      <c r="F146">
+        <v>0.95</v>
+      </c>
+      <c r="G146">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147">
+        <v>0.87</v>
+      </c>
+      <c r="C147">
+        <v>0.93</v>
+      </c>
+      <c r="D147">
+        <v>0.9</v>
+      </c>
+      <c r="E147">
+        <v>0.85</v>
+      </c>
+      <c r="F147">
+        <v>0.96</v>
+      </c>
+      <c r="G147">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>111</v>
+      </c>
+      <c r="B148">
+        <v>0.82</v>
+      </c>
+      <c r="C148">
+        <v>0.86</v>
+      </c>
+      <c r="D148">
+        <v>0.84</v>
+      </c>
+      <c r="E148">
+        <v>0.8</v>
+      </c>
+      <c r="F148">
+        <v>0.85</v>
+      </c>
+      <c r="G148">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150">
+        <v>0.61</v>
+      </c>
+      <c r="C150">
+        <v>0.91</v>
+      </c>
+      <c r="D150">
+        <v>0.73</v>
+      </c>
+      <c r="E150">
+        <v>0.62</v>
+      </c>
+      <c r="F150">
+        <v>0.92</v>
+      </c>
+      <c r="G150">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151">
+        <v>0.89</v>
+      </c>
+      <c r="C151">
+        <v>0.89</v>
+      </c>
+      <c r="D151">
+        <v>0.89</v>
+      </c>
+      <c r="E151">
+        <v>0.87</v>
+      </c>
+      <c r="F151">
+        <v>0.93</v>
+      </c>
+      <c r="G151">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152">
+        <v>0.87</v>
+      </c>
+      <c r="C152">
+        <v>0.92</v>
+      </c>
+      <c r="D152">
+        <v>0.9</v>
+      </c>
+      <c r="E152">
+        <v>0.87</v>
+      </c>
+      <c r="F152">
+        <v>0.93</v>
+      </c>
+      <c r="G152">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153">
+        <v>0.86</v>
+      </c>
+      <c r="C153">
+        <v>0.94</v>
+      </c>
+      <c r="D153">
+        <v>0.9</v>
+      </c>
+      <c r="E153">
+        <v>0.85</v>
+      </c>
+      <c r="F153">
+        <v>0.95</v>
+      </c>
+      <c r="G153">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154">
+        <v>0.84</v>
+      </c>
+      <c r="C154">
+        <v>0.88</v>
+      </c>
+      <c r="D154">
+        <v>0.86</v>
+      </c>
+      <c r="E154">
+        <v>0.82</v>
+      </c>
+      <c r="F154">
+        <v>0.85</v>
+      </c>
+      <c r="G154">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65515E18-3EFC-42AC-8F06-CBD55AA697DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD4797-FBB0-4497-B4D4-35A802F4F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>Version</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>3.6(Neural Net)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4322,6 +4325,11 @@
       </c>
       <c r="G154">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CD4797-FBB0-4497-B4D4-35A802F4F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20EFB26-5E02-46EE-A234-6ED593BDE279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
   <si>
     <t>Version</t>
   </si>
@@ -381,7 +381,23 @@
     <t>3.6(Neural Net)</t>
   </si>
   <si>
-    <t>s</t>
+    <t>3.7(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.7(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.7(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.7(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.7(Neural Net)</t>
+  </si>
+  <si>
+    <t>With name, paragraph, language, synonym
+and their missing indicator</t>
   </si>
 </sst>
 </file>
@@ -1287,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4327,9 +4343,484 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H161" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>112</v>
+      </c>
+      <c r="B156">
+        <v>0.64</v>
+      </c>
+      <c r="C156">
+        <v>0.92</v>
+      </c>
+      <c r="D156">
+        <v>0.75</v>
+      </c>
+      <c r="E156">
+        <v>0.64</v>
+      </c>
+      <c r="F156">
+        <v>0.92</v>
+      </c>
+      <c r="G156">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>113</v>
+      </c>
+      <c r="B157">
+        <v>0.88</v>
+      </c>
+      <c r="C157">
+        <v>0.88</v>
+      </c>
+      <c r="D157">
+        <v>0.88</v>
+      </c>
+      <c r="E157">
+        <v>0.87</v>
+      </c>
+      <c r="F157">
+        <v>0.91</v>
+      </c>
+      <c r="G157">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>114</v>
+      </c>
+      <c r="B158">
+        <v>0.87</v>
+      </c>
+      <c r="C158">
+        <v>0.93</v>
+      </c>
+      <c r="D158">
+        <v>0.9</v>
+      </c>
+      <c r="E158">
+        <v>0.86</v>
+      </c>
+      <c r="F158">
+        <v>0.94</v>
+      </c>
+      <c r="G158">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159">
+        <v>0.85</v>
+      </c>
+      <c r="C159">
+        <v>0.94</v>
+      </c>
+      <c r="D159">
+        <v>0.89</v>
+      </c>
+      <c r="E159">
+        <v>0.86</v>
+      </c>
+      <c r="F159">
+        <v>0.95</v>
+      </c>
+      <c r="G159">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>116</v>
+      </c>
+      <c r="B160">
+        <v>0.83</v>
+      </c>
+      <c r="C160">
+        <v>0.86</v>
+      </c>
+      <c r="D160">
+        <v>0.84</v>
+      </c>
+      <c r="E160">
+        <v>0.84</v>
+      </c>
+      <c r="F160">
+        <v>0.87</v>
+      </c>
+      <c r="G160">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162">
+        <v>0.59</v>
+      </c>
+      <c r="C162">
+        <v>0.91</v>
+      </c>
+      <c r="D162">
+        <v>0.72</v>
+      </c>
+      <c r="E162">
+        <v>0.6</v>
+      </c>
+      <c r="F162">
+        <v>0.93</v>
+      </c>
+      <c r="G162">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>113</v>
+      </c>
+      <c r="B163">
+        <v>0.87</v>
+      </c>
+      <c r="C163">
+        <v>0.88</v>
+      </c>
+      <c r="D163">
+        <v>0.88</v>
+      </c>
+      <c r="E163">
+        <v>0.85</v>
+      </c>
+      <c r="F163">
+        <v>0.91</v>
+      </c>
+      <c r="G163">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164">
+        <v>0.87</v>
+      </c>
+      <c r="C164">
+        <v>0.93</v>
+      </c>
+      <c r="D164">
+        <v>0.9</v>
+      </c>
+      <c r="E164">
+        <v>0.86</v>
+      </c>
+      <c r="F164">
+        <v>0.94</v>
+      </c>
+      <c r="G164">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165">
+        <v>0.85</v>
+      </c>
+      <c r="C165">
+        <v>0.94</v>
+      </c>
+      <c r="D165">
+        <v>0.89</v>
+      </c>
+      <c r="E165">
+        <v>0.86</v>
+      </c>
+      <c r="F165">
+        <v>0.95</v>
+      </c>
+      <c r="G165">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166">
+        <v>0.81</v>
+      </c>
+      <c r="C166">
+        <v>0.83</v>
+      </c>
+      <c r="D166">
+        <v>0.82</v>
+      </c>
+      <c r="E166">
+        <v>0.79</v>
+      </c>
+      <c r="F166">
+        <v>0.82</v>
+      </c>
+      <c r="G166">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168">
+        <v>0.61</v>
+      </c>
+      <c r="C168">
+        <v>0.91</v>
+      </c>
+      <c r="D168">
+        <v>0.73</v>
+      </c>
+      <c r="E168">
+        <v>0.61</v>
+      </c>
+      <c r="F168">
+        <v>0.93</v>
+      </c>
+      <c r="G168">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B169">
+        <v>0.87</v>
+      </c>
+      <c r="C169">
+        <v>0.88</v>
+      </c>
+      <c r="D169">
+        <v>0.88</v>
+      </c>
+      <c r="E169">
+        <v>0.85</v>
+      </c>
+      <c r="F169">
+        <v>0.91</v>
+      </c>
+      <c r="G169">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>114</v>
+      </c>
+      <c r="B170">
+        <v>0.86</v>
+      </c>
+      <c r="C170">
+        <v>0.92</v>
+      </c>
+      <c r="D170">
+        <v>0.89</v>
+      </c>
+      <c r="E170">
+        <v>0.84</v>
+      </c>
+      <c r="F170">
+        <v>0.93</v>
+      </c>
+      <c r="G170">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171">
+        <v>0.85</v>
+      </c>
+      <c r="C171">
+        <v>0.93</v>
+      </c>
+      <c r="D171">
+        <v>0.89</v>
+      </c>
+      <c r="E171">
+        <v>0.83</v>
+      </c>
+      <c r="F171">
+        <v>0.95</v>
+      </c>
+      <c r="G171">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172">
+        <v>0.84</v>
+      </c>
+      <c r="C172">
+        <v>0.85</v>
+      </c>
+      <c r="D172">
+        <v>0.85</v>
+      </c>
+      <c r="E172">
+        <v>0.82</v>
+      </c>
+      <c r="F172">
+        <v>0.86</v>
+      </c>
+      <c r="G172">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>112</v>
+      </c>
+      <c r="B174">
+        <v>0.61</v>
+      </c>
+      <c r="C174">
+        <v>0.91</v>
+      </c>
+      <c r="D174">
+        <v>0.73</v>
+      </c>
+      <c r="E174">
+        <v>0.61</v>
+      </c>
+      <c r="F174">
+        <v>0.92</v>
+      </c>
+      <c r="G174">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>113</v>
+      </c>
+      <c r="B175">
+        <v>0.9</v>
+      </c>
+      <c r="C175">
+        <v>0.89</v>
+      </c>
+      <c r="D175">
+        <v>0.89</v>
+      </c>
+      <c r="E175">
+        <v>0.87</v>
+      </c>
+      <c r="F175">
+        <v>0.89</v>
+      </c>
+      <c r="G175">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>114</v>
+      </c>
+      <c r="B176">
+        <v>0.85</v>
+      </c>
+      <c r="C176">
+        <v>0.93</v>
+      </c>
+      <c r="D176">
+        <v>0.89</v>
+      </c>
+      <c r="E176">
+        <v>0.84</v>
+      </c>
+      <c r="F176">
+        <v>0.93</v>
+      </c>
+      <c r="G176">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>115</v>
+      </c>
+      <c r="B177">
+        <v>0.84</v>
+      </c>
+      <c r="C177">
+        <v>0.95</v>
+      </c>
+      <c r="D177">
+        <v>0.89</v>
+      </c>
+      <c r="E177">
+        <v>0.84</v>
+      </c>
+      <c r="F177">
+        <v>0.95</v>
+      </c>
+      <c r="G177">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178">
+        <v>0.85</v>
+      </c>
+      <c r="C178">
+        <v>0.85</v>
+      </c>
+      <c r="D178">
+        <v>0.85</v>
+      </c>
+      <c r="E178">
+        <v>0.83</v>
+      </c>
+      <c r="F178">
+        <v>0.85</v>
+      </c>
+      <c r="G178">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20EFB26-5E02-46EE-A234-6ED593BDE279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5009B9-BF18-416C-A621-A47BF43ADE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="123">
   <si>
     <t>Version</t>
   </si>
@@ -398,6 +398,21 @@
   <si>
     <t>With name, paragraph, language, synonym
 and their missing indicator</t>
+  </si>
+  <si>
+    <t>3.8(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.8(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.8(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.8(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.8(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G178"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="Q156" sqref="Q156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4359,16 +4374,16 @@
         <v>0.92</v>
       </c>
       <c r="D156">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="E156">
         <v>0.64</v>
       </c>
       <c r="F156">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G156">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -4376,22 +4391,22 @@
         <v>113</v>
       </c>
       <c r="B157">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C157">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="D157">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="E157">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F157">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="G157">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -4399,22 +4414,22 @@
         <v>114</v>
       </c>
       <c r="B158">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C158">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D158">
         <v>0.9</v>
       </c>
       <c r="E158">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F158">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G158">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4422,16 +4437,16 @@
         <v>115</v>
       </c>
       <c r="B159">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C159">
         <v>0.94</v>
       </c>
       <c r="D159">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E159">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F159">
         <v>0.95</v>
@@ -4448,19 +4463,19 @@
         <v>0.83</v>
       </c>
       <c r="C160">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D160">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E160">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F160">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="G160">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -4473,22 +4488,22 @@
         <v>112</v>
       </c>
       <c r="B162">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C162">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="D162">
         <v>0.72</v>
       </c>
       <c r="E162">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F162">
         <v>0.93</v>
       </c>
       <c r="G162">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
@@ -4499,19 +4514,19 @@
         <v>0.87</v>
       </c>
       <c r="C163">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D163">
         <v>0.88</v>
       </c>
       <c r="E163">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F163">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G163">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,7 +4534,7 @@
         <v>114</v>
       </c>
       <c r="B164">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C164">
         <v>0.93</v>
@@ -4528,13 +4543,13 @@
         <v>0.9</v>
       </c>
       <c r="E164">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F164">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G164">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
@@ -4542,16 +4557,16 @@
         <v>115</v>
       </c>
       <c r="B165">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C165">
         <v>0.94</v>
       </c>
       <c r="D165">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E165">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F165">
         <v>0.95</v>
@@ -4565,22 +4580,22 @@
         <v>116</v>
       </c>
       <c r="B166">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="C166">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D166">
+        <v>0.84</v>
+      </c>
+      <c r="E166">
+        <v>0.8</v>
+      </c>
+      <c r="F166">
+        <v>0.84</v>
+      </c>
+      <c r="G166">
         <v>0.82</v>
-      </c>
-      <c r="E166">
-        <v>0.79</v>
-      </c>
-      <c r="F166">
-        <v>0.82</v>
-      </c>
-      <c r="G166">
-        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -4820,6 +4835,366 @@
         <v>0.85</v>
       </c>
       <c r="G178">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>118</v>
+      </c>
+      <c r="B180">
+        <v>0.71</v>
+      </c>
+      <c r="C180">
+        <v>0.94</v>
+      </c>
+      <c r="D180">
+        <v>0.81</v>
+      </c>
+      <c r="E180">
+        <v>0.72</v>
+      </c>
+      <c r="F180">
+        <v>0.94</v>
+      </c>
+      <c r="G180">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>119</v>
+      </c>
+      <c r="B181">
+        <v>0.88</v>
+      </c>
+      <c r="C181">
+        <v>0.9</v>
+      </c>
+      <c r="D181">
+        <v>0.89</v>
+      </c>
+      <c r="E181">
+        <v>0.88</v>
+      </c>
+      <c r="F181">
+        <v>0.92</v>
+      </c>
+      <c r="G181">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>120</v>
+      </c>
+      <c r="B182">
+        <v>0.87</v>
+      </c>
+      <c r="C182">
+        <v>0.92</v>
+      </c>
+      <c r="D182">
+        <v>0.9</v>
+      </c>
+      <c r="E182">
+        <v>0.87</v>
+      </c>
+      <c r="F182">
+        <v>0.95</v>
+      </c>
+      <c r="G182">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>121</v>
+      </c>
+      <c r="B183">
+        <v>0.87</v>
+      </c>
+      <c r="C183">
+        <v>0.93</v>
+      </c>
+      <c r="D183">
+        <v>0.9</v>
+      </c>
+      <c r="E183">
+        <v>0.87</v>
+      </c>
+      <c r="F183">
+        <v>0.94</v>
+      </c>
+      <c r="G183">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>122</v>
+      </c>
+      <c r="B184">
+        <v>0.85</v>
+      </c>
+      <c r="C184">
+        <v>0.87</v>
+      </c>
+      <c r="D184">
+        <v>0.86</v>
+      </c>
+      <c r="E184">
+        <v>0.84</v>
+      </c>
+      <c r="F184">
+        <v>0.92</v>
+      </c>
+      <c r="G184">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>118</v>
+      </c>
+      <c r="B186">
+        <v>0.67</v>
+      </c>
+      <c r="C186">
+        <v>0.92</v>
+      </c>
+      <c r="D186">
+        <v>0.77</v>
+      </c>
+      <c r="E186">
+        <v>0.66</v>
+      </c>
+      <c r="F186">
+        <v>0.93</v>
+      </c>
+      <c r="G186">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B187">
+        <v>0.87</v>
+      </c>
+      <c r="C187">
+        <v>0.88</v>
+      </c>
+      <c r="D187">
+        <v>0.87</v>
+      </c>
+      <c r="E187">
+        <v>0.87</v>
+      </c>
+      <c r="F187">
+        <v>0.91</v>
+      </c>
+      <c r="G187">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>120</v>
+      </c>
+      <c r="B188">
+        <v>0.87</v>
+      </c>
+      <c r="C188">
+        <v>0.93</v>
+      </c>
+      <c r="D188">
+        <v>0.9</v>
+      </c>
+      <c r="E188">
+        <v>0.87</v>
+      </c>
+      <c r="F188">
+        <v>0.95</v>
+      </c>
+      <c r="G188">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>121</v>
+      </c>
+      <c r="B189">
+        <v>0.87</v>
+      </c>
+      <c r="C189">
+        <v>0.93</v>
+      </c>
+      <c r="D189">
+        <v>0.9</v>
+      </c>
+      <c r="E189">
+        <v>0.87</v>
+      </c>
+      <c r="F189">
+        <v>0.94</v>
+      </c>
+      <c r="G189">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>122</v>
+      </c>
+      <c r="B190">
+        <v>0.82</v>
+      </c>
+      <c r="C190">
+        <v>0.86</v>
+      </c>
+      <c r="D190">
+        <v>0.84</v>
+      </c>
+      <c r="E190">
+        <v>0.81</v>
+      </c>
+      <c r="F190">
+        <v>0.84</v>
+      </c>
+      <c r="G190">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>118</v>
+      </c>
+      <c r="B192">
+        <v>0.69</v>
+      </c>
+      <c r="C192">
+        <v>0.92</v>
+      </c>
+      <c r="D192">
+        <v>0.79</v>
+      </c>
+      <c r="E192">
+        <v>0.69</v>
+      </c>
+      <c r="F192">
+        <v>0.92</v>
+      </c>
+      <c r="G192">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>119</v>
+      </c>
+      <c r="B193">
+        <v>0.89</v>
+      </c>
+      <c r="C193">
+        <v>0.89</v>
+      </c>
+      <c r="D193">
+        <v>0.89</v>
+      </c>
+      <c r="E193">
+        <v>0.86</v>
+      </c>
+      <c r="F193">
+        <v>0.92</v>
+      </c>
+      <c r="G193">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>120</v>
+      </c>
+      <c r="B194">
+        <v>0.88</v>
+      </c>
+      <c r="C194">
+        <v>0.93</v>
+      </c>
+      <c r="D194">
+        <v>0.9</v>
+      </c>
+      <c r="E194">
+        <v>0.86</v>
+      </c>
+      <c r="F194">
+        <v>0.93</v>
+      </c>
+      <c r="G194">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>121</v>
+      </c>
+      <c r="B195">
+        <v>0.86</v>
+      </c>
+      <c r="C195">
+        <v>0.94</v>
+      </c>
+      <c r="D195">
+        <v>0.89</v>
+      </c>
+      <c r="E195">
+        <v>0.85</v>
+      </c>
+      <c r="F195">
+        <v>0.94</v>
+      </c>
+      <c r="G195">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>122</v>
+      </c>
+      <c r="B196">
+        <v>0.86</v>
+      </c>
+      <c r="C196">
+        <v>0.85</v>
+      </c>
+      <c r="D196">
+        <v>0.86</v>
+      </c>
+      <c r="E196">
+        <v>0.83</v>
+      </c>
+      <c r="F196">
+        <v>0.86</v>
+      </c>
+      <c r="G196">
         <v>0.84</v>
       </c>
     </row>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5009B9-BF18-416C-A621-A47BF43ADE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDECD07-2A2A-4A94-8974-0707889B1D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="143">
   <si>
     <t>Version</t>
   </si>
@@ -413,6 +413,66 @@
   </si>
   <si>
     <t>3.8(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.9(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.9(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.9(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.9(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.9(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.10(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.10(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.10(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.10(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.10(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.11(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.11(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.11(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.11(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.11(Neural Net)</t>
+  </si>
+  <si>
+    <t>3.12(Logistic regression)</t>
+  </si>
+  <si>
+    <t>3.12(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.12(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.12(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.12(Neural Net)</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="Q156" sqref="Q156"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="K267" sqref="K267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5198,6 +5258,1446 @@
         <v>0.84</v>
       </c>
     </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>123</v>
+      </c>
+      <c r="B198">
+        <v>0.64</v>
+      </c>
+      <c r="C198">
+        <v>0.92</v>
+      </c>
+      <c r="D198">
+        <v>0.75</v>
+      </c>
+      <c r="E198">
+        <v>0.65</v>
+      </c>
+      <c r="F198">
+        <v>0.93</v>
+      </c>
+      <c r="G198">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>124</v>
+      </c>
+      <c r="B199">
+        <v>0.87</v>
+      </c>
+      <c r="C199">
+        <v>0.9</v>
+      </c>
+      <c r="D199">
+        <v>0.89</v>
+      </c>
+      <c r="E199">
+        <v>0.86</v>
+      </c>
+      <c r="F199">
+        <v>0.91</v>
+      </c>
+      <c r="G199">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>125</v>
+      </c>
+      <c r="B200">
+        <v>0.87</v>
+      </c>
+      <c r="C200">
+        <v>0.93</v>
+      </c>
+      <c r="D200">
+        <v>0.9</v>
+      </c>
+      <c r="E200">
+        <v>0.86</v>
+      </c>
+      <c r="F200">
+        <v>0.96</v>
+      </c>
+      <c r="G200">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>126</v>
+      </c>
+      <c r="B201">
+        <v>0.87</v>
+      </c>
+      <c r="C201">
+        <v>0.94</v>
+      </c>
+      <c r="D201">
+        <v>0.9</v>
+      </c>
+      <c r="E201">
+        <v>0.86</v>
+      </c>
+      <c r="F201">
+        <v>0.97</v>
+      </c>
+      <c r="G201">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>127</v>
+      </c>
+      <c r="B202">
+        <v>0.85</v>
+      </c>
+      <c r="C202">
+        <v>0.88</v>
+      </c>
+      <c r="D202">
+        <v>0.87</v>
+      </c>
+      <c r="E202">
+        <v>0.81</v>
+      </c>
+      <c r="F202">
+        <v>0.92</v>
+      </c>
+      <c r="G202">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>123</v>
+      </c>
+      <c r="B204">
+        <v>0.59</v>
+      </c>
+      <c r="C204">
+        <v>0.9</v>
+      </c>
+      <c r="D204">
+        <v>0.72</v>
+      </c>
+      <c r="E204">
+        <v>0.6</v>
+      </c>
+      <c r="F204">
+        <v>0.92</v>
+      </c>
+      <c r="G204">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>124</v>
+      </c>
+      <c r="B205">
+        <v>0.86</v>
+      </c>
+      <c r="C205">
+        <v>0.9</v>
+      </c>
+      <c r="D205">
+        <v>0.88</v>
+      </c>
+      <c r="E205">
+        <v>0.86</v>
+      </c>
+      <c r="F205">
+        <v>0.92</v>
+      </c>
+      <c r="G205">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>125</v>
+      </c>
+      <c r="B206">
+        <v>0.87</v>
+      </c>
+      <c r="C206">
+        <v>0.93</v>
+      </c>
+      <c r="D206">
+        <v>0.9</v>
+      </c>
+      <c r="E206">
+        <v>0.86</v>
+      </c>
+      <c r="F206">
+        <v>0.96</v>
+      </c>
+      <c r="G206">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>126</v>
+      </c>
+      <c r="B207">
+        <v>0.87</v>
+      </c>
+      <c r="C207">
+        <v>0.94</v>
+      </c>
+      <c r="D207">
+        <v>0.9</v>
+      </c>
+      <c r="E207">
+        <v>0.86</v>
+      </c>
+      <c r="F207">
+        <v>0.97</v>
+      </c>
+      <c r="G207">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>127</v>
+      </c>
+      <c r="B208">
+        <v>0.83</v>
+      </c>
+      <c r="C208">
+        <v>0.86</v>
+      </c>
+      <c r="D208">
+        <v>0.85</v>
+      </c>
+      <c r="E208">
+        <v>0.8</v>
+      </c>
+      <c r="F208">
+        <v>0.86</v>
+      </c>
+      <c r="G208">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>123</v>
+      </c>
+      <c r="B210">
+        <v>0.61</v>
+      </c>
+      <c r="C210">
+        <v>0.9</v>
+      </c>
+      <c r="D210">
+        <v>0.73</v>
+      </c>
+      <c r="E210">
+        <v>0.62</v>
+      </c>
+      <c r="F210">
+        <v>0.93</v>
+      </c>
+      <c r="G210">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>124</v>
+      </c>
+      <c r="B211">
+        <v>0.88</v>
+      </c>
+      <c r="C211">
+        <v>0.9</v>
+      </c>
+      <c r="D211">
+        <v>0.89</v>
+      </c>
+      <c r="E211">
+        <v>0.86</v>
+      </c>
+      <c r="F211">
+        <v>0.91</v>
+      </c>
+      <c r="G211">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>125</v>
+      </c>
+      <c r="B212">
+        <v>0.87</v>
+      </c>
+      <c r="C212">
+        <v>0.94</v>
+      </c>
+      <c r="D212">
+        <v>0.9</v>
+      </c>
+      <c r="E212">
+        <v>0.85</v>
+      </c>
+      <c r="F212">
+        <v>0.95</v>
+      </c>
+      <c r="G212">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>126</v>
+      </c>
+      <c r="B213">
+        <v>0.86</v>
+      </c>
+      <c r="C213">
+        <v>0.94</v>
+      </c>
+      <c r="D213">
+        <v>0.9</v>
+      </c>
+      <c r="E213">
+        <v>0.83</v>
+      </c>
+      <c r="F213">
+        <v>0.96</v>
+      </c>
+      <c r="G213">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>127</v>
+      </c>
+      <c r="B214">
+        <v>0.85</v>
+      </c>
+      <c r="C214">
+        <v>0.87</v>
+      </c>
+      <c r="D214">
+        <v>0.86</v>
+      </c>
+      <c r="E214">
+        <v>0.83</v>
+      </c>
+      <c r="F214">
+        <v>0.88</v>
+      </c>
+      <c r="G214">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>128</v>
+      </c>
+      <c r="B216">
+        <v>0.72</v>
+      </c>
+      <c r="C216">
+        <v>0.93</v>
+      </c>
+      <c r="D216">
+        <v>0.91</v>
+      </c>
+      <c r="E216">
+        <v>0.71</v>
+      </c>
+      <c r="F216">
+        <v>0.94</v>
+      </c>
+      <c r="G216">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>129</v>
+      </c>
+      <c r="B217">
+        <v>0.88</v>
+      </c>
+      <c r="C217">
+        <v>0.9</v>
+      </c>
+      <c r="D217">
+        <v>0.89</v>
+      </c>
+      <c r="E217">
+        <v>0.86</v>
+      </c>
+      <c r="F217">
+        <v>0.92</v>
+      </c>
+      <c r="G217">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>130</v>
+      </c>
+      <c r="B218">
+        <v>0.87</v>
+      </c>
+      <c r="C218">
+        <v>0.93</v>
+      </c>
+      <c r="D218">
+        <v>0.9</v>
+      </c>
+      <c r="E218">
+        <v>0.87</v>
+      </c>
+      <c r="F218">
+        <v>0.95</v>
+      </c>
+      <c r="G218">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>131</v>
+      </c>
+      <c r="B219">
+        <v>0.87</v>
+      </c>
+      <c r="C219">
+        <v>0.94</v>
+      </c>
+      <c r="D219">
+        <v>0.9</v>
+      </c>
+      <c r="E219">
+        <v>0.85</v>
+      </c>
+      <c r="F219">
+        <v>0.96</v>
+      </c>
+      <c r="G219">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>132</v>
+      </c>
+      <c r="B220">
+        <v>0.85</v>
+      </c>
+      <c r="C220">
+        <v>0.88</v>
+      </c>
+      <c r="D220">
+        <v>0.87</v>
+      </c>
+      <c r="E220">
+        <v>0.82</v>
+      </c>
+      <c r="F220">
+        <v>0.92</v>
+      </c>
+      <c r="G220">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>128</v>
+      </c>
+      <c r="B222">
+        <v>0.67</v>
+      </c>
+      <c r="C222">
+        <v>0.92</v>
+      </c>
+      <c r="D222">
+        <v>0.77</v>
+      </c>
+      <c r="E222">
+        <v>0.67</v>
+      </c>
+      <c r="F222">
+        <v>0.93</v>
+      </c>
+      <c r="G222">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>129</v>
+      </c>
+      <c r="B223">
+        <v>0.86</v>
+      </c>
+      <c r="C223">
+        <v>0.9</v>
+      </c>
+      <c r="D223">
+        <v>0.88</v>
+      </c>
+      <c r="E223">
+        <v>0.85</v>
+      </c>
+      <c r="F223">
+        <v>0.92</v>
+      </c>
+      <c r="G223">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>130</v>
+      </c>
+      <c r="B224">
+        <v>0.88</v>
+      </c>
+      <c r="C224">
+        <v>0.93</v>
+      </c>
+      <c r="D224">
+        <v>0.9</v>
+      </c>
+      <c r="E224">
+        <v>0.87</v>
+      </c>
+      <c r="F224">
+        <v>0.95</v>
+      </c>
+      <c r="G224">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>131</v>
+      </c>
+      <c r="B225">
+        <v>0.87</v>
+      </c>
+      <c r="C225">
+        <v>0.94</v>
+      </c>
+      <c r="D225">
+        <v>0.9</v>
+      </c>
+      <c r="E225">
+        <v>0.85</v>
+      </c>
+      <c r="F225">
+        <v>0.96</v>
+      </c>
+      <c r="G225">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>132</v>
+      </c>
+      <c r="B226">
+        <v>0.82</v>
+      </c>
+      <c r="C226">
+        <v>0.86</v>
+      </c>
+      <c r="D226">
+        <v>0.84</v>
+      </c>
+      <c r="E226">
+        <v>0.81</v>
+      </c>
+      <c r="F226">
+        <v>0.85</v>
+      </c>
+      <c r="G226">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>128</v>
+      </c>
+      <c r="B228">
+        <v>0.69</v>
+      </c>
+      <c r="C228">
+        <v>0.92</v>
+      </c>
+      <c r="D228">
+        <v>0.79</v>
+      </c>
+      <c r="E228">
+        <v>0.69</v>
+      </c>
+      <c r="F228">
+        <v>0.92</v>
+      </c>
+      <c r="G228">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>129</v>
+      </c>
+      <c r="B229">
+        <v>0.87</v>
+      </c>
+      <c r="C229">
+        <v>0.89</v>
+      </c>
+      <c r="D229">
+        <v>0.88</v>
+      </c>
+      <c r="E229">
+        <v>0.86</v>
+      </c>
+      <c r="F229">
+        <v>0.91</v>
+      </c>
+      <c r="G229">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>130</v>
+      </c>
+      <c r="B230">
+        <v>0.87</v>
+      </c>
+      <c r="C230">
+        <v>0.93</v>
+      </c>
+      <c r="D230">
+        <v>0.9</v>
+      </c>
+      <c r="E230">
+        <v>0.86</v>
+      </c>
+      <c r="F230">
+        <v>0.94</v>
+      </c>
+      <c r="G230">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>131</v>
+      </c>
+      <c r="B231">
+        <v>0.86</v>
+      </c>
+      <c r="C231">
+        <v>0.94</v>
+      </c>
+      <c r="D231">
+        <v>0.9</v>
+      </c>
+      <c r="E231">
+        <v>0.84</v>
+      </c>
+      <c r="F231">
+        <v>0.96</v>
+      </c>
+      <c r="G231">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>132</v>
+      </c>
+      <c r="B232">
+        <v>0.86</v>
+      </c>
+      <c r="C232">
+        <v>0.86</v>
+      </c>
+      <c r="D232">
+        <v>0.86</v>
+      </c>
+      <c r="E232">
+        <v>0.82</v>
+      </c>
+      <c r="F232">
+        <v>0.87</v>
+      </c>
+      <c r="G232">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>133</v>
+      </c>
+      <c r="B234">
+        <v>0.7</v>
+      </c>
+      <c r="C234">
+        <v>0.93</v>
+      </c>
+      <c r="D234">
+        <v>0.8</v>
+      </c>
+      <c r="E234">
+        <v>0.7</v>
+      </c>
+      <c r="F234">
+        <v>0.94</v>
+      </c>
+      <c r="G234">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>134</v>
+      </c>
+      <c r="B235">
+        <v>0.88</v>
+      </c>
+      <c r="C235">
+        <v>0.89</v>
+      </c>
+      <c r="D235">
+        <v>0.88</v>
+      </c>
+      <c r="E235">
+        <v>0.85</v>
+      </c>
+      <c r="F235">
+        <v>0.92</v>
+      </c>
+      <c r="G235">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>135</v>
+      </c>
+      <c r="B236">
+        <v>0.88</v>
+      </c>
+      <c r="C236">
+        <v>0.93</v>
+      </c>
+      <c r="D236">
+        <v>0.9</v>
+      </c>
+      <c r="E236">
+        <v>0.87</v>
+      </c>
+      <c r="F236">
+        <v>0.95</v>
+      </c>
+      <c r="G236">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>136</v>
+      </c>
+      <c r="B237">
+        <v>0.86</v>
+      </c>
+      <c r="C237">
+        <v>0.94</v>
+      </c>
+      <c r="D237">
+        <v>0.9</v>
+      </c>
+      <c r="E237">
+        <v>0.85</v>
+      </c>
+      <c r="F237">
+        <v>0.95</v>
+      </c>
+      <c r="G237">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>137</v>
+      </c>
+      <c r="B238">
+        <v>0.85</v>
+      </c>
+      <c r="C238">
+        <v>0.86</v>
+      </c>
+      <c r="D238">
+        <v>0.86</v>
+      </c>
+      <c r="E238">
+        <v>0.81</v>
+      </c>
+      <c r="F238">
+        <v>0.92</v>
+      </c>
+      <c r="G238">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>133</v>
+      </c>
+      <c r="B240">
+        <v>0.67</v>
+      </c>
+      <c r="C240">
+        <v>0.92</v>
+      </c>
+      <c r="D240">
+        <v>0.77</v>
+      </c>
+      <c r="E240">
+        <v>0.66</v>
+      </c>
+      <c r="F240">
+        <v>0.92</v>
+      </c>
+      <c r="G240">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>134</v>
+      </c>
+      <c r="B241">
+        <v>0.86</v>
+      </c>
+      <c r="C241">
+        <v>0.88</v>
+      </c>
+      <c r="D241">
+        <v>0.87</v>
+      </c>
+      <c r="E241">
+        <v>0.85</v>
+      </c>
+      <c r="F241">
+        <v>0.92</v>
+      </c>
+      <c r="G241">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>135</v>
+      </c>
+      <c r="B242">
+        <v>0.87</v>
+      </c>
+      <c r="C242">
+        <v>0.93</v>
+      </c>
+      <c r="D242">
+        <v>0.9</v>
+      </c>
+      <c r="E242">
+        <v>0.86</v>
+      </c>
+      <c r="F242">
+        <v>0.94</v>
+      </c>
+      <c r="G242">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>136</v>
+      </c>
+      <c r="B243">
+        <v>0.86</v>
+      </c>
+      <c r="C243">
+        <v>0.94</v>
+      </c>
+      <c r="D243">
+        <v>0.9</v>
+      </c>
+      <c r="E243">
+        <v>0.85</v>
+      </c>
+      <c r="F243">
+        <v>0.95</v>
+      </c>
+      <c r="G243">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>137</v>
+      </c>
+      <c r="B244">
+        <v>0.82</v>
+      </c>
+      <c r="C244">
+        <v>0.84</v>
+      </c>
+      <c r="D244">
+        <v>0.83</v>
+      </c>
+      <c r="E244">
+        <v>0.79</v>
+      </c>
+      <c r="F244">
+        <v>0.84</v>
+      </c>
+      <c r="G244">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>133</v>
+      </c>
+      <c r="B246">
+        <v>0.68</v>
+      </c>
+      <c r="C246">
+        <v>0.92</v>
+      </c>
+      <c r="D246">
+        <v>0.78</v>
+      </c>
+      <c r="E246">
+        <v>0.69</v>
+      </c>
+      <c r="F246">
+        <v>0.93</v>
+      </c>
+      <c r="G246">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>134</v>
+      </c>
+      <c r="B247">
+        <v>0.88</v>
+      </c>
+      <c r="C247">
+        <v>0.88</v>
+      </c>
+      <c r="D247">
+        <v>0.88</v>
+      </c>
+      <c r="E247">
+        <v>0.85</v>
+      </c>
+      <c r="F247">
+        <v>0.9</v>
+      </c>
+      <c r="G247">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>135</v>
+      </c>
+      <c r="B248">
+        <v>0.86</v>
+      </c>
+      <c r="C248">
+        <v>0.92</v>
+      </c>
+      <c r="D248">
+        <v>0.89</v>
+      </c>
+      <c r="E248">
+        <v>0.86</v>
+      </c>
+      <c r="F248">
+        <v>0.93</v>
+      </c>
+      <c r="G248">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>136</v>
+      </c>
+      <c r="B249">
+        <v>0.85</v>
+      </c>
+      <c r="C249">
+        <v>0.94</v>
+      </c>
+      <c r="D249">
+        <v>0.89</v>
+      </c>
+      <c r="E249">
+        <v>0.84</v>
+      </c>
+      <c r="F249">
+        <v>0.95</v>
+      </c>
+      <c r="G249">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>137</v>
+      </c>
+      <c r="B250">
+        <v>0.86</v>
+      </c>
+      <c r="C250">
+        <v>0.86</v>
+      </c>
+      <c r="D250">
+        <v>0.86</v>
+      </c>
+      <c r="E250">
+        <v>0.81</v>
+      </c>
+      <c r="F250">
+        <v>0.88</v>
+      </c>
+      <c r="G250">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>138</v>
+      </c>
+      <c r="B252">
+        <v>0.64</v>
+      </c>
+      <c r="C252">
+        <v>0.92</v>
+      </c>
+      <c r="D252">
+        <v>0.75</v>
+      </c>
+      <c r="E252">
+        <v>0.65</v>
+      </c>
+      <c r="F252">
+        <v>0.94</v>
+      </c>
+      <c r="G252">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>139</v>
+      </c>
+      <c r="B253">
+        <v>0.89</v>
+      </c>
+      <c r="C253">
+        <v>0.89</v>
+      </c>
+      <c r="D253">
+        <v>0.89</v>
+      </c>
+      <c r="E253">
+        <v>0.88</v>
+      </c>
+      <c r="F253">
+        <v>0.92</v>
+      </c>
+      <c r="G253">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>140</v>
+      </c>
+      <c r="B254">
+        <v>0.88</v>
+      </c>
+      <c r="C254">
+        <v>0.94</v>
+      </c>
+      <c r="D254">
+        <v>0.91</v>
+      </c>
+      <c r="E254">
+        <v>0.88</v>
+      </c>
+      <c r="F254">
+        <v>0.95</v>
+      </c>
+      <c r="G254">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>141</v>
+      </c>
+      <c r="B255">
+        <v>0.88</v>
+      </c>
+      <c r="C255">
+        <v>0.94</v>
+      </c>
+      <c r="D255">
+        <v>0.91</v>
+      </c>
+      <c r="E255">
+        <v>0.87</v>
+      </c>
+      <c r="F255">
+        <v>0.94</v>
+      </c>
+      <c r="G255">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>142</v>
+      </c>
+      <c r="B256">
+        <v>0.85</v>
+      </c>
+      <c r="C256">
+        <v>0.86</v>
+      </c>
+      <c r="D256">
+        <v>0.85</v>
+      </c>
+      <c r="E256">
+        <v>0.81</v>
+      </c>
+      <c r="F256">
+        <v>0.94</v>
+      </c>
+      <c r="G256">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>138</v>
+      </c>
+      <c r="B258">
+        <v>0.59</v>
+      </c>
+      <c r="C258">
+        <v>0.9</v>
+      </c>
+      <c r="D258">
+        <v>0.72</v>
+      </c>
+      <c r="E258">
+        <v>0.6</v>
+      </c>
+      <c r="F258">
+        <v>0.92</v>
+      </c>
+      <c r="G258">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>139</v>
+      </c>
+      <c r="B259">
+        <v>0.88</v>
+      </c>
+      <c r="C259">
+        <v>0.89</v>
+      </c>
+      <c r="D259">
+        <v>0.89</v>
+      </c>
+      <c r="E259">
+        <v>0.89</v>
+      </c>
+      <c r="F259">
+        <v>0.91</v>
+      </c>
+      <c r="G259">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>140</v>
+      </c>
+      <c r="B260">
+        <v>0.88</v>
+      </c>
+      <c r="C260">
+        <v>0.93</v>
+      </c>
+      <c r="D260">
+        <v>0.9</v>
+      </c>
+      <c r="E260">
+        <v>0.89</v>
+      </c>
+      <c r="F260">
+        <v>0.94</v>
+      </c>
+      <c r="G260">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>141</v>
+      </c>
+      <c r="B261">
+        <v>0.88</v>
+      </c>
+      <c r="C261">
+        <v>0.94</v>
+      </c>
+      <c r="D261">
+        <v>0.91</v>
+      </c>
+      <c r="E261">
+        <v>0.87</v>
+      </c>
+      <c r="F261">
+        <v>0.94</v>
+      </c>
+      <c r="G261">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>142</v>
+      </c>
+      <c r="B262">
+        <v>0.8</v>
+      </c>
+      <c r="C262">
+        <v>0.88</v>
+      </c>
+      <c r="D262">
+        <v>0.84</v>
+      </c>
+      <c r="E262">
+        <v>0.82</v>
+      </c>
+      <c r="F262">
+        <v>0.86</v>
+      </c>
+      <c r="G262">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>138</v>
+      </c>
+      <c r="B264">
+        <v>0.61</v>
+      </c>
+      <c r="C264">
+        <v>0.91</v>
+      </c>
+      <c r="D264">
+        <v>0.73</v>
+      </c>
+      <c r="E264">
+        <v>0.62</v>
+      </c>
+      <c r="F264">
+        <v>0.92</v>
+      </c>
+      <c r="G264">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>139</v>
+      </c>
+      <c r="B265">
+        <v>0.89</v>
+      </c>
+      <c r="C265">
+        <v>0.89</v>
+      </c>
+      <c r="D265">
+        <v>0.89</v>
+      </c>
+      <c r="E265">
+        <v>0.88</v>
+      </c>
+      <c r="F265">
+        <v>0.92</v>
+      </c>
+      <c r="G265">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>140</v>
+      </c>
+      <c r="B266">
+        <v>0.87</v>
+      </c>
+      <c r="C266">
+        <v>0.93</v>
+      </c>
+      <c r="D266">
+        <v>0.9</v>
+      </c>
+      <c r="E266">
+        <v>0.87</v>
+      </c>
+      <c r="F266">
+        <v>0.93</v>
+      </c>
+      <c r="G266">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>141</v>
+      </c>
+      <c r="B267">
+        <v>0.86</v>
+      </c>
+      <c r="C267">
+        <v>0.94</v>
+      </c>
+      <c r="D267">
+        <v>0.9</v>
+      </c>
+      <c r="E267">
+        <v>0.86</v>
+      </c>
+      <c r="F267">
+        <v>0.94</v>
+      </c>
+      <c r="G267">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>142</v>
+      </c>
+      <c r="B268">
+        <v>0.83</v>
+      </c>
+      <c r="C268">
+        <v>0.85</v>
+      </c>
+      <c r="D268">
+        <v>0.84</v>
+      </c>
+      <c r="E268">
+        <v>0.83</v>
+      </c>
+      <c r="F268">
+        <v>0.87</v>
+      </c>
+      <c r="G268">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5208,7 +6708,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDECD07-2A2A-4A94-8974-0707889B1D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0A3E8-194C-4AFA-97EE-B36C20AAAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Eval (binary)" sheetId="4" r:id="rId3"/>
     <sheet name="Legend" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Eval (binary)'!$E$1:$G$262</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="143">
   <si>
     <t>Version</t>
   </si>
@@ -1378,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="K267" sqref="K267"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="H267" sqref="H267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4300,7 +4303,7 @@
     </row>
     <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -4308,22 +4311,22 @@
         <v>107</v>
       </c>
       <c r="B150">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="C150">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D150">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="E150">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="F150">
         <v>0.92</v>
       </c>
       <c r="G150">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -4331,7 +4334,7 @@
         <v>108</v>
       </c>
       <c r="B151">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C151">
         <v>0.89</v>
@@ -4340,13 +4343,13 @@
         <v>0.89</v>
       </c>
       <c r="E151">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F151">
         <v>0.93</v>
       </c>
       <c r="G151">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -4357,7 +4360,7 @@
         <v>0.87</v>
       </c>
       <c r="C152">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D152">
         <v>0.9</v>
@@ -4366,10 +4369,10 @@
         <v>0.87</v>
       </c>
       <c r="F152">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G152">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -4377,22 +4380,22 @@
         <v>110</v>
       </c>
       <c r="B153">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C153">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D153">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E153">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F153">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G153">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4400,7 +4403,7 @@
         <v>111</v>
       </c>
       <c r="B154">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C154">
         <v>0.88</v>
@@ -4409,13 +4412,13 @@
         <v>0.86</v>
       </c>
       <c r="E154">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F154">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="G154">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -4660,7 +4663,7 @@
     </row>
     <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -4668,22 +4671,22 @@
         <v>112</v>
       </c>
       <c r="B168">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="C168">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D168">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="E168">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="F168">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G168">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -4691,22 +4694,22 @@
         <v>113</v>
       </c>
       <c r="B169">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C169">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D169">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E169">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="F169">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="G169">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -4714,22 +4717,22 @@
         <v>114</v>
       </c>
       <c r="B170">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C170">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D170">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E170">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F170">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G170">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
@@ -4737,22 +4740,22 @@
         <v>115</v>
       </c>
       <c r="B171">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C171">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="D171">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E171">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F171">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G171">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -4760,147 +4763,147 @@
         <v>116</v>
       </c>
       <c r="B172">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C172">
+        <v>0.88</v>
+      </c>
+      <c r="D172">
+        <v>0.86</v>
+      </c>
+      <c r="E172">
         <v>0.85</v>
       </c>
-      <c r="D172">
-        <v>0.85</v>
-      </c>
-      <c r="E172">
-        <v>0.82</v>
-      </c>
       <c r="F172">
         <v>0.86</v>
       </c>
       <c r="G172">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
-        <v>117</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B174">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="C174">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D174">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="E174">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="F174">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="G174">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B175">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C175">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D175">
         <v>0.89</v>
       </c>
       <c r="E175">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F175">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G175">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B176">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C176">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D176">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E176">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F176">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G176">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B177">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="C177">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="D177">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E177">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F177">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G177">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B178">
         <v>0.85</v>
       </c>
       <c r="C178">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="D178">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E178">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F178">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G178">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>80</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -4908,22 +4911,22 @@
         <v>118</v>
       </c>
       <c r="B180">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="C180">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D180">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="E180">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="F180">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G180">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
@@ -4931,22 +4934,22 @@
         <v>119</v>
       </c>
       <c r="B181">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C181">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="D181">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E181">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F181">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G181">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -4957,7 +4960,7 @@
         <v>0.87</v>
       </c>
       <c r="C182">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D182">
         <v>0.9</v>
@@ -4969,7 +4972,7 @@
         <v>0.95</v>
       </c>
       <c r="G182">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
@@ -5000,27 +5003,27 @@
         <v>122</v>
       </c>
       <c r="B184">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="C184">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D184">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="E184">
+        <v>0.81</v>
+      </c>
+      <c r="F184">
         <v>0.84</v>
       </c>
-      <c r="F184">
-        <v>0.92</v>
-      </c>
       <c r="G184">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
@@ -5028,22 +5031,22 @@
         <v>118</v>
       </c>
       <c r="B186">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="C186">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D186">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E186">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="F186">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G186">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
@@ -5051,22 +5054,22 @@
         <v>119</v>
       </c>
       <c r="B187">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C187">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D187">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E187">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F187">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="G187">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
@@ -5089,7 +5092,7 @@
         <v>0.95</v>
       </c>
       <c r="G188">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
@@ -5100,19 +5103,19 @@
         <v>0.87</v>
       </c>
       <c r="C189">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D189">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E189">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F189">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="G189">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
@@ -5120,61 +5123,61 @@
         <v>122</v>
       </c>
       <c r="B190">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="C190">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D190">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="E190">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="F190">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="G190">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>86</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B192">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="C192">
         <v>0.92</v>
       </c>
       <c r="D192">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="E192">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="F192">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G192">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B193">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C193">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D193">
         <v>0.89</v>
@@ -5183,18 +5186,18 @@
         <v>0.86</v>
       </c>
       <c r="F193">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G193">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B194">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C194">
         <v>0.93</v>
@@ -5206,61 +5209,61 @@
         <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G194">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B195">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C195">
         <v>0.94</v>
       </c>
       <c r="D195">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E195">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F195">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="G195">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B196">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C196">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="D196">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="F196">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G196">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>80</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
@@ -5268,22 +5271,22 @@
         <v>123</v>
       </c>
       <c r="B198">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="C198">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="D198">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="E198">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F198">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G198">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
@@ -5291,22 +5294,22 @@
         <v>124</v>
       </c>
       <c r="B199">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C199">
         <v>0.9</v>
       </c>
       <c r="D199">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E199">
         <v>0.86</v>
       </c>
       <c r="F199">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G199">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
@@ -5360,27 +5363,27 @@
         <v>127</v>
       </c>
       <c r="B202">
+        <v>0.83</v>
+      </c>
+      <c r="C202">
+        <v>0.86</v>
+      </c>
+      <c r="D202">
         <v>0.85</v>
       </c>
-      <c r="C202">
-        <v>0.88</v>
-      </c>
-      <c r="D202">
-        <v>0.87</v>
-      </c>
       <c r="E202">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G202">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
@@ -5388,22 +5391,22 @@
         <v>123</v>
       </c>
       <c r="B204">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="C204">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="D204">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E204">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="F204">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G204">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
@@ -5411,22 +5414,22 @@
         <v>124</v>
       </c>
       <c r="B205">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C205">
         <v>0.9</v>
       </c>
       <c r="D205">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E205">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F205">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G205">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
@@ -5434,7 +5437,7 @@
         <v>125</v>
       </c>
       <c r="B206">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C206">
         <v>0.93</v>
@@ -5443,13 +5446,13 @@
         <v>0.9</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F206">
         <v>0.96</v>
       </c>
       <c r="G206">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -5460,10 +5463,10 @@
         <v>0.87</v>
       </c>
       <c r="C207">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D207">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E207">
         <v>0.86</v>
@@ -5480,55 +5483,55 @@
         <v>127</v>
       </c>
       <c r="B208">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C208">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D208">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F208">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G208">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
-        <v>86</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B210">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="C210">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="D210">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="E210">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="F210">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G210">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B211">
         <v>0.88</v>
@@ -5543,7 +5546,7 @@
         <v>0.86</v>
       </c>
       <c r="F211">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G211">
         <v>0.89</v>
@@ -5551,33 +5554,33 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B212">
         <v>0.87</v>
       </c>
       <c r="C212">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D212">
         <v>0.9</v>
       </c>
       <c r="E212">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F212">
         <v>0.95</v>
       </c>
       <c r="G212">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B213">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C213">
         <v>0.94</v>
@@ -5586,41 +5589,41 @@
         <v>0.9</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F213">
         <v>0.96</v>
       </c>
       <c r="G213">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B214">
         <v>0.85</v>
       </c>
       <c r="C214">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D214">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E214">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F214">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G214">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>80</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -5628,22 +5631,22 @@
         <v>128</v>
       </c>
       <c r="B216">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="C216">
+        <v>0.92</v>
+      </c>
+      <c r="D216">
+        <v>0.77</v>
+      </c>
+      <c r="E216">
+        <v>0.67</v>
+      </c>
+      <c r="F216">
         <v>0.93</v>
       </c>
-      <c r="D216">
-        <v>0.91</v>
-      </c>
-      <c r="E216">
-        <v>0.71</v>
-      </c>
-      <c r="F216">
-        <v>0.94</v>
-      </c>
       <c r="G216">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -5651,22 +5654,22 @@
         <v>129</v>
       </c>
       <c r="B217">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="C217">
         <v>0.9</v>
       </c>
       <c r="D217">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E217">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F217">
         <v>0.92</v>
       </c>
       <c r="G217">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -5674,7 +5677,7 @@
         <v>130</v>
       </c>
       <c r="B218">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C218">
         <v>0.93</v>
@@ -5720,27 +5723,27 @@
         <v>132</v>
       </c>
       <c r="B220">
+        <v>0.82</v>
+      </c>
+      <c r="C220">
+        <v>0.86</v>
+      </c>
+      <c r="D220">
+        <v>0.84</v>
+      </c>
+      <c r="E220">
+        <v>0.81</v>
+      </c>
+      <c r="F220">
         <v>0.85</v>
       </c>
-      <c r="C220">
-        <v>0.88</v>
-      </c>
-      <c r="D220">
-        <v>0.87</v>
-      </c>
-      <c r="E220">
-        <v>0.82</v>
-      </c>
-      <c r="F220">
-        <v>0.92</v>
-      </c>
       <c r="G220">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -5748,22 +5751,22 @@
         <v>128</v>
       </c>
       <c r="B222">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="C222">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D222">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="F222">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G222">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -5771,22 +5774,22 @@
         <v>129</v>
       </c>
       <c r="B223">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C223">
         <v>0.9</v>
       </c>
       <c r="D223">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E223">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F223">
         <v>0.92</v>
       </c>
       <c r="G223">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -5794,7 +5797,7 @@
         <v>130</v>
       </c>
       <c r="B224">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C224">
         <v>0.93</v>
@@ -5803,13 +5806,13 @@
         <v>0.9</v>
       </c>
       <c r="E224">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F224">
         <v>0.95</v>
       </c>
       <c r="G224">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -5820,19 +5823,19 @@
         <v>0.87</v>
       </c>
       <c r="C225">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D225">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E225">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F225">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G225">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -5840,58 +5843,58 @@
         <v>132</v>
       </c>
       <c r="B226">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="C226">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="D226">
+        <v>0.87</v>
+      </c>
+      <c r="E226">
         <v>0.84</v>
       </c>
-      <c r="E226">
-        <v>0.81</v>
-      </c>
       <c r="F226">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G226">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
-        <v>86</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B228">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="C228">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D228">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="E228">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="F228">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="G228">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B229">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C229">
         <v>0.89</v>
@@ -5900,10 +5903,10 @@
         <v>0.88</v>
       </c>
       <c r="E229">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F229">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G229">
         <v>0.88</v>
@@ -5911,10 +5914,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B230">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C230">
         <v>0.93</v>
@@ -5923,18 +5926,18 @@
         <v>0.9</v>
       </c>
       <c r="E230">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F230">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G230">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B231">
         <v>0.86</v>
@@ -5946,10 +5949,10 @@
         <v>0.9</v>
       </c>
       <c r="E231">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F231">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G231">
         <v>0.89</v>
@@ -5957,10 +5960,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B232">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C232">
         <v>0.86</v>
@@ -5969,18 +5972,18 @@
         <v>0.86</v>
       </c>
       <c r="E232">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="F232">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="G232">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>80</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
@@ -5988,22 +5991,22 @@
         <v>133</v>
       </c>
       <c r="B234">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="C234">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D234">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="F234">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G234">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -6011,13 +6014,13 @@
         <v>134</v>
       </c>
       <c r="B235">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="C235">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D235">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E235">
         <v>0.85</v>
@@ -6034,7 +6037,7 @@
         <v>135</v>
       </c>
       <c r="B236">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C236">
         <v>0.93</v>
@@ -6043,13 +6046,13 @@
         <v>0.9</v>
       </c>
       <c r="E236">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F236">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G236">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -6080,27 +6083,27 @@
         <v>137</v>
       </c>
       <c r="B238">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="C238">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D238">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="E238">
+        <v>0.79</v>
+      </c>
+      <c r="F238">
+        <v>0.84</v>
+      </c>
+      <c r="G238">
         <v>0.81</v>
       </c>
-      <c r="F238">
-        <v>0.92</v>
-      </c>
-      <c r="G238">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -6108,22 +6111,22 @@
         <v>133</v>
       </c>
       <c r="B240">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="C240">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D240">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="E240">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="F240">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G240">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -6131,22 +6134,22 @@
         <v>134</v>
       </c>
       <c r="B241">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C241">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D241">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E241">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F241">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G241">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
@@ -6154,7 +6157,7 @@
         <v>135</v>
       </c>
       <c r="B242">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C242">
         <v>0.93</v>
@@ -6163,13 +6166,13 @@
         <v>0.9</v>
       </c>
       <c r="E242">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F242">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G242">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
@@ -6186,13 +6189,13 @@
         <v>0.9</v>
       </c>
       <c r="E243">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F243">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G243">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
@@ -6200,147 +6203,147 @@
         <v>137</v>
       </c>
       <c r="B244">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="C244">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="D244">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E244">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="F244">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="G244">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
-        <v>86</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B246">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="C246">
         <v>0.92</v>
       </c>
       <c r="D246">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E246">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="F246">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G246">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B247">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C247">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D247">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E247">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F247">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G247">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B248">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C248">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D248">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E248">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G248">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B249">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C249">
         <v>0.94</v>
       </c>
       <c r="D249">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E249">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F249">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G249">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B250">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C250">
         <v>0.86</v>
       </c>
       <c r="D250">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E250">
         <v>0.81</v>
       </c>
       <c r="F250">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="G250">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>80</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
@@ -6348,22 +6351,22 @@
         <v>138</v>
       </c>
       <c r="B252">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="C252">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="D252">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="E252">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="F252">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G252">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -6371,7 +6374,7 @@
         <v>139</v>
       </c>
       <c r="B253">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C253">
         <v>0.89</v>
@@ -6380,10 +6383,10 @@
         <v>0.89</v>
       </c>
       <c r="E253">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F253">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G253">
         <v>0.9</v>
@@ -6397,19 +6400,19 @@
         <v>0.88</v>
       </c>
       <c r="C254">
+        <v>0.93</v>
+      </c>
+      <c r="D254">
+        <v>0.9</v>
+      </c>
+      <c r="E254">
+        <v>0.89</v>
+      </c>
+      <c r="F254">
         <v>0.94</v>
       </c>
-      <c r="D254">
-        <v>0.91</v>
-      </c>
-      <c r="E254">
-        <v>0.88</v>
-      </c>
-      <c r="F254">
-        <v>0.95</v>
-      </c>
       <c r="G254">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -6440,27 +6443,27 @@
         <v>142</v>
       </c>
       <c r="B256">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C256">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D256">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E256">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="F256">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="G256">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -6468,22 +6471,22 @@
         <v>138</v>
       </c>
       <c r="B258">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="C258">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D258">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="E258">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="F258">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G258">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -6491,7 +6494,7 @@
         <v>139</v>
       </c>
       <c r="B259">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="C259">
         <v>0.89</v>
@@ -6500,13 +6503,13 @@
         <v>0.89</v>
       </c>
       <c r="E259">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F259">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G259">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -6514,7 +6517,7 @@
         <v>140</v>
       </c>
       <c r="B260">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C260">
         <v>0.93</v>
@@ -6523,13 +6526,13 @@
         <v>0.9</v>
       </c>
       <c r="E260">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F260">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G260">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -6537,22 +6540,22 @@
         <v>141</v>
       </c>
       <c r="B261">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C261">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D261">
         <v>0.91</v>
       </c>
       <c r="E261">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F261">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G261">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -6560,146 +6563,27 @@
         <v>142</v>
       </c>
       <c r="B262">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="C262">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="D262">
+        <v>0.85</v>
+      </c>
+      <c r="E262">
         <v>0.84</v>
       </c>
-      <c r="E262">
-        <v>0.82</v>
-      </c>
       <c r="F262">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G262">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>138</v>
-      </c>
-      <c r="B264">
-        <v>0.61</v>
-      </c>
-      <c r="C264">
-        <v>0.91</v>
-      </c>
-      <c r="D264">
-        <v>0.73</v>
-      </c>
-      <c r="E264">
-        <v>0.62</v>
-      </c>
-      <c r="F264">
-        <v>0.92</v>
-      </c>
-      <c r="G264">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>139</v>
-      </c>
-      <c r="B265">
-        <v>0.89</v>
-      </c>
-      <c r="C265">
-        <v>0.89</v>
-      </c>
-      <c r="D265">
-        <v>0.89</v>
-      </c>
-      <c r="E265">
-        <v>0.88</v>
-      </c>
-      <c r="F265">
-        <v>0.92</v>
-      </c>
-      <c r="G265">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>140</v>
-      </c>
-      <c r="B266">
-        <v>0.87</v>
-      </c>
-      <c r="C266">
-        <v>0.93</v>
-      </c>
-      <c r="D266">
-        <v>0.9</v>
-      </c>
-      <c r="E266">
-        <v>0.87</v>
-      </c>
-      <c r="F266">
-        <v>0.93</v>
-      </c>
-      <c r="G266">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>141</v>
-      </c>
-      <c r="B267">
-        <v>0.86</v>
-      </c>
-      <c r="C267">
-        <v>0.94</v>
-      </c>
-      <c r="D267">
-        <v>0.9</v>
-      </c>
-      <c r="E267">
-        <v>0.86</v>
-      </c>
-      <c r="F267">
-        <v>0.94</v>
-      </c>
-      <c r="G267">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>142</v>
-      </c>
-      <c r="B268">
-        <v>0.83</v>
-      </c>
-      <c r="C268">
-        <v>0.85</v>
-      </c>
-      <c r="D268">
-        <v>0.84</v>
-      </c>
-      <c r="E268">
-        <v>0.83</v>
-      </c>
-      <c r="F268">
-        <v>0.87</v>
-      </c>
-      <c r="G268">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C0A3E8-194C-4AFA-97EE-B36C20AAAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC70AB5-ABFC-465A-8793-253EFCBD8DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="Eval (ranking)" sheetId="3" r:id="rId2"/>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId3"/>
-    <sheet name="Legend" sheetId="2" r:id="rId4"/>
+    <sheet name="Visualization" sheetId="5" r:id="rId4"/>
+    <sheet name="Legend" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Eval (binary)'!$E$1:$G$262</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="157">
   <si>
     <t>Version</t>
   </si>
@@ -476,6 +477,48 @@
   </si>
   <si>
     <t>3.12(Neural Net)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>Without keywords</t>
   </si>
 </sst>
 </file>
@@ -535,13 +578,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1383,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="H267" sqref="H267"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="E259" sqref="E259:G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6588,6 +6632,886 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4F90CF-2D4D-48D0-86FE-634B23BAFE9D}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2">
+        <v>0.89</v>
+      </c>
+      <c r="E2">
+        <v>0.94</v>
+      </c>
+      <c r="F2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3">
+        <v>0.88</v>
+      </c>
+      <c r="E3">
+        <v>0.93</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4">
+        <v>0.88</v>
+      </c>
+      <c r="E4">
+        <v>0.92</v>
+      </c>
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5">
+        <v>0.86</v>
+      </c>
+      <c r="E5">
+        <v>0.91</v>
+      </c>
+      <c r="F5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6">
+        <v>0.86</v>
+      </c>
+      <c r="E6">
+        <v>0.92</v>
+      </c>
+      <c r="F6">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>0.85</v>
+      </c>
+      <c r="E7">
+        <v>0.92</v>
+      </c>
+      <c r="F7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8">
+        <v>0.88</v>
+      </c>
+      <c r="E8">
+        <v>0.92</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>0.89</v>
+      </c>
+      <c r="E9">
+        <v>0.95</v>
+      </c>
+      <c r="F9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>0.87</v>
+      </c>
+      <c r="E10">
+        <v>0.95</v>
+      </c>
+      <c r="F10">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11">
+        <v>0.87</v>
+      </c>
+      <c r="E11">
+        <v>0.95</v>
+      </c>
+      <c r="F11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12">
+        <v>0.86</v>
+      </c>
+      <c r="E12">
+        <v>0.96</v>
+      </c>
+      <c r="F12">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>0.87</v>
+      </c>
+      <c r="E13">
+        <v>0.95</v>
+      </c>
+      <c r="F13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14">
+        <v>0.87</v>
+      </c>
+      <c r="E14">
+        <v>0.95</v>
+      </c>
+      <c r="F14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15">
+        <v>0.88</v>
+      </c>
+      <c r="E15">
+        <v>0.95</v>
+      </c>
+      <c r="F15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16">
+        <v>0.85</v>
+      </c>
+      <c r="E16">
+        <v>0.96</v>
+      </c>
+      <c r="F16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17">
+        <v>0.85</v>
+      </c>
+      <c r="E17">
+        <v>0.95</v>
+      </c>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18">
+        <v>0.87</v>
+      </c>
+      <c r="E18">
+        <v>0.94</v>
+      </c>
+      <c r="F18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19">
+        <v>0.86</v>
+      </c>
+      <c r="E19">
+        <v>0.97</v>
+      </c>
+      <c r="F19">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20">
+        <v>0.85</v>
+      </c>
+      <c r="E20">
+        <v>0.96</v>
+      </c>
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21">
+        <v>0.85</v>
+      </c>
+      <c r="E21">
+        <v>0.95</v>
+      </c>
+      <c r="F21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>0.87</v>
+      </c>
+      <c r="E22">
+        <v>0.94</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23">
+        <v>0.89</v>
+      </c>
+      <c r="E23">
+        <v>0.93</v>
+      </c>
+      <c r="F23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24">
+        <v>0.89</v>
+      </c>
+      <c r="E24">
+        <v>0.93</v>
+      </c>
+      <c r="F24">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>0.86</v>
+      </c>
+      <c r="E25">
+        <v>0.92</v>
+      </c>
+      <c r="F25">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26">
+        <v>0.87</v>
+      </c>
+      <c r="E26">
+        <v>0.93</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <v>0.87</v>
+      </c>
+      <c r="E27">
+        <v>0.92</v>
+      </c>
+      <c r="F27">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <v>0.87</v>
+      </c>
+      <c r="E28">
+        <v>0.93</v>
+      </c>
+      <c r="F28">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29">
+        <v>0.9</v>
+      </c>
+      <c r="E29">
+        <v>0.92</v>
+      </c>
+      <c r="F29">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30">
+        <v>0.87</v>
+      </c>
+      <c r="E30">
+        <v>0.95</v>
+      </c>
+      <c r="F30">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31">
+        <v>0.87</v>
+      </c>
+      <c r="E31">
+        <v>0.95</v>
+      </c>
+      <c r="F31">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32">
+        <v>0.86</v>
+      </c>
+      <c r="E32">
+        <v>0.96</v>
+      </c>
+      <c r="F32">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33">
+        <v>0.88</v>
+      </c>
+      <c r="E33">
+        <v>0.96</v>
+      </c>
+      <c r="F33">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34">
+        <v>0.86</v>
+      </c>
+      <c r="E34">
+        <v>0.95</v>
+      </c>
+      <c r="F34">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35">
+        <v>0.87</v>
+      </c>
+      <c r="E35">
+        <v>0.95</v>
+      </c>
+      <c r="F35">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36">
+        <v>0.88</v>
+      </c>
+      <c r="E36">
+        <v>0.93</v>
+      </c>
+      <c r="F36">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>0.86</v>
+      </c>
+      <c r="E37">
+        <v>0.96</v>
+      </c>
+      <c r="F37">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38">
+        <v>0.86</v>
+      </c>
+      <c r="E38">
+        <v>0.96</v>
+      </c>
+      <c r="F38">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39">
+        <v>0.86</v>
+      </c>
+      <c r="E39">
+        <v>0.97</v>
+      </c>
+      <c r="F39">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40">
+        <v>0.86</v>
+      </c>
+      <c r="E40">
+        <v>0.97</v>
+      </c>
+      <c r="F40">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41">
+        <v>0.87</v>
+      </c>
+      <c r="E41">
+        <v>0.97</v>
+      </c>
+      <c r="F41">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42">
+        <v>0.87</v>
+      </c>
+      <c r="E42">
+        <v>0.97</v>
+      </c>
+      <c r="F42">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43">
+        <v>0.88</v>
+      </c>
+      <c r="E43">
+        <v>0.95</v>
+      </c>
+      <c r="F43">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5C29-B47A-450B-AA49-EF0EDDC02364}">
   <dimension ref="A1:C15"/>
   <sheetViews>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC70AB5-ABFC-465A-8793-253EFCBD8DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4361A2DD-03B9-4DE8-A72F-CEBB1098F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="E259" sqref="E259:G261"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="J267" sqref="J267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6635,7 +6635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4F90CF-2D4D-48D0-86FE-634B23BAFE9D}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4361A2DD-03B9-4DE8-A72F-CEBB1098F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46BA30-83E0-4504-B8DE-9EC14CD049A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Statistics" sheetId="1" r:id="rId1"/>
-    <sheet name="Eval (ranking)" sheetId="3" r:id="rId2"/>
-    <sheet name="Eval (binary)" sheetId="4" r:id="rId3"/>
-    <sheet name="Visualization" sheetId="5" r:id="rId4"/>
-    <sheet name="Legend" sheetId="2" r:id="rId5"/>
+    <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
+    <sheet name="Visualization" sheetId="5" r:id="rId2"/>
+    <sheet name="Legend" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Eval (binary)'!$E$1:$G$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Eval (binary)'!$E$1:$G$253</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,161 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="100">
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>paragraph</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics </t>
-  </si>
-  <si>
-    <t>Version of the corpus</t>
-  </si>
-  <si>
-    <t>calculated similarities of names</t>
-  </si>
-  <si>
-    <t>calculated similarities of authors</t>
-  </si>
-  <si>
-    <t>calculated similarities of keywordss</t>
-  </si>
-  <si>
-    <t>calculated similarities of paragraphs</t>
-  </si>
-  <si>
-    <t>averaged similarities per row</t>
-  </si>
-  <si>
-    <t>minimum similarity per row</t>
-  </si>
-  <si>
-    <t>maximum similarity per row</t>
-  </si>
-  <si>
-    <t>MRR@1</t>
-  </si>
-  <si>
-    <t>R-Precision</t>
-  </si>
-  <si>
-    <t>Full MRR</t>
-  </si>
-  <si>
-    <t>the proportion of cases where the correct item appears in the very first position</t>
-  </si>
-  <si>
-    <t>the fraction of all true items that are retrieved within the top R results, where R is the number of true items for that query</t>
-  </si>
-  <si>
-    <t>the average over all queries of 1 divided by the rank of the first correct item</t>
-  </si>
-  <si>
-    <t>3(with negatives)</t>
-  </si>
-  <si>
-    <t>3 (only positives)</t>
-  </si>
-  <si>
-    <t>2 (min)</t>
-  </si>
-  <si>
-    <t>2 (max)</t>
-  </si>
-  <si>
-    <t>3 (min)</t>
-  </si>
-  <si>
-    <t>3 (max)</t>
-  </si>
-  <si>
-    <t>2 (avg)</t>
-  </si>
-  <si>
-    <t>0.3376</t>
-  </si>
-  <si>
-    <t>0.2753</t>
-  </si>
-  <si>
-    <t>0.4097</t>
-  </si>
-  <si>
-    <t>0.1880</t>
-  </si>
-  <si>
-    <t>0.1807</t>
-  </si>
-  <si>
-    <t>0.2934</t>
-  </si>
-  <si>
-    <t>0.3504</t>
-  </si>
-  <si>
-    <t>0.2907</t>
-  </si>
-  <si>
-    <t>0.4300</t>
-  </si>
-  <si>
-    <t>0.3783</t>
-  </si>
-  <si>
-    <t>0.3326</t>
-  </si>
-  <si>
-    <t>0.5963</t>
-  </si>
-  <si>
-    <t>0.1979</t>
-  </si>
-  <si>
-    <t>0.2104</t>
-  </si>
-  <si>
-    <t>0.4183</t>
-  </si>
-  <si>
-    <t>0.2493</t>
-  </si>
-  <si>
-    <t>0.2923</t>
-  </si>
-  <si>
-    <t>0.5052</t>
-  </si>
-  <si>
-    <t>3 (avg)</t>
-  </si>
-  <si>
-    <t>Evaluation (ranked)</t>
-  </si>
-  <si>
     <t>Evaluation (binary)</t>
   </si>
   <si>
@@ -208,33 +56,6 @@
   </si>
   <si>
     <t>F1 score</t>
-  </si>
-  <si>
-    <t>3(avg)</t>
-  </si>
-  <si>
-    <t>3(min)</t>
-  </si>
-  <si>
-    <t>3(max)</t>
-  </si>
-  <si>
-    <t>1(avg)</t>
-  </si>
-  <si>
-    <t>1(min)</t>
-  </si>
-  <si>
-    <t>1(max)</t>
-  </si>
-  <si>
-    <t>2(avg)</t>
-  </si>
-  <si>
-    <t>2(min)</t>
-  </si>
-  <si>
-    <t>2(max)</t>
   </si>
   <si>
     <t xml:space="preserve">F1 score </t>
@@ -519,38 +340,22 @@
   </si>
   <si>
     <t>Without keywords</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Sheet with the same results like in the Eval (binary) just differently written to make it easier to visualize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -574,21 +379,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,515 +721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B254F3F3-2D58-4C1D-A87C-56C974B5A226}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0.88729999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.30209999999999998</v>
-      </c>
-      <c r="E2">
-        <v>0.1847</v>
-      </c>
-      <c r="F2">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.4456</v>
-      </c>
-      <c r="I2">
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="J2">
-        <v>0.88970000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-4.41E-2</v>
-      </c>
-      <c r="F3">
-        <v>-9.7999999999999997E-3</v>
-      </c>
-      <c r="H3">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="I3">
-        <v>-4.41E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.56620000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.61170000000000002</v>
-      </c>
-      <c r="F4">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="H4">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="I4">
-        <v>0.52669999999999995</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.52049999999999996</v>
-      </c>
-      <c r="E5">
-        <v>8.2600000000000007E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.2293</v>
-      </c>
-      <c r="H5">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="I5">
-        <v>6.7100000000000007E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.88539999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-0.18709999999999999</v>
-      </c>
-      <c r="F6">
-        <v>-0.1201</v>
-      </c>
-      <c r="H6">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="I6">
-        <v>-0.18709999999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.3725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="F7">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="H7">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.65110000000000001</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.84989999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.5292</v>
-      </c>
-      <c r="E8">
-        <v>0.1023</v>
-      </c>
-      <c r="F8">
-        <v>0.29139999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.61939999999999995</v>
-      </c>
-      <c r="H8">
-        <v>0.47070000000000001</v>
-      </c>
-      <c r="I8">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="J8">
-        <v>0.89649999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>-0.17</v>
-      </c>
-      <c r="F9">
-        <v>-0.10879999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.10059999999999999</v>
-      </c>
-      <c r="I9">
-        <v>-0.17</v>
-      </c>
-      <c r="J9">
-        <v>0.3725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="F10">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>0.98040000000000005</v>
-      </c>
-      <c r="D11">
-        <v>0.53469999999999995</v>
-      </c>
-      <c r="E11">
-        <v>0.15659999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.94910000000000005</v>
-      </c>
-      <c r="H11">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="I11">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0.99280000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>-0.1245</v>
-      </c>
-      <c r="F12">
-        <v>-1.9599999999999999E-2</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.31209999999999999</v>
-      </c>
-      <c r="I12">
-        <v>-0.1245</v>
-      </c>
-      <c r="J12">
-        <v>0.49909999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0.76670000000000005</v>
-      </c>
-      <c r="F13">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0.83709999999999996</v>
-      </c>
-      <c r="I13">
-        <v>0.65110000000000001</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6425285-6100-4E98-A2FC-D250DCE75505}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{C639DC3B-F845-41B2-AEC2-F51A22041684}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G262"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="J267" sqref="J267"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,265 +738,310 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.45</v>
-      </c>
-      <c r="D2">
-        <v>0.62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0.91</v>
       </c>
       <c r="D3">
-        <v>0.02</v>
+        <v>0.75</v>
+      </c>
+      <c r="E3">
+        <v>0.63</v>
+      </c>
+      <c r="F3">
+        <v>0.92</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.87</v>
+      </c>
+      <c r="E4">
+        <v>0.86</v>
+      </c>
+      <c r="F4">
+        <v>0.88</v>
+      </c>
+      <c r="G4">
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.37</v>
+        <v>0.84</v>
       </c>
       <c r="C5">
-        <v>0.57999999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="D5">
-        <v>0.45</v>
+        <v>0.87</v>
+      </c>
+      <c r="E5">
+        <v>0.84</v>
+      </c>
+      <c r="F5">
+        <v>0.92</v>
+      </c>
+      <c r="G5">
+        <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="C6">
-        <v>0.02</v>
+        <v>0.92</v>
       </c>
       <c r="D6">
-        <v>0.03</v>
+        <v>0.87</v>
+      </c>
+      <c r="E6">
+        <v>0.81</v>
+      </c>
+      <c r="F6">
+        <v>0.94</v>
+      </c>
+      <c r="G6">
+        <v>0.87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.84</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="D7">
-        <v>0.18</v>
+        <v>0.86</v>
+      </c>
+      <c r="E7">
+        <v>0.84</v>
+      </c>
+      <c r="F7">
+        <v>0.87</v>
+      </c>
+      <c r="G7">
+        <v>0.86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>0.44</v>
-      </c>
-      <c r="C8">
-        <v>0.82</v>
-      </c>
-      <c r="D8">
-        <v>0.56999999999999995</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0.17</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.23</v>
+        <v>0.79</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D10">
-        <v>0.38</v>
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.79</v>
+      </c>
+      <c r="F10">
+        <v>0.82</v>
+      </c>
+      <c r="G10">
+        <v>0.81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.77</v>
+      </c>
+      <c r="C11">
+        <v>0.91</v>
+      </c>
+      <c r="D11">
+        <v>0.83</v>
+      </c>
+      <c r="E11">
+        <v>0.77</v>
+      </c>
+      <c r="F11">
+        <v>0.91</v>
+      </c>
+      <c r="G11">
+        <v>0.84</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="C12">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D12">
+        <v>0.84</v>
+      </c>
+      <c r="E12">
         <v>0.75</v>
       </c>
-      <c r="E12">
-        <v>0.63</v>
-      </c>
       <c r="F12">
         <v>0.92</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="C13">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="D13">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="E13">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F13">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="G13">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14">
-        <v>0.84</v>
-      </c>
-      <c r="C14">
-        <v>0.9</v>
-      </c>
-      <c r="D14">
-        <v>0.87</v>
-      </c>
-      <c r="E14">
-        <v>0.84</v>
-      </c>
-      <c r="F14">
-        <v>0.92</v>
-      </c>
-      <c r="G14">
-        <v>0.88</v>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D15">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="E15">
-        <v>0.81</v>
+        <v>0.59</v>
       </c>
       <c r="F15">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G15">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0.84</v>
       </c>
       <c r="C16">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D16">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E16">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F16">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G16">
         <v>0.86</v>
@@ -1707,1115 +1049,1133 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.84</v>
+      </c>
+      <c r="C17">
+        <v>0.91</v>
+      </c>
+      <c r="D17">
+        <v>0.87</v>
+      </c>
+      <c r="E17">
+        <v>0.84</v>
+      </c>
+      <c r="F17">
+        <v>0.92</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.57999999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="C18">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="D18">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="E18">
-        <v>0.56999999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="F18">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="G18">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="C19">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="D19">
+        <v>0.83</v>
+      </c>
+      <c r="E19">
         <v>0.8</v>
       </c>
-      <c r="E19">
-        <v>0.79</v>
-      </c>
       <c r="F19">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="G19">
         <v>0.81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20">
-        <v>0.77</v>
-      </c>
-      <c r="C20">
-        <v>0.91</v>
-      </c>
-      <c r="D20">
-        <v>0.83</v>
-      </c>
-      <c r="E20">
-        <v>0.77</v>
-      </c>
-      <c r="F20">
-        <v>0.91</v>
-      </c>
-      <c r="G20">
-        <v>0.84</v>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D21">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="E21">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F21">
         <v>0.92</v>
       </c>
       <c r="G21">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>0.79</v>
       </c>
       <c r="C22">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D22">
         <v>0.81</v>
       </c>
       <c r="E22">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
         <v>0.83</v>
       </c>
       <c r="G22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.77</v>
+      </c>
+      <c r="C23">
+        <v>0.91</v>
+      </c>
+      <c r="D23">
+        <v>0.83</v>
+      </c>
+      <c r="E23">
+        <v>0.77</v>
+      </c>
+      <c r="F23">
+        <v>0.91</v>
+      </c>
+      <c r="G23">
+        <v>0.84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="C24">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D24">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="E24">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="F24">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G24">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="C25">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D25">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E25">
+        <v>0.77</v>
+      </c>
+      <c r="F25">
+        <v>0.91</v>
+      </c>
+      <c r="G25">
         <v>0.83</v>
       </c>
-      <c r="F25">
-        <v>0.89</v>
-      </c>
-      <c r="G25">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26">
-        <v>0.84</v>
-      </c>
-      <c r="C26">
-        <v>0.91</v>
-      </c>
-      <c r="D26">
-        <v>0.87</v>
-      </c>
-      <c r="E26">
-        <v>0.84</v>
-      </c>
-      <c r="F26">
-        <v>0.92</v>
-      </c>
-      <c r="G26">
-        <v>0.88</v>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D27">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="E27">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
       <c r="F27">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G27">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B28">
+        <v>0.83</v>
+      </c>
+      <c r="C28">
+        <v>0.85</v>
+      </c>
+      <c r="D28">
+        <v>0.84</v>
+      </c>
+      <c r="E28">
+        <v>0.83</v>
+      </c>
+      <c r="F28">
+        <v>0.85</v>
+      </c>
+      <c r="G28">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+      <c r="C29">
+        <v>0.9</v>
+      </c>
+      <c r="D29">
+        <v>0.85</v>
+      </c>
+      <c r="E29">
         <v>0.81</v>
       </c>
-      <c r="C28">
-        <v>0.85</v>
-      </c>
-      <c r="D28">
-        <v>0.83</v>
-      </c>
-      <c r="E28">
-        <v>0.8</v>
-      </c>
-      <c r="F28">
-        <v>0.81</v>
-      </c>
-      <c r="G28">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>78</v>
+      <c r="F29">
+        <v>0.91</v>
+      </c>
+      <c r="G29">
+        <v>0.86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="C30">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D30">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="E30">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F30">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G30">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="C31">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="D31">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="G31">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32">
-        <v>0.77</v>
-      </c>
-      <c r="C32">
-        <v>0.91</v>
-      </c>
-      <c r="D32">
-        <v>0.83</v>
-      </c>
-      <c r="E32">
-        <v>0.77</v>
-      </c>
-      <c r="F32">
-        <v>0.91</v>
-      </c>
-      <c r="G32">
-        <v>0.84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
       <c r="C33">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D33">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="E33">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="F33">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G33">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="C34">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D34">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E34">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="F34">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G34">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>79</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>0.86</v>
+      </c>
+      <c r="C35">
+        <v>0.92</v>
+      </c>
+      <c r="D35">
+        <v>0.89</v>
+      </c>
+      <c r="E35">
+        <v>0.84</v>
+      </c>
+      <c r="F35">
+        <v>0.94</v>
+      </c>
+      <c r="G35">
+        <v>0.89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="C36">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D36">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="E36">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="F36">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="G36">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="C37">
         <v>0.85</v>
       </c>
       <c r="D37">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E37">
         <v>0.83</v>
       </c>
       <c r="F37">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="G37">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38">
-        <v>0.8</v>
-      </c>
-      <c r="C38">
-        <v>0.9</v>
-      </c>
-      <c r="D38">
-        <v>0.85</v>
-      </c>
-      <c r="E38">
-        <v>0.81</v>
-      </c>
-      <c r="F38">
-        <v>0.91</v>
-      </c>
-      <c r="G38">
-        <v>0.86</v>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>0.81</v>
+        <v>0.6</v>
       </c>
       <c r="C39">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="D39">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="F39">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G39">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="C40">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D40">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E40">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F40">
         <v>0.91</v>
       </c>
       <c r="G40">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>0.86</v>
+      </c>
+      <c r="C41">
+        <v>0.92</v>
+      </c>
+      <c r="D41">
+        <v>0.89</v>
+      </c>
+      <c r="E41">
+        <v>0.84</v>
+      </c>
+      <c r="F41">
+        <v>0.94</v>
+      </c>
+      <c r="G41">
+        <v>0.89</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>0.63</v>
+        <v>0.85</v>
       </c>
       <c r="C42">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D42">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="E42">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="F42">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G42">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="C43">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="D43">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E43">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="F43">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="G43">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44">
-        <v>0.86</v>
-      </c>
-      <c r="C44">
-        <v>0.92</v>
-      </c>
-      <c r="D44">
-        <v>0.89</v>
-      </c>
-      <c r="E44">
-        <v>0.84</v>
-      </c>
-      <c r="F44">
-        <v>0.94</v>
-      </c>
-      <c r="G44">
-        <v>0.89</v>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>0.86</v>
+        <v>0.61</v>
       </c>
       <c r="C45">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="D45">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="E45">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="F45">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="G45">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C46">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="D46">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="E46">
+        <v>0.84</v>
+      </c>
+      <c r="F46">
+        <v>0.88</v>
+      </c>
+      <c r="G46">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>0.84</v>
+      </c>
+      <c r="C47">
+        <v>0.92</v>
+      </c>
+      <c r="D47">
+        <v>0.88</v>
+      </c>
+      <c r="E47">
         <v>0.83</v>
       </c>
-      <c r="F46">
-        <v>0.88</v>
-      </c>
-      <c r="G46">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>77</v>
+      <c r="F47">
+        <v>0.93</v>
+      </c>
+      <c r="G47">
+        <v>0.88</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="C48">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D48">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="E48">
-        <v>0.59</v>
+        <v>0.83</v>
       </c>
       <c r="F48">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G48">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C49">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="D49">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E49">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="F49">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="G49">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50">
-        <v>0.86</v>
-      </c>
-      <c r="C50">
-        <v>0.92</v>
-      </c>
-      <c r="D50">
-        <v>0.89</v>
-      </c>
-      <c r="E50">
-        <v>0.84</v>
-      </c>
-      <c r="F50">
-        <v>0.94</v>
-      </c>
-      <c r="G50">
-        <v>0.89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="C51">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D51">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="E51">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="F51">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G51">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="C52">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D52">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="E52">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F52">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="G52">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>86</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>0.85</v>
+      </c>
+      <c r="C53">
+        <v>0.93</v>
+      </c>
+      <c r="D53">
+        <v>0.89</v>
+      </c>
+      <c r="E53">
+        <v>0.84</v>
+      </c>
+      <c r="F53">
+        <v>0.95</v>
+      </c>
+      <c r="G53">
+        <v>0.89</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B54">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="C54">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="D54">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="E54">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="F54">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G54">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B55">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D55">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E55">
         <v>0.84</v>
       </c>
       <c r="F55">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="G55">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56">
-        <v>0.84</v>
-      </c>
-      <c r="C56">
-        <v>0.92</v>
-      </c>
-      <c r="D56">
-        <v>0.88</v>
-      </c>
-      <c r="E56">
-        <v>0.83</v>
-      </c>
-      <c r="F56">
-        <v>0.93</v>
-      </c>
-      <c r="G56">
-        <v>0.88</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="C57">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D57">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="E57">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="F57">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G57">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="C58">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D58">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E58">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F58">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G58">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>0.85</v>
+      </c>
+      <c r="C59">
+        <v>0.93</v>
+      </c>
+      <c r="D59">
+        <v>0.89</v>
+      </c>
+      <c r="E59">
+        <v>0.84</v>
+      </c>
+      <c r="F59">
+        <v>0.95</v>
+      </c>
+      <c r="G59">
+        <v>0.89</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="C60">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D60">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="E60">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="F60">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G60">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B61">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="C61">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D61">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E61">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="F61">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="G61">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62">
-        <v>0.85</v>
-      </c>
-      <c r="C62">
-        <v>0.93</v>
-      </c>
-      <c r="D62">
-        <v>0.89</v>
-      </c>
-      <c r="E62">
         <v>0.84</v>
       </c>
-      <c r="F62">
-        <v>0.95</v>
-      </c>
-      <c r="G62">
-        <v>0.89</v>
+    </row>
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="C63">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D63">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="E63">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G63">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C64">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="D64">
         <v>0.86</v>
       </c>
       <c r="E64">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F64">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="G64">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>77</v>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>0.83</v>
+      </c>
+      <c r="C65">
+        <v>0.93</v>
+      </c>
+      <c r="D65">
+        <v>0.88</v>
+      </c>
+      <c r="E65">
+        <v>0.82</v>
+      </c>
+      <c r="F65">
+        <v>0.94</v>
+      </c>
+      <c r="G65">
+        <v>0.88</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B66">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="C66">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D66">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="E66">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="F66">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="G66">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B67">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C67">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="D67">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E67">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="F67">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G67">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68">
-        <v>0.85</v>
-      </c>
-      <c r="C68">
-        <v>0.93</v>
-      </c>
-      <c r="D68">
-        <v>0.89</v>
-      </c>
-      <c r="E68">
-        <v>0.84</v>
-      </c>
-      <c r="F68">
-        <v>0.95</v>
-      </c>
-      <c r="G68">
-        <v>0.89</v>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="C69">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D69">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="E69">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="F69">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G69">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B70">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C70">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="D70">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E70">
         <v>0.82</v>
       </c>
       <c r="F70">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="G70">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>86</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>0.8</v>
+      </c>
+      <c r="C71">
+        <v>0.92</v>
+      </c>
+      <c r="D71">
+        <v>0.86</v>
+      </c>
+      <c r="E71">
+        <v>0.8</v>
+      </c>
+      <c r="F71">
+        <v>0.93</v>
+      </c>
+      <c r="G71">
+        <v>0.86</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B72">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="C72">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D72">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="E72">
-        <v>0.63</v>
+        <v>0.81</v>
       </c>
       <c r="F72">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G72">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B73">
         <v>0.85</v>
@@ -2827,3250 +2187,3250 @@
         <v>0.86</v>
       </c>
       <c r="E73">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F73">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="G73">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74">
-        <v>0.83</v>
-      </c>
-      <c r="C74">
-        <v>0.93</v>
-      </c>
-      <c r="D74">
-        <v>0.88</v>
-      </c>
-      <c r="E74">
-        <v>0.82</v>
-      </c>
-      <c r="F74">
-        <v>0.94</v>
-      </c>
-      <c r="G74">
-        <v>0.88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>0.82</v>
+        <v>0.64</v>
       </c>
       <c r="C75">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D75">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="E75">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="F75">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G75">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B76">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="C76">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D76">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E76">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="F76">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G76">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>79</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77">
+        <v>0.88</v>
+      </c>
+      <c r="C77">
+        <v>0.93</v>
+      </c>
+      <c r="D77">
+        <v>0.9</v>
+      </c>
+      <c r="E77">
+        <v>0.86</v>
+      </c>
+      <c r="F77">
+        <v>0.94</v>
+      </c>
+      <c r="G77">
+        <v>0.9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B78">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="C78">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D78">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="E78">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="F78">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G78">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B79">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="C79">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="D79">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E79">
         <v>0.82</v>
       </c>
       <c r="F79">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G79">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80">
-        <v>0.8</v>
-      </c>
-      <c r="C80">
-        <v>0.92</v>
-      </c>
-      <c r="D80">
-        <v>0.86</v>
-      </c>
-      <c r="E80">
-        <v>0.8</v>
-      </c>
-      <c r="F80">
-        <v>0.93</v>
-      </c>
-      <c r="G80">
-        <v>0.86</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B81">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C81">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D81">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="E81">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
       <c r="F81">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G81">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B82">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C82">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D82">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E82">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="F82">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G82">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>35</v>
+      </c>
+      <c r="B83">
+        <v>0.88</v>
+      </c>
+      <c r="C83">
+        <v>0.94</v>
+      </c>
+      <c r="D83">
+        <v>0.91</v>
+      </c>
+      <c r="E83">
+        <v>0.87</v>
+      </c>
+      <c r="F83">
+        <v>0.95</v>
+      </c>
+      <c r="G83">
+        <v>0.91</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B84">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C84">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D84">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="E84">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="F84">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G84">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B85">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="C85">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D85">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E85">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F85">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="G85">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86">
-        <v>0.88</v>
-      </c>
-      <c r="C86">
-        <v>0.93</v>
-      </c>
-      <c r="D86">
-        <v>0.9</v>
-      </c>
-      <c r="E86">
-        <v>0.86</v>
-      </c>
-      <c r="F86">
-        <v>0.94</v>
-      </c>
-      <c r="G86">
-        <v>0.9</v>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B87">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="C87">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D87">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="E87">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="F87">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G87">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B88">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="C88">
         <v>0.89</v>
       </c>
       <c r="D88">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E88">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="F88">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G88">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>77</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89">
+        <v>0.88</v>
+      </c>
+      <c r="C89">
+        <v>0.93</v>
+      </c>
+      <c r="D89">
+        <v>0.9</v>
+      </c>
+      <c r="E89">
+        <v>0.86</v>
+      </c>
+      <c r="F89">
+        <v>0.93</v>
+      </c>
+      <c r="G89">
+        <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B90">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="C90">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D90">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="E90">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="F90">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G90">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B91">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C91">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D91">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E91">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="F91">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G91">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92">
-        <v>0.88</v>
-      </c>
-      <c r="C92">
-        <v>0.94</v>
-      </c>
-      <c r="D92">
-        <v>0.91</v>
-      </c>
-      <c r="E92">
-        <v>0.87</v>
-      </c>
-      <c r="F92">
-        <v>0.95</v>
-      </c>
-      <c r="G92">
-        <v>0.91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B93">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C93">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D93">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="E93">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="F93">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G93">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B94">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="C94">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D94">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="E94">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="F94">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G94">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>86</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95">
+        <v>0.87</v>
+      </c>
+      <c r="C95">
+        <v>0.92</v>
+      </c>
+      <c r="D95">
+        <v>0.9</v>
+      </c>
+      <c r="E95">
+        <v>0.87</v>
+      </c>
+      <c r="F95">
+        <v>0.95</v>
+      </c>
+      <c r="G95">
+        <v>0.91</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B96">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="C96">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D96">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="E96">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="F96">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G96">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B97">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C97">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="D97">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E97">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="F97">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="G97">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98">
-        <v>0.88</v>
-      </c>
-      <c r="C98">
-        <v>0.93</v>
-      </c>
-      <c r="D98">
-        <v>0.9</v>
-      </c>
-      <c r="E98">
-        <v>0.86</v>
-      </c>
-      <c r="F98">
-        <v>0.93</v>
-      </c>
-      <c r="G98">
-        <v>0.9</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B99">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="C99">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D99">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="E99">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="F99">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G99">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B100">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="C100">
         <v>0.88</v>
       </c>
       <c r="D100">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E100">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="F100">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G100">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>80</v>
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>0.88</v>
+      </c>
+      <c r="C101">
+        <v>0.93</v>
+      </c>
+      <c r="D101">
+        <v>0.9</v>
+      </c>
+      <c r="E101">
+        <v>0.87</v>
+      </c>
+      <c r="F101">
+        <v>0.95</v>
+      </c>
+      <c r="G101">
+        <v>0.91</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B102">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C102">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D102">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="E102">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="F102">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G102">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B103">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="C103">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="D103">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E103">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F103">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G103">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104">
-        <v>0.87</v>
-      </c>
-      <c r="C104">
-        <v>0.92</v>
-      </c>
-      <c r="D104">
-        <v>0.9</v>
-      </c>
-      <c r="E104">
-        <v>0.87</v>
-      </c>
-      <c r="F104">
-        <v>0.95</v>
-      </c>
-      <c r="G104">
-        <v>0.91</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B105">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="C105">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D105">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="E105">
-        <v>0.86</v>
+        <v>0.63</v>
       </c>
       <c r="F105">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G105">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="B106">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C106">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="D106">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E106">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F106">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G106">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>77</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>0.87</v>
+      </c>
+      <c r="C107">
+        <v>0.93</v>
+      </c>
+      <c r="D107">
+        <v>0.9</v>
+      </c>
+      <c r="E107">
+        <v>0.85</v>
+      </c>
+      <c r="F107">
+        <v>0.94</v>
+      </c>
+      <c r="G107">
+        <v>0.89</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="B108">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="C108">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D108">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="E108">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="F108">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G108">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B109">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C109">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="D109">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E109">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="F109">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G109">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110">
-        <v>0.88</v>
-      </c>
-      <c r="C110">
-        <v>0.93</v>
-      </c>
-      <c r="D110">
-        <v>0.9</v>
-      </c>
-      <c r="E110">
-        <v>0.87</v>
-      </c>
-      <c r="F110">
-        <v>0.95</v>
-      </c>
-      <c r="G110">
-        <v>0.91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B111">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C111">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D111">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="E111">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="F111">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G111">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B112">
-        <v>0.81</v>
+        <v>0.88</v>
       </c>
       <c r="C112">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="D112">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="E112">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="F112">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G112">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>86</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113">
+        <v>0.88</v>
+      </c>
+      <c r="C113">
+        <v>0.93</v>
+      </c>
+      <c r="D113">
+        <v>0.9</v>
+      </c>
+      <c r="E113">
+        <v>0.87</v>
+      </c>
+      <c r="F113">
+        <v>0.95</v>
+      </c>
+      <c r="G113">
+        <v>0.91</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B114">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="C114">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D114">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="E114">
-        <v>0.63</v>
+        <v>0.86</v>
       </c>
       <c r="F114">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G114">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B115">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="C115">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="D115">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E115">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="F115">
         <v>0.92</v>
       </c>
       <c r="G115">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116">
-        <v>0.87</v>
-      </c>
-      <c r="C116">
-        <v>0.93</v>
-      </c>
-      <c r="D116">
-        <v>0.9</v>
-      </c>
-      <c r="E116">
-        <v>0.85</v>
-      </c>
-      <c r="F116">
-        <v>0.94</v>
-      </c>
-      <c r="G116">
-        <v>0.89</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B117">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="C117">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D117">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="E117">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="F117">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G117">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B118">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="C118">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D118">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E118">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F118">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G118">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="B119">
+        <v>0.88</v>
+      </c>
+      <c r="C119">
+        <v>0.93</v>
+      </c>
+      <c r="D119">
+        <v>0.9</v>
+      </c>
+      <c r="E119">
+        <v>0.87</v>
+      </c>
+      <c r="F119">
+        <v>0.95</v>
+      </c>
+      <c r="G119">
+        <v>0.91</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B120">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C120">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D120">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="E120">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="F120">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G120">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B121">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="C121">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D121">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E121">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F121">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G121">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122">
-        <v>0.88</v>
-      </c>
-      <c r="C122">
-        <v>0.93</v>
-      </c>
-      <c r="D122">
-        <v>0.9</v>
-      </c>
-      <c r="E122">
-        <v>0.87</v>
-      </c>
-      <c r="F122">
-        <v>0.95</v>
-      </c>
-      <c r="G122">
-        <v>0.91</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B123">
-        <v>0.87</v>
+        <v>0.61</v>
       </c>
       <c r="C123">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D123">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="E123">
-        <v>0.86</v>
+        <v>0.63</v>
       </c>
       <c r="F123">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G123">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B124">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C124">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D124">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E124">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="F124">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G124">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>77</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>0.87</v>
+      </c>
+      <c r="C125">
+        <v>0.93</v>
+      </c>
+      <c r="D125">
+        <v>0.9</v>
+      </c>
+      <c r="E125">
+        <v>0.87</v>
+      </c>
+      <c r="F125">
+        <v>0.93</v>
+      </c>
+      <c r="G125">
+        <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B126">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="C126">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D126">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="E126">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="F126">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="G126">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B127">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C127">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="D127">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E127">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F127">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="G127">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>104</v>
-      </c>
-      <c r="B128">
-        <v>0.88</v>
-      </c>
-      <c r="C128">
-        <v>0.93</v>
-      </c>
-      <c r="D128">
-        <v>0.9</v>
-      </c>
-      <c r="E128">
-        <v>0.87</v>
-      </c>
-      <c r="F128">
-        <v>0.95</v>
-      </c>
-      <c r="G128">
-        <v>0.91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B129">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C129">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D129">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="E129">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="F129">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G129">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B130">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="C130">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D130">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="E130">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="F130">
-        <v>0.88</v>
+        <v>0.94</v>
       </c>
       <c r="G130">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>86</v>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131">
+        <v>0.88</v>
+      </c>
+      <c r="C131">
+        <v>0.93</v>
+      </c>
+      <c r="D131">
+        <v>0.9</v>
+      </c>
+      <c r="E131">
+        <v>0.89</v>
+      </c>
+      <c r="F131">
+        <v>0.95</v>
+      </c>
+      <c r="G131">
+        <v>0.92</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B132">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="C132">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="D132">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="E132">
-        <v>0.63</v>
+        <v>0.85</v>
       </c>
       <c r="F132">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G132">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B133">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="C133">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="D133">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E133">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="F133">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G133">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>104</v>
-      </c>
-      <c r="B134">
-        <v>0.87</v>
-      </c>
-      <c r="C134">
-        <v>0.93</v>
-      </c>
-      <c r="D134">
-        <v>0.9</v>
-      </c>
-      <c r="E134">
-        <v>0.87</v>
-      </c>
-      <c r="F134">
-        <v>0.93</v>
-      </c>
-      <c r="G134">
-        <v>0.9</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B135">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="C135">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D135">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="E135">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="F135">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G135">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B136">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C136">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="D136">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E136">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F136">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="G136">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="B137">
+        <v>0.88</v>
+      </c>
+      <c r="C137">
+        <v>0.92</v>
+      </c>
+      <c r="D137">
+        <v>0.9</v>
+      </c>
+      <c r="E137">
+        <v>0.88</v>
+      </c>
+      <c r="F137">
+        <v>0.95</v>
+      </c>
+      <c r="G137">
+        <v>0.92</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B138">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C138">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D138">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="E138">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="F138">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G138">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B139">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="C139">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D139">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E139">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F139">
-        <v>0.94</v>
+        <v>0.85</v>
       </c>
       <c r="G139">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>109</v>
-      </c>
-      <c r="B140">
-        <v>0.88</v>
-      </c>
-      <c r="C140">
-        <v>0.93</v>
-      </c>
-      <c r="D140">
-        <v>0.9</v>
-      </c>
-      <c r="E140">
-        <v>0.89</v>
-      </c>
-      <c r="F140">
-        <v>0.95</v>
-      </c>
-      <c r="G140">
-        <v>0.92</v>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B141">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C141">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D141">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E141">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="F141">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G141">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B142">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C142">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D142">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E142">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="F142">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="G142">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>77</v>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143">
+        <v>0.87</v>
+      </c>
+      <c r="C143">
+        <v>0.94</v>
+      </c>
+      <c r="D143">
+        <v>0.9</v>
+      </c>
+      <c r="E143">
+        <v>0.87</v>
+      </c>
+      <c r="F143">
+        <v>0.95</v>
+      </c>
+      <c r="G143">
+        <v>0.91</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B144">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="C144">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="D144">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="E144">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="F144">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G144">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B145">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C145">
         <v>0.88</v>
       </c>
       <c r="D145">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E145">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F145">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="G145">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>109</v>
-      </c>
-      <c r="B146">
-        <v>0.88</v>
-      </c>
-      <c r="C146">
-        <v>0.92</v>
-      </c>
-      <c r="D146">
-        <v>0.9</v>
-      </c>
-      <c r="E146">
-        <v>0.88</v>
-      </c>
-      <c r="F146">
-        <v>0.95</v>
-      </c>
-      <c r="G146">
-        <v>0.92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B147">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C147">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D147">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="E147">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="F147">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G147">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B148">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="C148">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="D148">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="E148">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F148">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="G148">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>117</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>55</v>
+      </c>
+      <c r="B149">
+        <v>0.88</v>
+      </c>
+      <c r="C149">
+        <v>0.92</v>
+      </c>
+      <c r="D149">
+        <v>0.9</v>
+      </c>
+      <c r="E149">
+        <v>0.87</v>
+      </c>
+      <c r="F149">
+        <v>0.95</v>
+      </c>
+      <c r="G149">
+        <v>0.91</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B150">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C150">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D150">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E150">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="F150">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G150">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B151">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="C151">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D151">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E151">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="F151">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G151">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>109</v>
-      </c>
-      <c r="B152">
-        <v>0.87</v>
-      </c>
-      <c r="C152">
-        <v>0.94</v>
-      </c>
-      <c r="D152">
-        <v>0.9</v>
-      </c>
-      <c r="E152">
-        <v>0.87</v>
-      </c>
-      <c r="F152">
-        <v>0.95</v>
-      </c>
-      <c r="G152">
-        <v>0.91</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B153">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="C153">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D153">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="E153">
-        <v>0.86</v>
+        <v>0.61</v>
       </c>
       <c r="F153">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G153">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B154">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C154">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D154">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E154">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F154">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="G154">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="B155">
+        <v>0.88</v>
+      </c>
+      <c r="C155">
+        <v>0.93</v>
+      </c>
+      <c r="D155">
+        <v>0.9</v>
+      </c>
+      <c r="E155">
+        <v>0.88</v>
+      </c>
+      <c r="F155">
+        <v>0.95</v>
+      </c>
+      <c r="G155">
+        <v>0.91</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B156">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C156">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D156">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="E156">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="F156">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="G156">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B157">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="C157">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="D157">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="E157">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F157">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="G157">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>114</v>
-      </c>
-      <c r="B158">
-        <v>0.88</v>
-      </c>
-      <c r="C158">
-        <v>0.92</v>
-      </c>
-      <c r="D158">
-        <v>0.9</v>
-      </c>
-      <c r="E158">
-        <v>0.87</v>
-      </c>
-      <c r="F158">
-        <v>0.95</v>
-      </c>
-      <c r="G158">
-        <v>0.91</v>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="B159">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C159">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D159">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E159">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="F159">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G159">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B160">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C160">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D160">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E160">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F160">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G160">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
-        <v>77</v>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161">
+        <v>0.87</v>
+      </c>
+      <c r="C161">
+        <v>0.94</v>
+      </c>
+      <c r="D161">
+        <v>0.9</v>
+      </c>
+      <c r="E161">
+        <v>0.87</v>
+      </c>
+      <c r="F161">
+        <v>0.95</v>
+      </c>
+      <c r="G161">
+        <v>0.91</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B162">
-        <v>0.6</v>
+        <v>0.87</v>
       </c>
       <c r="C162">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D162">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="E162">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="F162">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G162">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B163">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C163">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D163">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E163">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F163">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G163">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>114</v>
-      </c>
-      <c r="B164">
-        <v>0.88</v>
-      </c>
-      <c r="C164">
-        <v>0.93</v>
-      </c>
-      <c r="D164">
-        <v>0.9</v>
-      </c>
-      <c r="E164">
-        <v>0.88</v>
-      </c>
-      <c r="F164">
-        <v>0.95</v>
-      </c>
-      <c r="G164">
-        <v>0.91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B165">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="C165">
         <v>0.94</v>
       </c>
       <c r="D165">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
       <c r="E165">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="F165">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G165">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B166">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C166">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D166">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="E166">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F166">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G166">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
-        <v>117</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>61</v>
+      </c>
+      <c r="B167">
+        <v>0.87</v>
+      </c>
+      <c r="C167">
+        <v>0.92</v>
+      </c>
+      <c r="D167">
+        <v>0.9</v>
+      </c>
+      <c r="E167">
+        <v>0.87</v>
+      </c>
+      <c r="F167">
+        <v>0.95</v>
+      </c>
+      <c r="G167">
+        <v>0.91</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B168">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C168">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D168">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E168">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="F168">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="G168">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B169">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C169">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="D169">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="F169">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G169">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>114</v>
-      </c>
-      <c r="B170">
-        <v>0.87</v>
-      </c>
-      <c r="C170">
-        <v>0.94</v>
-      </c>
-      <c r="D170">
-        <v>0.9</v>
-      </c>
-      <c r="E170">
-        <v>0.87</v>
-      </c>
-      <c r="F170">
-        <v>0.95</v>
-      </c>
-      <c r="G170">
-        <v>0.91</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B171">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="C171">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="D171">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="E171">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="F171">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G171">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B172">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="C172">
         <v>0.88</v>
       </c>
       <c r="D172">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E172">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F172">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="G172">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="B173">
+        <v>0.87</v>
+      </c>
+      <c r="C173">
+        <v>0.93</v>
+      </c>
+      <c r="D173">
+        <v>0.9</v>
+      </c>
+      <c r="E173">
+        <v>0.87</v>
+      </c>
+      <c r="F173">
+        <v>0.95</v>
+      </c>
+      <c r="G173">
+        <v>0.9</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B174">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="C174">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D174">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
       <c r="E174">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="F174">
         <v>0.94</v>
       </c>
       <c r="G174">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B175">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="C175">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D175">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E175">
-        <v>0.88</v>
+        <v>0.81</v>
       </c>
       <c r="F175">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="G175">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>120</v>
-      </c>
-      <c r="B176">
-        <v>0.87</v>
-      </c>
-      <c r="C176">
-        <v>0.92</v>
-      </c>
-      <c r="D176">
-        <v>0.9</v>
-      </c>
-      <c r="E176">
-        <v>0.87</v>
-      </c>
-      <c r="F176">
-        <v>0.95</v>
-      </c>
-      <c r="G176">
-        <v>0.91</v>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B177">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="C177">
         <v>0.93</v>
       </c>
       <c r="D177">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E177">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="F177">
         <v>0.94</v>
       </c>
       <c r="G177">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="B178">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C178">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D178">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E178">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F178">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G178">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
-        <v>77</v>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>61</v>
+      </c>
+      <c r="B179">
+        <v>0.87</v>
+      </c>
+      <c r="C179">
+        <v>0.93</v>
+      </c>
+      <c r="D179">
+        <v>0.9</v>
+      </c>
+      <c r="E179">
+        <v>0.87</v>
+      </c>
+      <c r="F179">
+        <v>0.95</v>
+      </c>
+      <c r="G179">
+        <v>0.91</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B180">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="C180">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D180">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="E180">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="F180">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G180">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B181">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C181">
         <v>0.88</v>
       </c>
       <c r="D181">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E181">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F181">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G181">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>120</v>
-      </c>
-      <c r="B182">
-        <v>0.87</v>
-      </c>
-      <c r="C182">
-        <v>0.93</v>
-      </c>
-      <c r="D182">
-        <v>0.9</v>
-      </c>
-      <c r="E182">
-        <v>0.87</v>
-      </c>
-      <c r="F182">
-        <v>0.95</v>
-      </c>
-      <c r="G182">
-        <v>0.9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B183">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="C183">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D183">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E183">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="F183">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G183">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B184">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="C184">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D184">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="E184">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="F184">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="G184">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
-        <v>117</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185">
+        <v>0.87</v>
+      </c>
+      <c r="C185">
+        <v>0.93</v>
+      </c>
+      <c r="D185">
+        <v>0.9</v>
+      </c>
+      <c r="E185">
+        <v>0.86</v>
+      </c>
+      <c r="F185">
+        <v>0.96</v>
+      </c>
+      <c r="G185">
+        <v>0.91</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B186">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="C186">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D186">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E186">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="F186">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="G186">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B187">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="C187">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D187">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E187">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="F187">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G187">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>120</v>
-      </c>
-      <c r="B188">
-        <v>0.87</v>
-      </c>
-      <c r="C188">
-        <v>0.93</v>
-      </c>
-      <c r="D188">
-        <v>0.9</v>
-      </c>
-      <c r="E188">
-        <v>0.87</v>
-      </c>
-      <c r="F188">
-        <v>0.95</v>
-      </c>
-      <c r="G188">
-        <v>0.91</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B189">
-        <v>0.87</v>
+        <v>0.59</v>
       </c>
       <c r="C189">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="D189">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="E189">
-        <v>0.86</v>
+        <v>0.6</v>
       </c>
       <c r="F189">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G189">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B190">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="C190">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D190">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E190">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G190">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="B191">
+        <v>0.87</v>
+      </c>
+      <c r="C191">
+        <v>0.93</v>
+      </c>
+      <c r="D191">
+        <v>0.9</v>
+      </c>
+      <c r="E191">
+        <v>0.86</v>
+      </c>
+      <c r="F191">
+        <v>0.96</v>
+      </c>
+      <c r="G191">
+        <v>0.91</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B192">
-        <v>0.64</v>
+        <v>0.87</v>
       </c>
       <c r="C192">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D192">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E192">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="G192">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B193">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="C193">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D193">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="E193">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F193">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G193">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>125</v>
-      </c>
-      <c r="B194">
-        <v>0.87</v>
-      </c>
-      <c r="C194">
-        <v>0.93</v>
-      </c>
-      <c r="D194">
-        <v>0.9</v>
-      </c>
-      <c r="E194">
-        <v>0.86</v>
-      </c>
-      <c r="F194">
-        <v>0.96</v>
-      </c>
-      <c r="G194">
-        <v>0.91</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B195">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="C195">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D195">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E195">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="F195">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="G195">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B196">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C196">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D196">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E196">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="F196">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G196">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>77</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197">
+        <v>0.88</v>
+      </c>
+      <c r="C197">
+        <v>0.93</v>
+      </c>
+      <c r="D197">
+        <v>0.9</v>
+      </c>
+      <c r="E197">
+        <v>0.88</v>
+      </c>
+      <c r="F197">
+        <v>0.96</v>
+      </c>
+      <c r="G197">
+        <v>0.92</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B198">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="C198">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D198">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="E198">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="G198">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B199">
         <v>0.86</v>
       </c>
       <c r="C199">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="D199">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E199">
         <v>0.86</v>
       </c>
       <c r="F199">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G199">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>125</v>
-      </c>
-      <c r="B200">
-        <v>0.87</v>
-      </c>
-      <c r="C200">
-        <v>0.93</v>
-      </c>
-      <c r="D200">
-        <v>0.9</v>
-      </c>
-      <c r="E200">
-        <v>0.86</v>
-      </c>
-      <c r="F200">
-        <v>0.96</v>
-      </c>
-      <c r="G200">
-        <v>0.91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B201">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="C201">
+        <v>0.93</v>
+      </c>
+      <c r="D201">
+        <v>0.91</v>
+      </c>
+      <c r="E201">
+        <v>0.71</v>
+      </c>
+      <c r="F201">
         <v>0.94</v>
       </c>
-      <c r="D201">
-        <v>0.9</v>
-      </c>
-      <c r="E201">
-        <v>0.86</v>
-      </c>
-      <c r="F201">
-        <v>0.97</v>
-      </c>
       <c r="G201">
-        <v>0.91</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B202">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C202">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="D202">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G202">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
-        <v>117</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>71</v>
+      </c>
+      <c r="B203">
+        <v>0.87</v>
+      </c>
+      <c r="C203">
+        <v>0.93</v>
+      </c>
+      <c r="D203">
+        <v>0.9</v>
+      </c>
+      <c r="E203">
+        <v>0.87</v>
+      </c>
+      <c r="F203">
+        <v>0.95</v>
+      </c>
+      <c r="G203">
+        <v>0.91</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B204">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="C204">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D204">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E204">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="F204">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G204">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B205">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C205">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="D205">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E205">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="F205">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G205">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>125</v>
-      </c>
-      <c r="B206">
-        <v>0.88</v>
-      </c>
-      <c r="C206">
-        <v>0.93</v>
-      </c>
-      <c r="D206">
-        <v>0.9</v>
-      </c>
-      <c r="E206">
-        <v>0.88</v>
-      </c>
-      <c r="F206">
-        <v>0.96</v>
-      </c>
-      <c r="G206">
-        <v>0.92</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B207">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="C207">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="D207">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F207">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="G207">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B208">
         <v>0.86</v>
       </c>
       <c r="C208">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D208">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E208">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F208">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G208">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B209">
+        <v>0.88</v>
+      </c>
+      <c r="C209">
+        <v>0.93</v>
+      </c>
+      <c r="D209">
+        <v>0.9</v>
+      </c>
+      <c r="E209">
+        <v>0.87</v>
+      </c>
+      <c r="F209">
+        <v>0.95</v>
+      </c>
+      <c r="G209">
+        <v>0.91</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B210">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="C210">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D210">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E210">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="F210">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="G210">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B211">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="C211">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D211">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E211">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="F211">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="G211">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>130</v>
-      </c>
-      <c r="B212">
-        <v>0.87</v>
-      </c>
-      <c r="C212">
-        <v>0.93</v>
-      </c>
-      <c r="D212">
-        <v>0.9</v>
-      </c>
-      <c r="E212">
-        <v>0.87</v>
-      </c>
-      <c r="F212">
-        <v>0.95</v>
-      </c>
-      <c r="G212">
-        <v>0.91</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B213">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="C213">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D213">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E213">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="F213">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G213">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="B214">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C214">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D214">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E214">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="F214">
         <v>0.92</v>
       </c>
       <c r="G214">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>77</v>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>71</v>
+      </c>
+      <c r="B215">
+        <v>0.87</v>
+      </c>
+      <c r="C215">
+        <v>0.93</v>
+      </c>
+      <c r="D215">
+        <v>0.9</v>
+      </c>
+      <c r="E215">
+        <v>0.86</v>
+      </c>
+      <c r="F215">
+        <v>0.95</v>
+      </c>
+      <c r="G215">
+        <v>0.9</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B216">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="C216">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="D216">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="E216">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F216">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="G216">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B217">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C217">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D217">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E217">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="F217">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G217">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>130</v>
-      </c>
-      <c r="B218">
-        <v>0.88</v>
-      </c>
-      <c r="C218">
-        <v>0.93</v>
-      </c>
-      <c r="D218">
-        <v>0.9</v>
-      </c>
-      <c r="E218">
-        <v>0.87</v>
-      </c>
-      <c r="F218">
-        <v>0.95</v>
-      </c>
-      <c r="G218">
-        <v>0.91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="B219">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="C219">
+        <v>0.93</v>
+      </c>
+      <c r="D219">
+        <v>0.8</v>
+      </c>
+      <c r="E219">
+        <v>0.7</v>
+      </c>
+      <c r="F219">
         <v>0.94</v>
       </c>
-      <c r="D219">
-        <v>0.9</v>
-      </c>
-      <c r="E219">
-        <v>0.85</v>
-      </c>
-      <c r="F219">
-        <v>0.96</v>
-      </c>
       <c r="G219">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B220">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="C220">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="D220">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="E220">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="F220">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G220">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
-        <v>117</v>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221">
+        <v>0.88</v>
+      </c>
+      <c r="C221">
+        <v>0.93</v>
+      </c>
+      <c r="D221">
+        <v>0.9</v>
+      </c>
+      <c r="E221">
+        <v>0.87</v>
+      </c>
+      <c r="F221">
+        <v>0.95</v>
+      </c>
+      <c r="G221">
+        <v>0.91</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B222">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="C222">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D222">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E222">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="F222">
         <v>0.95</v>
       </c>
       <c r="G222">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B223">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C223">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="D223">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="E223">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="F223">
         <v>0.92</v>
       </c>
       <c r="G223">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>130</v>
-      </c>
-      <c r="B224">
-        <v>0.87</v>
-      </c>
-      <c r="C224">
-        <v>0.93</v>
-      </c>
-      <c r="D224">
-        <v>0.9</v>
-      </c>
-      <c r="E224">
-        <v>0.86</v>
-      </c>
-      <c r="F224">
-        <v>0.95</v>
-      </c>
-      <c r="G224">
-        <v>0.9</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="B225">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="C225">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="D225">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="E225">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="F225">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G225">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B226">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="C226">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D226">
         <v>0.87</v>
       </c>
       <c r="E226">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F226">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G226">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="B227">
+        <v>0.87</v>
+      </c>
+      <c r="C227">
+        <v>0.93</v>
+      </c>
+      <c r="D227">
+        <v>0.9</v>
+      </c>
+      <c r="E227">
+        <v>0.86</v>
+      </c>
+      <c r="F227">
+        <v>0.94</v>
+      </c>
+      <c r="G227">
+        <v>0.9</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B228">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="C228">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D228">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E228">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="F228">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G228">
-        <v>0.81</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B229">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="C229">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="D229">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="E229">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="F229">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="G229">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>135</v>
-      </c>
-      <c r="B230">
-        <v>0.88</v>
-      </c>
-      <c r="C230">
-        <v>0.93</v>
-      </c>
-      <c r="D230">
-        <v>0.9</v>
-      </c>
-      <c r="E230">
-        <v>0.87</v>
-      </c>
-      <c r="F230">
-        <v>0.95</v>
-      </c>
-      <c r="G230">
-        <v>0.91</v>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B231">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="C231">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D231">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E231">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="F231">
         <v>0.95</v>
       </c>
       <c r="G231">
-        <v>0.89</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="B232">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C232">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="D232">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E232">
-        <v>0.81</v>
+        <v>0.87</v>
       </c>
       <c r="F232">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G232">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
-        <v>77</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233">
+        <v>0.88</v>
+      </c>
+      <c r="C233">
+        <v>0.93</v>
+      </c>
+      <c r="D233">
+        <v>0.9</v>
+      </c>
+      <c r="E233">
+        <v>0.87</v>
+      </c>
+      <c r="F233">
+        <v>0.95</v>
+      </c>
+      <c r="G233">
+        <v>0.91</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B234">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="C234">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D234">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="E234">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="F234">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="G234">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B235">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C235">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="D235">
         <v>0.87</v>
       </c>
       <c r="E235">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="F235">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G235">
         <v>0.88</v>
@@ -6078,550 +5438,361 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>135</v>
-      </c>
-      <c r="B236">
-        <v>0.87</v>
-      </c>
-      <c r="C236">
-        <v>0.93</v>
-      </c>
-      <c r="D236">
-        <v>0.9</v>
-      </c>
-      <c r="E236">
-        <v>0.86</v>
-      </c>
-      <c r="F236">
-        <v>0.94</v>
-      </c>
-      <c r="G236">
-        <v>0.9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B237">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="C237">
+        <v>0.92</v>
+      </c>
+      <c r="D237">
+        <v>0.75</v>
+      </c>
+      <c r="E237">
+        <v>0.65</v>
+      </c>
+      <c r="F237">
         <v>0.94</v>
       </c>
-      <c r="D237">
-        <v>0.9</v>
-      </c>
-      <c r="E237">
-        <v>0.85</v>
-      </c>
-      <c r="F237">
-        <v>0.95</v>
-      </c>
       <c r="G237">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B238">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="C238">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="D238">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="E238">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="F238">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="G238">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
-        <v>117</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>81</v>
+      </c>
+      <c r="B239">
+        <v>0.88</v>
+      </c>
+      <c r="C239">
+        <v>0.94</v>
+      </c>
+      <c r="D239">
+        <v>0.91</v>
+      </c>
+      <c r="E239">
+        <v>0.88</v>
+      </c>
+      <c r="F239">
+        <v>0.95</v>
+      </c>
+      <c r="G239">
+        <v>0.91</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B240">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="C240">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="D240">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="E240">
-        <v>0.7</v>
+        <v>0.87</v>
       </c>
       <c r="F240">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G240">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B241">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C241">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="D241">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="E241">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="F241">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G241">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>135</v>
-      </c>
-      <c r="B242">
-        <v>0.88</v>
-      </c>
-      <c r="C242">
-        <v>0.93</v>
-      </c>
-      <c r="D242">
-        <v>0.9</v>
-      </c>
-      <c r="E242">
-        <v>0.87</v>
-      </c>
-      <c r="F242">
-        <v>0.95</v>
-      </c>
-      <c r="G242">
-        <v>0.91</v>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B243">
-        <v>0.86</v>
+        <v>0.59</v>
       </c>
       <c r="C243">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="D243">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="E243">
-        <v>0.87</v>
+        <v>0.6</v>
       </c>
       <c r="F243">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G243">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B244">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C244">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D244">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E244">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F244">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G244">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B245">
+        <v>0.88</v>
+      </c>
+      <c r="C245">
+        <v>0.93</v>
+      </c>
+      <c r="D245">
+        <v>0.9</v>
+      </c>
+      <c r="E245">
+        <v>0.89</v>
+      </c>
+      <c r="F245">
+        <v>0.94</v>
+      </c>
+      <c r="G245">
+        <v>0.92</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="B246">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="C246">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="D246">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="E246">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="F246">
         <v>0.94</v>
       </c>
       <c r="G246">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B247">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="C247">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D247">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="E247">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F247">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G247">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>140</v>
-      </c>
-      <c r="B248">
-        <v>0.88</v>
-      </c>
-      <c r="C248">
-        <v>0.94</v>
-      </c>
-      <c r="D248">
-        <v>0.91</v>
-      </c>
-      <c r="E248">
-        <v>0.88</v>
-      </c>
-      <c r="F248">
-        <v>0.95</v>
-      </c>
-      <c r="G248">
-        <v>0.91</v>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="B249">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="C249">
-        <v>0.94</v>
+        <v>0.91</v>
       </c>
       <c r="D249">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="E249">
-        <v>0.87</v>
+        <v>0.64</v>
       </c>
       <c r="F249">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="G249">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="B250">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C250">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="D250">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="E250">
-        <v>0.81</v>
+        <v>0.9</v>
       </c>
       <c r="F250">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="G250">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
-        <v>77</v>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>81</v>
+      </c>
+      <c r="B251">
+        <v>0.87</v>
+      </c>
+      <c r="C251">
+        <v>0.93</v>
+      </c>
+      <c r="D251">
+        <v>0.9</v>
+      </c>
+      <c r="E251">
+        <v>0.88</v>
+      </c>
+      <c r="F251">
+        <v>0.93</v>
+      </c>
+      <c r="G251">
+        <v>0.91</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="B252">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="C252">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D252">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="E252">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="F252">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G252">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B253">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="C253">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="D253">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="E253">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="F253">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G253">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>140</v>
-      </c>
-      <c r="B254">
-        <v>0.88</v>
-      </c>
-      <c r="C254">
-        <v>0.93</v>
-      </c>
-      <c r="D254">
-        <v>0.9</v>
-      </c>
-      <c r="E254">
-        <v>0.89</v>
-      </c>
-      <c r="F254">
-        <v>0.94</v>
-      </c>
-      <c r="G254">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>141</v>
-      </c>
-      <c r="B255">
-        <v>0.88</v>
-      </c>
-      <c r="C255">
-        <v>0.94</v>
-      </c>
-      <c r="D255">
-        <v>0.91</v>
-      </c>
-      <c r="E255">
-        <v>0.87</v>
-      </c>
-      <c r="F255">
-        <v>0.94</v>
-      </c>
-      <c r="G255">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>142</v>
-      </c>
-      <c r="B256">
-        <v>0.8</v>
-      </c>
-      <c r="C256">
-        <v>0.88</v>
-      </c>
-      <c r="D256">
-        <v>0.84</v>
-      </c>
-      <c r="E256">
-        <v>0.82</v>
-      </c>
-      <c r="F256">
-        <v>0.86</v>
-      </c>
-      <c r="G256">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>138</v>
-      </c>
-      <c r="B258">
-        <v>0.64</v>
-      </c>
-      <c r="C258">
-        <v>0.91</v>
-      </c>
-      <c r="D258">
-        <v>0.75</v>
-      </c>
-      <c r="E258">
-        <v>0.64</v>
-      </c>
-      <c r="F258">
-        <v>0.93</v>
-      </c>
-      <c r="G258">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>139</v>
-      </c>
-      <c r="B259">
-        <v>0.89</v>
-      </c>
-      <c r="C259">
-        <v>0.89</v>
-      </c>
-      <c r="D259">
-        <v>0.89</v>
-      </c>
-      <c r="E259">
-        <v>0.9</v>
-      </c>
-      <c r="F259">
-        <v>0.92</v>
-      </c>
-      <c r="G259">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>140</v>
-      </c>
-      <c r="B260">
-        <v>0.87</v>
-      </c>
-      <c r="C260">
-        <v>0.93</v>
-      </c>
-      <c r="D260">
-        <v>0.9</v>
-      </c>
-      <c r="E260">
-        <v>0.88</v>
-      </c>
-      <c r="F260">
-        <v>0.93</v>
-      </c>
-      <c r="G260">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>141</v>
-      </c>
-      <c r="B261">
-        <v>0.87</v>
-      </c>
-      <c r="C261">
-        <v>0.95</v>
-      </c>
-      <c r="D261">
-        <v>0.91</v>
-      </c>
-      <c r="E261">
-        <v>0.88</v>
-      </c>
-      <c r="F261">
-        <v>0.95</v>
-      </c>
-      <c r="G261">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>142</v>
-      </c>
-      <c r="B262">
-        <v>0.86</v>
-      </c>
-      <c r="C262">
-        <v>0.85</v>
-      </c>
-      <c r="D262">
-        <v>0.85</v>
-      </c>
-      <c r="E262">
-        <v>0.84</v>
-      </c>
-      <c r="F262">
-        <v>0.92</v>
-      </c>
-      <c r="G262">
         <v>0.88</v>
       </c>
     </row>
@@ -6631,7 +5802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4F90CF-2D4D-48D0-86FE-634B23BAFE9D}">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -6642,39 +5813,39 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>0.89</v>
@@ -6688,13 +5859,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>147</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>0.88</v>
@@ -6708,13 +5879,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>0.88</v>
@@ -6728,13 +5899,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>0.86</v>
@@ -6748,13 +5919,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>0.86</v>
@@ -6768,13 +5939,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>0.85</v>
@@ -6788,13 +5959,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>0.88</v>
@@ -6808,13 +5979,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>0.89</v>
@@ -6828,13 +5999,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>147</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>0.87</v>
@@ -6848,13 +6019,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>148</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>0.87</v>
@@ -6868,13 +6039,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>0.86</v>
@@ -6888,13 +6059,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>0.87</v>
@@ -6908,13 +6079,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>0.87</v>
@@ -6928,13 +6099,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>0.88</v>
@@ -6948,13 +6119,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D16">
         <v>0.85</v>
@@ -6968,13 +6139,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>147</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D17">
         <v>0.85</v>
@@ -6988,13 +6159,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>0.87</v>
@@ -7008,13 +6179,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>0.86</v>
@@ -7028,13 +6199,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>0.85</v>
@@ -7048,13 +6219,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>151</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <v>0.85</v>
@@ -7068,13 +6239,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>0.87</v>
@@ -7088,13 +6259,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>0.89</v>
@@ -7108,13 +6279,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>0.89</v>
@@ -7128,13 +6299,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>148</v>
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>0.86</v>
@@ -7148,13 +6319,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>0.87</v>
@@ -7168,13 +6339,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>0.87</v>
@@ -7188,13 +6359,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>97</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>0.87</v>
@@ -7208,13 +6379,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>0.9</v>
@@ -7228,13 +6399,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>0.87</v>
@@ -7248,13 +6419,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>147</v>
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D31">
         <v>0.87</v>
@@ -7268,13 +6439,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>97</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>0.86</v>
@@ -7288,13 +6459,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D33">
         <v>0.88</v>
@@ -7308,13 +6479,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>0.86</v>
@@ -7328,13 +6499,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D35">
         <v>0.87</v>
@@ -7348,13 +6519,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>152</v>
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D36">
         <v>0.88</v>
@@ -7368,13 +6539,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D37">
         <v>0.86</v>
@@ -7388,13 +6559,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>97</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D38">
         <v>0.86</v>
@@ -7408,13 +6579,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>97</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D39">
         <v>0.86</v>
@@ -7428,13 +6599,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D40">
         <v>0.86</v>
@@ -7448,13 +6619,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>0.87</v>
@@ -7468,13 +6639,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>97</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D42">
         <v>0.87</v>
@@ -7488,13 +6659,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>97</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>0.88</v>
@@ -7511,12 +6682,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5C29-B47A-450B-AA49-EF0EDDC02364}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7526,131 +6697,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{9FE4479A-6A4C-4B90-8396-FAAA5CD4A129}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46BA30-83E0-4504-B8DE-9EC14CD049A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE6217F-881C-473D-946E-7B3E9767E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="H262" sqref="H262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6686,7 +6686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4B5C29-B47A-450B-AA49-EF0EDDC02364}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE6217F-881C-473D-946E-7B3E9767E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF0226-523E-441D-AC49-677DFAC00726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="H262" sqref="H262"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="K193" sqref="K193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEF0226-523E-441D-AC49-677DFAC00726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC24F4C-DD0E-4039-ABB9-5F61C7FC32D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="K193" sqref="K193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4278,10 +4278,10 @@
         <v>0.89</v>
       </c>
       <c r="E178">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F178">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G178">
         <v>0.91</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC24F4C-DD0E-4039-ABB9-5F61C7FC32D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E5118-4A82-4BCD-88DD-5106D518BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="103">
   <si>
     <t>Version</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>Sheet with the same results like in the Eval (binary) just differently written to make it easier to visualize</t>
+  </si>
+  <si>
+    <t>3.13(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.13(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.13(LightGBM)</t>
   </si>
 </sst>
 </file>
@@ -722,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="H259" sqref="H259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5794,6 +5803,26 @@
       </c>
       <c r="G253">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E5118-4A82-4BCD-88DD-5106D518BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFFF530-5E04-43BF-B63D-60328D175636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval (binary)" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="109">
   <si>
     <t>Version</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>3.13(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.14(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.14(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.14(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.15(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.15(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.15(LightGBM)</t>
   </si>
 </sst>
 </file>
@@ -731,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="H259" sqref="H259"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5814,15 +5832,217 @@
       <c r="A255" t="s">
         <v>100</v>
       </c>
+      <c r="B255">
+        <v>0.9</v>
+      </c>
+      <c r="C255">
+        <v>0.89</v>
+      </c>
+      <c r="D255">
+        <v>0.9</v>
+      </c>
+      <c r="E255">
+        <v>0.89</v>
+      </c>
+      <c r="F255">
+        <v>0.92</v>
+      </c>
+      <c r="G255">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>0.89</v>
+      </c>
+      <c r="C256">
+        <v>0.92</v>
+      </c>
+      <c r="D256">
+        <v>0.9</v>
+      </c>
+      <c r="E256">
+        <v>0.86</v>
+      </c>
+      <c r="F256">
+        <v>0.95</v>
+      </c>
+      <c r="G256">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>102</v>
+      </c>
+      <c r="B257">
+        <v>0.88</v>
+      </c>
+      <c r="C257">
+        <v>0.94</v>
+      </c>
+      <c r="D257">
+        <v>0.91</v>
+      </c>
+      <c r="E257">
+        <v>0.86</v>
+      </c>
+      <c r="F257">
+        <v>0.97</v>
+      </c>
+      <c r="G257">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>103</v>
+      </c>
+      <c r="B259">
+        <v>0.9</v>
+      </c>
+      <c r="C259">
+        <v>0.9</v>
+      </c>
+      <c r="D259">
+        <v>0.9</v>
+      </c>
+      <c r="E259">
+        <v>0.88</v>
+      </c>
+      <c r="F259">
+        <v>0.89</v>
+      </c>
+      <c r="G259">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>104</v>
+      </c>
+      <c r="B260">
+        <v>0.88</v>
+      </c>
+      <c r="C260">
+        <v>0.92</v>
+      </c>
+      <c r="D260">
+        <v>0.9</v>
+      </c>
+      <c r="E260">
+        <v>0.86</v>
+      </c>
+      <c r="F260">
+        <v>0.93</v>
+      </c>
+      <c r="G260">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>105</v>
+      </c>
+      <c r="B261">
+        <v>0.87</v>
+      </c>
+      <c r="C261">
+        <v>0.94</v>
+      </c>
+      <c r="D261">
+        <v>0.91</v>
+      </c>
+      <c r="E261">
+        <v>0.86</v>
+      </c>
+      <c r="F261">
+        <v>0.94</v>
+      </c>
+      <c r="G261">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>106</v>
+      </c>
+      <c r="B263">
+        <v>0.89</v>
+      </c>
+      <c r="C263">
+        <v>0.89</v>
+      </c>
+      <c r="D263">
+        <v>0.89</v>
+      </c>
+      <c r="E263">
+        <v>0.88</v>
+      </c>
+      <c r="F263">
+        <v>0.89</v>
+      </c>
+      <c r="G263">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>107</v>
+      </c>
+      <c r="B264">
+        <v>0.87</v>
+      </c>
+      <c r="C264">
+        <v>0.92</v>
+      </c>
+      <c r="D264">
+        <v>0.89</v>
+      </c>
+      <c r="E264">
+        <v>0.88</v>
+      </c>
+      <c r="F264">
+        <v>0.92</v>
+      </c>
+      <c r="G264">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>108</v>
+      </c>
+      <c r="B265">
+        <v>0.87</v>
+      </c>
+      <c r="C265">
+        <v>0.93</v>
+      </c>
+      <c r="D265">
+        <v>0.9</v>
+      </c>
+      <c r="E265">
+        <v>0.87</v>
+      </c>
+      <c r="F265">
+        <v>0.94</v>
+      </c>
+      <c r="G265">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFFF530-5E04-43BF-B63D-60328D175636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAACF5F-F3A9-4B4E-B7CD-DEAB2530995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262"/>
+      <selection activeCell="G266" sqref="G266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5833,22 +5833,22 @@
         <v>100</v>
       </c>
       <c r="B255">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C255">
         <v>0.89</v>
       </c>
       <c r="D255">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="E255">
         <v>0.89</v>
       </c>
       <c r="F255">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G255">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -5856,22 +5856,22 @@
         <v>101</v>
       </c>
       <c r="B256">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="C256">
         <v>0.92</v>
       </c>
       <c r="D256">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E256">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F256">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="G256">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -5879,19 +5879,19 @@
         <v>102</v>
       </c>
       <c r="B257">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="C257">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D257">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="E257">
         <v>0.86</v>
       </c>
       <c r="F257">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G257">
         <v>0.91</v>
@@ -5907,22 +5907,22 @@
         <v>103</v>
       </c>
       <c r="B259">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C259">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D259">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E259">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F259">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G259">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -5930,22 +5930,22 @@
         <v>104</v>
       </c>
       <c r="B260">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C260">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D260">
         <v>0.9</v>
       </c>
       <c r="E260">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F260">
         <v>0.93</v>
       </c>
       <c r="G260">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -5956,19 +5956,19 @@
         <v>0.87</v>
       </c>
       <c r="C261">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D261">
         <v>0.91</v>
       </c>
       <c r="E261">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F261">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="G261">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -5981,19 +5981,19 @@
         <v>106</v>
       </c>
       <c r="B263">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C263">
         <v>0.89</v>
       </c>
       <c r="D263">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E263">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F263">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G263">
         <v>0.89</v>
@@ -6013,10 +6013,10 @@
         <v>0.89</v>
       </c>
       <c r="E264">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F264">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G264">
         <v>0.9</v>
@@ -6027,16 +6027,16 @@
         <v>108</v>
       </c>
       <c r="B265">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="C265">
         <v>0.93</v>
       </c>
       <c r="D265">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E265">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F265">
         <v>0.94</v>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAACF5F-F3A9-4B4E-B7CD-DEAB2530995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C7C7D-4742-4CD3-87A5-B1EB092888C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="112">
   <si>
     <t>Version</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>3.15(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.16(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.16(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.16(LightGBM)</t>
   </si>
 </sst>
 </file>
@@ -749,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="G266" sqref="G266"/>
+      <selection activeCell="H262" sqref="H262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6042,6 +6051,80 @@
         <v>0.94</v>
       </c>
       <c r="G265">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>109</v>
+      </c>
+      <c r="B267">
+        <v>0.89</v>
+      </c>
+      <c r="C267">
+        <v>0.89</v>
+      </c>
+      <c r="D267">
+        <v>0.89</v>
+      </c>
+      <c r="E267">
+        <v>0.87</v>
+      </c>
+      <c r="F267">
+        <v>0.88</v>
+      </c>
+      <c r="G267">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>110</v>
+      </c>
+      <c r="B268">
+        <v>0.87</v>
+      </c>
+      <c r="C268">
+        <v>0.92</v>
+      </c>
+      <c r="D268">
+        <v>0.89</v>
+      </c>
+      <c r="E268">
+        <v>0.87</v>
+      </c>
+      <c r="F268">
+        <v>0.94</v>
+      </c>
+      <c r="G268">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269">
+        <v>0.86</v>
+      </c>
+      <c r="C269">
+        <v>0.93</v>
+      </c>
+      <c r="D269">
+        <v>0.89</v>
+      </c>
+      <c r="E269">
+        <v>0.86</v>
+      </c>
+      <c r="F269">
+        <v>0.95</v>
+      </c>
+      <c r="G269">
         <v>0.9</v>
       </c>
     </row>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047C7C7D-4742-4CD3-87A5-B1EB092888C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F418DB-D747-4F97-A7AF-1469FB86B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="115">
   <si>
     <t>Version</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>3.16(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.17(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.17(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.17(LightGBM)</t>
   </si>
 </sst>
 </file>
@@ -758,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="H262" sqref="H262"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="D274" sqref="D274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6126,6 +6135,80 @@
       </c>
       <c r="G269">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>112</v>
+      </c>
+      <c r="B271">
+        <v>0.87</v>
+      </c>
+      <c r="C271">
+        <v>0.88</v>
+      </c>
+      <c r="D271">
+        <v>0.87</v>
+      </c>
+      <c r="E271">
+        <v>0.88</v>
+      </c>
+      <c r="F271">
+        <v>0.87</v>
+      </c>
+      <c r="G271">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>113</v>
+      </c>
+      <c r="B272">
+        <v>0.83</v>
+      </c>
+      <c r="C272">
+        <v>0.91</v>
+      </c>
+      <c r="D272">
+        <v>0.87</v>
+      </c>
+      <c r="E272">
+        <v>0.85</v>
+      </c>
+      <c r="F272">
+        <v>0.92</v>
+      </c>
+      <c r="G272">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>114</v>
+      </c>
+      <c r="B273">
+        <v>0.83</v>
+      </c>
+      <c r="C273">
+        <v>0.94</v>
+      </c>
+      <c r="D273">
+        <v>0.88</v>
+      </c>
+      <c r="E273">
+        <v>0.84</v>
+      </c>
+      <c r="F273">
+        <v>0.92</v>
+      </c>
+      <c r="G273">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F418DB-D747-4F97-A7AF-1469FB86B94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA3D58-A554-4C35-A0A4-6F4D2EA1C88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -770,7 +770,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="D274" sqref="D274"/>
+      <selection activeCell="E274" sqref="E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6147,22 +6147,22 @@
         <v>112</v>
       </c>
       <c r="B271">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="C271">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="D271">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="E271">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F271">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="G271">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -6170,22 +6170,22 @@
         <v>113</v>
       </c>
       <c r="B272">
+        <v>0.79</v>
+      </c>
+      <c r="C272">
+        <v>0.91</v>
+      </c>
+      <c r="D272">
+        <v>0.85</v>
+      </c>
+      <c r="E272">
+        <v>0.77</v>
+      </c>
+      <c r="F272">
+        <v>0.9</v>
+      </c>
+      <c r="G272">
         <v>0.83</v>
-      </c>
-      <c r="C272">
-        <v>0.91</v>
-      </c>
-      <c r="D272">
-        <v>0.87</v>
-      </c>
-      <c r="E272">
-        <v>0.85</v>
-      </c>
-      <c r="F272">
-        <v>0.92</v>
-      </c>
-      <c r="G272">
-        <v>0.89</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -6193,22 +6193,22 @@
         <v>114</v>
       </c>
       <c r="B273">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="C273">
+        <v>0.95</v>
+      </c>
+      <c r="D273">
+        <v>0.85</v>
+      </c>
+      <c r="E273">
+        <v>0.77</v>
+      </c>
+      <c r="F273">
         <v>0.94</v>
       </c>
-      <c r="D273">
-        <v>0.88</v>
-      </c>
-      <c r="E273">
-        <v>0.84</v>
-      </c>
-      <c r="F273">
-        <v>0.92</v>
-      </c>
       <c r="G273">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA3D58-A554-4C35-A0A4-6F4D2EA1C88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF72BF12-975F-4897-A2D3-E952F22FA3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="121">
   <si>
     <t>Version</t>
   </si>
@@ -391,6 +391,24 @@
   </si>
   <si>
     <t>3.17(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.18(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.18(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.18(LightGBM)</t>
+  </si>
+  <si>
+    <t>3.19(Random Forest)</t>
+  </si>
+  <si>
+    <t>3.19(XGBoost)</t>
+  </si>
+  <si>
+    <t>3.19(LightGBM)</t>
   </si>
 </sst>
 </file>
@@ -767,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="E274" sqref="E274"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6209,6 +6227,154 @@
       </c>
       <c r="G273">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>115</v>
+      </c>
+      <c r="B275">
+        <v>0.89</v>
+      </c>
+      <c r="C275">
+        <v>0.89</v>
+      </c>
+      <c r="D275">
+        <v>0.89</v>
+      </c>
+      <c r="E275">
+        <v>0.88</v>
+      </c>
+      <c r="F275">
+        <v>0.9</v>
+      </c>
+      <c r="G275">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>116</v>
+      </c>
+      <c r="B276">
+        <v>0.88</v>
+      </c>
+      <c r="C276">
+        <v>0.89</v>
+      </c>
+      <c r="D276">
+        <v>0.88</v>
+      </c>
+      <c r="E276">
+        <v>0.89</v>
+      </c>
+      <c r="F276">
+        <v>0.9</v>
+      </c>
+      <c r="G276">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>117</v>
+      </c>
+      <c r="B277">
+        <v>0.88</v>
+      </c>
+      <c r="C277">
+        <v>0.9</v>
+      </c>
+      <c r="D277">
+        <v>0.89</v>
+      </c>
+      <c r="E277">
+        <v>0.9</v>
+      </c>
+      <c r="F277">
+        <v>0.92</v>
+      </c>
+      <c r="G277">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>118</v>
+      </c>
+      <c r="B279">
+        <v>0.81</v>
+      </c>
+      <c r="C279">
+        <v>0.85</v>
+      </c>
+      <c r="D279">
+        <v>0.83</v>
+      </c>
+      <c r="E279">
+        <v>0.8</v>
+      </c>
+      <c r="F279">
+        <v>0.81</v>
+      </c>
+      <c r="G279">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>119</v>
+      </c>
+      <c r="B280">
+        <v>0.8</v>
+      </c>
+      <c r="C280">
+        <v>0.85</v>
+      </c>
+      <c r="D280">
+        <v>0.83</v>
+      </c>
+      <c r="E280">
+        <v>0.82</v>
+      </c>
+      <c r="F280">
+        <v>0.84</v>
+      </c>
+      <c r="G280">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>120</v>
+      </c>
+      <c r="B281">
+        <v>0.82</v>
+      </c>
+      <c r="C281">
+        <v>0.88</v>
+      </c>
+      <c r="D281">
+        <v>0.85</v>
+      </c>
+      <c r="E281">
+        <v>0.81</v>
+      </c>
+      <c r="F281">
+        <v>0.87</v>
+      </c>
+      <c r="G281">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/statistics_by_versions.xlsx
+++ b/statistics_by_versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF72BF12-975F-4897-A2D3-E952F22FA3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C5EB2-0F94-46B2-A232-AAB189B74A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{761929B9-5547-4A46-AB35-1FD98812C8E9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="124">
   <si>
     <t>Version</t>
   </si>
@@ -409,6 +409,15 @@
   </si>
   <si>
     <t>3.19(LightGBM)</t>
+  </si>
+  <si>
+    <t>CZI precision</t>
+  </si>
+  <si>
+    <t>CZI recall</t>
+  </si>
+  <si>
+    <t>CZI F1 score</t>
   </si>
 </sst>
 </file>
@@ -785,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7A07D-9167-47BA-AC04-19E90D9369D6}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView tabSelected="1" topLeftCell="B267" workbookViewId="0">
+      <selection activeCell="J285" sqref="J285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +805,7 @@
     <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -818,13 +827,22 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -847,7 +865,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -870,7 +888,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -893,7 +911,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -916,7 +934,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -939,12 +957,12 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -967,7 +985,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1059,12 +1077,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6206,7 +6224,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>114</v>
       </c>
@@ -6229,12 +6247,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>115</v>
       </c>
@@ -6257,7 +6275,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>116</v>
       </c>
@@ -6280,7 +6298,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>117</v>
       </c>
@@ -6302,13 +6320,22 @@
       <c r="G277">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277">
+        <v>0.78</v>
+      </c>
+      <c r="I277">
+        <v>0.94</v>
+      </c>
+      <c r="J277">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>118</v>
       </c>
@@ -6331,7 +6358,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>119</v>
       </c>
@@ -6353,8 +6380,17 @@
       <c r="G280">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280">
+        <v>0.82</v>
+      </c>
+      <c r="I280">
+        <v>0.86</v>
+      </c>
+      <c r="J280">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>120</v>
       </c>
@@ -6375,6 +6411,15 @@
       </c>
       <c r="G281">
         <v>0.84</v>
+      </c>
+      <c r="H281">
+        <v>0.82</v>
+      </c>
+      <c r="I281">
+        <v>0.89</v>
+      </c>
+      <c r="J281">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
